--- a/new_data/double_hit/20260204_213012_phrase110/20260204_213012_phrase110_keypoints.xlsx
+++ b/new_data/double_hit/20260204_213012_phrase110/20260204_213012_phrase110_keypoints.xlsx
@@ -491,1645 +491,1645 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.728388058429922</v>
+        <v>2.728387622385376</v>
       </c>
       <c r="B2" t="n">
-        <v>2.69183456063001</v>
+        <v>2.6918390466595</v>
       </c>
       <c r="C2" t="n">
-        <v>2.718233169598336</v>
+        <v>2.718253471228563</v>
       </c>
       <c r="D2" t="n">
-        <v>2.605884818468368</v>
+        <v>2.605913764791314</v>
       </c>
       <c r="E2" t="n">
-        <v>2.61880557303188</v>
+        <v>2.618860747233907</v>
       </c>
       <c r="F2" t="n">
-        <v>2.582223676813375</v>
+        <v>2.58225695264632</v>
       </c>
       <c r="G2" t="n">
-        <v>2.597292543854959</v>
+        <v>2.597335909044893</v>
       </c>
       <c r="H2" t="n">
-        <v>2.637719796309713</v>
+        <v>2.637646905180011</v>
       </c>
       <c r="I2" t="n">
-        <v>2.673804194306187</v>
+        <v>2.673757761865591</v>
       </c>
       <c r="J2" t="n">
-        <v>2.811727074368622</v>
+        <v>2.811695354910469</v>
       </c>
       <c r="K2" t="n">
-        <v>2.818860161103177</v>
+        <v>2.818818412773262</v>
       </c>
       <c r="L2" t="n">
-        <v>2.557498646254397</v>
+        <v>2.557551858618678</v>
       </c>
       <c r="M2" t="n">
-        <v>2.598645675911287</v>
+        <v>2.598720061845125</v>
       </c>
       <c r="N2" t="n">
-        <v>2.621205590000812</v>
+        <v>2.621250935105128</v>
       </c>
       <c r="O2" t="n">
-        <v>2.886503791802428</v>
+        <v>2.886541980139616</v>
       </c>
       <c r="P2" t="n">
-        <v>2.495034045672019</v>
+        <v>2.495004840415298</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.933223748160019</v>
+        <v>2.933231193047332</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.754205376311476</v>
+        <v>2.754200599606719</v>
       </c>
       <c r="B3" t="n">
-        <v>2.725465300200209</v>
+        <v>2.725447700068673</v>
       </c>
       <c r="C3" t="n">
-        <v>2.740669848575074</v>
+        <v>2.740669524315801</v>
       </c>
       <c r="D3" t="n">
-        <v>2.640505470815103</v>
+        <v>2.640494094868634</v>
       </c>
       <c r="E3" t="n">
-        <v>2.646203035019632</v>
+        <v>2.646181812922879</v>
       </c>
       <c r="F3" t="n">
-        <v>2.626486644065966</v>
+        <v>2.626456583731735</v>
       </c>
       <c r="G3" t="n">
-        <v>2.633091905872214</v>
+        <v>2.633074608132336</v>
       </c>
       <c r="H3" t="n">
-        <v>2.664611521028065</v>
+        <v>2.664615446643898</v>
       </c>
       <c r="I3" t="n">
-        <v>2.781484160957328</v>
+        <v>2.781421394854742</v>
       </c>
       <c r="J3" t="n">
-        <v>2.835463243944344</v>
+        <v>2.835536229927834</v>
       </c>
       <c r="K3" t="n">
-        <v>2.966375395890609</v>
+        <v>2.966225427058732</v>
       </c>
       <c r="L3" t="n">
-        <v>2.560456639559032</v>
+        <v>2.56045514365888</v>
       </c>
       <c r="M3" t="n">
-        <v>2.595312543003006</v>
+        <v>2.595293862949415</v>
       </c>
       <c r="N3" t="n">
-        <v>2.582644218826994</v>
+        <v>2.582697125858248</v>
       </c>
       <c r="O3" t="n">
-        <v>2.847266643445408</v>
+        <v>2.847228955368698</v>
       </c>
       <c r="P3" t="n">
-        <v>2.489165214461527</v>
+        <v>2.489199322122736</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.025076680112675</v>
+        <v>3.025013706110318</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.774520412941054</v>
+        <v>2.774472232581846</v>
       </c>
       <c r="B4" t="n">
-        <v>2.749024242608041</v>
+        <v>2.748988990849007</v>
       </c>
       <c r="C4" t="n">
-        <v>2.758649904120277</v>
+        <v>2.758592690337444</v>
       </c>
       <c r="D4" t="n">
-        <v>2.648679131702575</v>
+        <v>2.648624414888232</v>
       </c>
       <c r="E4" t="n">
-        <v>2.677314554382358</v>
+        <v>2.677274765111672</v>
       </c>
       <c r="F4" t="n">
-        <v>2.647935338553851</v>
+        <v>2.647898681277169</v>
       </c>
       <c r="G4" t="n">
-        <v>2.655695469382911</v>
+        <v>2.655694532762972</v>
       </c>
       <c r="H4" t="n">
-        <v>2.659373590487441</v>
+        <v>2.659410499209187</v>
       </c>
       <c r="I4" t="n">
-        <v>2.806787677820993</v>
+        <v>2.806762820526867</v>
       </c>
       <c r="J4" t="n">
-        <v>2.685461219242278</v>
+        <v>2.685675745202642</v>
       </c>
       <c r="K4" t="n">
-        <v>3.001716000738359</v>
+        <v>3.001569004513485</v>
       </c>
       <c r="L4" t="n">
-        <v>2.571804612569315</v>
+        <v>2.571792364809107</v>
       </c>
       <c r="M4" t="n">
-        <v>2.617559022694719</v>
+        <v>2.617563016334703</v>
       </c>
       <c r="N4" t="n">
-        <v>2.592479537799961</v>
+        <v>2.592529413904372</v>
       </c>
       <c r="O4" t="n">
-        <v>2.84763792647369</v>
+        <v>2.847613559122967</v>
       </c>
       <c r="P4" t="n">
-        <v>2.498710238488868</v>
+        <v>2.498706783023618</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.001257418867734</v>
+        <v>3.001288177159638</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.791679368531362</v>
+        <v>2.791664756649162</v>
       </c>
       <c r="B5" t="n">
-        <v>2.762889507538115</v>
+        <v>2.762897833273221</v>
       </c>
       <c r="C5" t="n">
-        <v>2.780182566771782</v>
+        <v>2.780175552155749</v>
       </c>
       <c r="D5" t="n">
-        <v>2.685559036017434</v>
+        <v>2.685593530452983</v>
       </c>
       <c r="E5" t="n">
-        <v>2.686875530607798</v>
+        <v>2.686853747585818</v>
       </c>
       <c r="F5" t="n">
-        <v>2.655195867574318</v>
+        <v>2.655232622602307</v>
       </c>
       <c r="G5" t="n">
-        <v>2.676869295226629</v>
+        <v>2.676851245207244</v>
       </c>
       <c r="H5" t="n">
-        <v>2.622496140356905</v>
+        <v>2.622507821576463</v>
       </c>
       <c r="I5" t="n">
-        <v>2.804209381890889</v>
+        <v>2.804178577798774</v>
       </c>
       <c r="J5" t="n">
-        <v>2.598340129963084</v>
+        <v>2.598366836428146</v>
       </c>
       <c r="K5" t="n">
-        <v>2.968197803049254</v>
+        <v>2.968111983851551</v>
       </c>
       <c r="L5" t="n">
-        <v>2.622589749958936</v>
+        <v>2.622554801433412</v>
       </c>
       <c r="M5" t="n">
-        <v>2.647544772648747</v>
+        <v>2.647537918047321</v>
       </c>
       <c r="N5" t="n">
-        <v>2.61932761309714</v>
+        <v>2.619368936059626</v>
       </c>
       <c r="O5" t="n">
-        <v>2.870975466395818</v>
+        <v>2.870954309021403</v>
       </c>
       <c r="P5" t="n">
-        <v>2.509697797001443</v>
+        <v>2.509766682779472</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.009136051739815</v>
+        <v>3.009167470480917</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.813765274448803</v>
+        <v>2.813766500469579</v>
       </c>
       <c r="B6" t="n">
-        <v>2.787131764980999</v>
+        <v>2.787128921580013</v>
       </c>
       <c r="C6" t="n">
-        <v>2.801994305240577</v>
+        <v>2.802007337096688</v>
       </c>
       <c r="D6" t="n">
-        <v>2.718491209550002</v>
+        <v>2.718515541699225</v>
       </c>
       <c r="E6" t="n">
-        <v>2.728444504669349</v>
+        <v>2.728430920984877</v>
       </c>
       <c r="F6" t="n">
-        <v>2.684240262541627</v>
+        <v>2.684229361621752</v>
       </c>
       <c r="G6" t="n">
-        <v>2.700874197985711</v>
+        <v>2.700943497518876</v>
       </c>
       <c r="H6" t="n">
-        <v>2.639884912779165</v>
+        <v>2.639790799398202</v>
       </c>
       <c r="I6" t="n">
-        <v>2.822804911804504</v>
+        <v>2.822737724868954</v>
       </c>
       <c r="J6" t="n">
-        <v>2.610401569415815</v>
+        <v>2.61010619113001</v>
       </c>
       <c r="K6" t="n">
-        <v>2.992889000924351</v>
+        <v>2.992688058570559</v>
       </c>
       <c r="L6" t="n">
-        <v>2.6155734122786</v>
+        <v>2.615676459541885</v>
       </c>
       <c r="M6" t="n">
-        <v>2.640491446904687</v>
+        <v>2.640547385452635</v>
       </c>
       <c r="N6" t="n">
-        <v>2.687914001174152</v>
+        <v>2.687873631196728</v>
       </c>
       <c r="O6" t="n">
-        <v>2.927924813609083</v>
+        <v>2.92789074027896</v>
       </c>
       <c r="P6" t="n">
-        <v>2.51511540889428</v>
+        <v>2.515094514093738</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.026049588897831</v>
+        <v>3.02591859425049</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.852546470418402</v>
+        <v>2.852541185163306</v>
       </c>
       <c r="B7" t="n">
-        <v>2.824674123764165</v>
+        <v>2.82466933324101</v>
       </c>
       <c r="C7" t="n">
-        <v>2.840993222419395</v>
+        <v>2.840982562672313</v>
       </c>
       <c r="D7" t="n">
-        <v>2.751865136260696</v>
+        <v>2.751822331997709</v>
       </c>
       <c r="E7" t="n">
-        <v>2.75521790264356</v>
+        <v>2.75519576620334</v>
       </c>
       <c r="F7" t="n">
-        <v>2.717160866348102</v>
+        <v>2.717129285323308</v>
       </c>
       <c r="G7" t="n">
-        <v>2.719269711877008</v>
+        <v>2.719217960679788</v>
       </c>
       <c r="H7" t="n">
-        <v>2.742310821392704</v>
+        <v>2.742261580512825</v>
       </c>
       <c r="I7" t="n">
-        <v>2.828047575414893</v>
+        <v>2.828038209699324</v>
       </c>
       <c r="J7" t="n">
-        <v>2.855879778625562</v>
+        <v>2.855637648570511</v>
       </c>
       <c r="K7" t="n">
-        <v>3.010757215783981</v>
+        <v>3.01081702441331</v>
       </c>
       <c r="L7" t="n">
-        <v>2.617292568396802</v>
+        <v>2.617345296251384</v>
       </c>
       <c r="M7" t="n">
-        <v>2.646299274104867</v>
+        <v>2.64637393950204</v>
       </c>
       <c r="N7" t="n">
-        <v>2.735421400101638</v>
+        <v>2.735420927685642</v>
       </c>
       <c r="O7" t="n">
-        <v>2.980052565122219</v>
+        <v>2.980012612689207</v>
       </c>
       <c r="P7" t="n">
-        <v>2.533512325176618</v>
+        <v>2.533542346950626</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.027097876201477</v>
+        <v>3.027008947646822</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.882240873633523</v>
+        <v>2.882239466673445</v>
       </c>
       <c r="B8" t="n">
-        <v>2.852441992285797</v>
+        <v>2.852440914722357</v>
       </c>
       <c r="C8" t="n">
-        <v>2.870818924495792</v>
+        <v>2.870814596536375</v>
       </c>
       <c r="D8" t="n">
-        <v>2.769048458395353</v>
+        <v>2.769038345993499</v>
       </c>
       <c r="E8" t="n">
-        <v>2.780557531076547</v>
+        <v>2.780514753734833</v>
       </c>
       <c r="F8" t="n">
-        <v>2.741340016194111</v>
+        <v>2.741341441448943</v>
       </c>
       <c r="G8" t="n">
-        <v>2.75594153642106</v>
+        <v>2.755942535571246</v>
       </c>
       <c r="H8" t="n">
-        <v>2.752628913481764</v>
+        <v>2.752652893797038</v>
       </c>
       <c r="I8" t="n">
-        <v>2.858072767616968</v>
+        <v>2.858102338080549</v>
       </c>
       <c r="J8" t="n">
-        <v>2.846962675187127</v>
+        <v>2.846917976763377</v>
       </c>
       <c r="K8" t="n">
-        <v>3.000957657782578</v>
+        <v>3.001036799865371</v>
       </c>
       <c r="L8" t="n">
-        <v>2.634809659599375</v>
+        <v>2.634862472165969</v>
       </c>
       <c r="M8" t="n">
-        <v>2.655975246395724</v>
+        <v>2.656012873883188</v>
       </c>
       <c r="N8" t="n">
-        <v>2.730413812289608</v>
+        <v>2.730467883439118</v>
       </c>
       <c r="O8" t="n">
-        <v>2.997389624374819</v>
+        <v>2.997321184015104</v>
       </c>
       <c r="P8" t="n">
-        <v>2.56952800601205</v>
+        <v>2.569594829410968</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.037033816731682</v>
+        <v>3.036827387153025</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.903120022059611</v>
+        <v>2.903139542884239</v>
       </c>
       <c r="B9" t="n">
-        <v>2.872106845368683</v>
+        <v>2.872126000677527</v>
       </c>
       <c r="C9" t="n">
-        <v>2.896577166654717</v>
+        <v>2.896589008203507</v>
       </c>
       <c r="D9" t="n">
-        <v>2.799845842164745</v>
+        <v>2.799859586323077</v>
       </c>
       <c r="E9" t="n">
-        <v>2.822430473396379</v>
+        <v>2.822420435536581</v>
       </c>
       <c r="F9" t="n">
-        <v>2.766833381745041</v>
+        <v>2.766875870190098</v>
       </c>
       <c r="G9" t="n">
-        <v>2.80570818731667</v>
+        <v>2.805700164210377</v>
       </c>
       <c r="H9" t="n">
-        <v>2.818600017564948</v>
+        <v>2.81859105130139</v>
       </c>
       <c r="I9" t="n">
-        <v>2.898154330679951</v>
+        <v>2.898107088655635</v>
       </c>
       <c r="J9" t="n">
-        <v>3.0031646706844</v>
+        <v>3.003129507075245</v>
       </c>
       <c r="K9" t="n">
-        <v>3.006039922917576</v>
+        <v>3.006043660589816</v>
       </c>
       <c r="L9" t="n">
-        <v>2.708032878356776</v>
+        <v>2.708015017777406</v>
       </c>
       <c r="M9" t="n">
-        <v>2.720321855756018</v>
+        <v>2.720325668575516</v>
       </c>
       <c r="N9" t="n">
-        <v>2.730145079106249</v>
+        <v>2.730165319136535</v>
       </c>
       <c r="O9" t="n">
-        <v>3.040401658818244</v>
+        <v>3.040336852586237</v>
       </c>
       <c r="P9" t="n">
-        <v>2.539655499134637</v>
+        <v>2.539707927281142</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.113516367568796</v>
+        <v>3.113374753322883</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.952171278225092</v>
+        <v>2.952192473669149</v>
       </c>
       <c r="B10" t="n">
-        <v>2.922849034532652</v>
+        <v>2.922878094721383</v>
       </c>
       <c r="C10" t="n">
-        <v>2.94840796186478</v>
+        <v>2.948437591072775</v>
       </c>
       <c r="D10" t="n">
-        <v>2.848805767613637</v>
+        <v>2.848845903877986</v>
       </c>
       <c r="E10" t="n">
-        <v>2.86264473771168</v>
+        <v>2.862638874341592</v>
       </c>
       <c r="F10" t="n">
-        <v>2.80847738372732</v>
+        <v>2.808522812182683</v>
       </c>
       <c r="G10" t="n">
-        <v>2.824753358858019</v>
+        <v>2.824741030112248</v>
       </c>
       <c r="H10" t="n">
-        <v>2.8793430078448</v>
+        <v>2.8792951619074</v>
       </c>
       <c r="I10" t="n">
-        <v>2.951093540709571</v>
+        <v>2.951044622537447</v>
       </c>
       <c r="J10" t="n">
-        <v>3.048849662453241</v>
+        <v>3.048797784584209</v>
       </c>
       <c r="K10" t="n">
-        <v>3.090112214072188</v>
+        <v>3.090116218174105</v>
       </c>
       <c r="L10" t="n">
-        <v>2.719561584512554</v>
+        <v>2.719592397151583</v>
       </c>
       <c r="M10" t="n">
-        <v>2.754895352703977</v>
+        <v>2.754955958575336</v>
       </c>
       <c r="N10" t="n">
-        <v>2.733618100520936</v>
+        <v>2.73367495986772</v>
       </c>
       <c r="O10" t="n">
-        <v>3.080405564477295</v>
+        <v>3.080349316272166</v>
       </c>
       <c r="P10" t="n">
-        <v>2.527039063427167</v>
+        <v>2.527146074486739</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.20195114665627</v>
+        <v>3.201879895469818</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.99282098495883</v>
+        <v>2.992812870727824</v>
       </c>
       <c r="B11" t="n">
-        <v>2.96189931428337</v>
+        <v>2.961898722472192</v>
       </c>
       <c r="C11" t="n">
-        <v>2.983532598492114</v>
+        <v>2.983532946596787</v>
       </c>
       <c r="D11" t="n">
-        <v>2.885347870986335</v>
+        <v>2.885381858149756</v>
       </c>
       <c r="E11" t="n">
-        <v>2.899787415047971</v>
+        <v>2.89980186946524</v>
       </c>
       <c r="F11" t="n">
-        <v>2.857623651885874</v>
+        <v>2.85768688188291</v>
       </c>
       <c r="G11" t="n">
-        <v>2.8711279764216</v>
+        <v>2.871177463341907</v>
       </c>
       <c r="H11" t="n">
-        <v>2.894413277277426</v>
+        <v>2.894452301202237</v>
       </c>
       <c r="I11" t="n">
-        <v>3.006032560364608</v>
+        <v>3.00609519819408</v>
       </c>
       <c r="J11" t="n">
-        <v>3.069321065683964</v>
+        <v>3.069251552153996</v>
       </c>
       <c r="K11" t="n">
-        <v>3.145656365461703</v>
+        <v>3.145613453067693</v>
       </c>
       <c r="L11" t="n">
-        <v>2.749795908278717</v>
+        <v>2.74983971191531</v>
       </c>
       <c r="M11" t="n">
-        <v>2.785519891777483</v>
+        <v>2.785581215770331</v>
       </c>
       <c r="N11" t="n">
-        <v>2.781557435889255</v>
+        <v>2.78159248567706</v>
       </c>
       <c r="O11" t="n">
-        <v>3.091381027367135</v>
+        <v>3.091414124371283</v>
       </c>
       <c r="P11" t="n">
-        <v>2.541564328641225</v>
+        <v>2.54164584638025</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.256878947182973</v>
+        <v>3.256955012842768</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.037305529996005</v>
+        <v>3.03728596665219</v>
       </c>
       <c r="B12" t="n">
-        <v>3.010709534488565</v>
+        <v>3.010691511064151</v>
       </c>
       <c r="C12" t="n">
-        <v>3.022435627183457</v>
+        <v>3.022416491332172</v>
       </c>
       <c r="D12" t="n">
-        <v>2.891811140699614</v>
+        <v>2.891820552723276</v>
       </c>
       <c r="E12" t="n">
-        <v>2.943693473780459</v>
+        <v>2.943688067773703</v>
       </c>
       <c r="F12" t="n">
-        <v>2.863187988941446</v>
+        <v>2.863297819424681</v>
       </c>
       <c r="G12" t="n">
-        <v>2.909222351378542</v>
+        <v>2.909233075747569</v>
       </c>
       <c r="H12" t="n">
-        <v>2.954615645810716</v>
+        <v>2.954558996313922</v>
       </c>
       <c r="I12" t="n">
-        <v>2.990050561456019</v>
+        <v>2.990084182469414</v>
       </c>
       <c r="J12" t="n">
-        <v>3.140719948995038</v>
+        <v>3.140594321485089</v>
       </c>
       <c r="K12" t="n">
-        <v>3.150684638541597</v>
+        <v>3.150721636020929</v>
       </c>
       <c r="L12" t="n">
-        <v>2.767469716680197</v>
+        <v>2.767572504337529</v>
       </c>
       <c r="M12" t="n">
-        <v>2.845549065017128</v>
+        <v>2.845576246072778</v>
       </c>
       <c r="N12" t="n">
-        <v>2.765221508541526</v>
+        <v>2.765231750494888</v>
       </c>
       <c r="O12" t="n">
-        <v>3.121020211434991</v>
+        <v>3.120973569886262</v>
       </c>
       <c r="P12" t="n">
-        <v>2.540431547277319</v>
+        <v>2.540353725016204</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.289402849623537</v>
+        <v>3.289271544887895</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.065706052176309</v>
+        <v>3.065675122894836</v>
       </c>
       <c r="B13" t="n">
-        <v>3.036854661276109</v>
+        <v>3.036836502647657</v>
       </c>
       <c r="C13" t="n">
-        <v>3.055919115694281</v>
+        <v>3.055884731064423</v>
       </c>
       <c r="D13" t="n">
-        <v>2.953298800622592</v>
+        <v>2.953284930641165</v>
       </c>
       <c r="E13" t="n">
-        <v>2.976515033719616</v>
+        <v>2.976525234800679</v>
       </c>
       <c r="F13" t="n">
-        <v>2.913139229557915</v>
+        <v>2.913213917432025</v>
       </c>
       <c r="G13" t="n">
-        <v>2.943947306559</v>
+        <v>2.943967492743759</v>
       </c>
       <c r="H13" t="n">
-        <v>3.002328144428046</v>
+        <v>3.00233856261797</v>
       </c>
       <c r="I13" t="n">
-        <v>3.080249548473909</v>
+        <v>3.080321969788271</v>
       </c>
       <c r="J13" t="n">
-        <v>3.163244452710761</v>
+        <v>3.16310223071054</v>
       </c>
       <c r="K13" t="n">
-        <v>3.234268897613709</v>
+        <v>3.234276012794999</v>
       </c>
       <c r="L13" t="n">
-        <v>2.807440315552008</v>
+        <v>2.807530976247563</v>
       </c>
       <c r="M13" t="n">
-        <v>2.883345256578835</v>
+        <v>2.883403269920752</v>
       </c>
       <c r="N13" t="n">
-        <v>2.797522606105344</v>
+        <v>2.797586322200305</v>
       </c>
       <c r="O13" t="n">
-        <v>3.192318122591065</v>
+        <v>3.192322649944409</v>
       </c>
       <c r="P13" t="n">
-        <v>2.557678502905491</v>
+        <v>2.557711905668655</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.343555127904199</v>
+        <v>3.343639860830939</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.221465418001056</v>
+        <v>3.221593554994699</v>
       </c>
       <c r="B14" t="n">
-        <v>3.205369825418092</v>
+        <v>3.2054868265764</v>
       </c>
       <c r="C14" t="n">
-        <v>3.206225634551269</v>
+        <v>3.206375587302992</v>
       </c>
       <c r="D14" t="n">
-        <v>3.035492588976891</v>
+        <v>3.035674978274007</v>
       </c>
       <c r="E14" t="n">
-        <v>3.150608909425348</v>
+        <v>3.150734958666929</v>
       </c>
       <c r="F14" t="n">
-        <v>2.974709104655711</v>
+        <v>2.974800302739601</v>
       </c>
       <c r="G14" t="n">
-        <v>3.029109255552986</v>
+        <v>3.029190706227329</v>
       </c>
       <c r="H14" t="n">
-        <v>3.048050650157252</v>
+        <v>3.048044003297355</v>
       </c>
       <c r="I14" t="n">
-        <v>3.160809200666907</v>
+        <v>3.160759197994241</v>
       </c>
       <c r="J14" t="n">
-        <v>3.247754640468132</v>
+        <v>3.247705590559153</v>
       </c>
       <c r="K14" t="n">
-        <v>3.323327039519204</v>
+        <v>3.323411526455313</v>
       </c>
       <c r="L14" t="n">
-        <v>2.823766426162446</v>
+        <v>2.823883823020919</v>
       </c>
       <c r="M14" t="n">
-        <v>2.923405783776194</v>
+        <v>2.923490059947524</v>
       </c>
       <c r="N14" t="n">
-        <v>2.822837692695103</v>
+        <v>2.823037133808011</v>
       </c>
       <c r="O14" t="n">
-        <v>3.246643946763133</v>
+        <v>3.246599109749241</v>
       </c>
       <c r="P14" t="n">
-        <v>2.56824797358877</v>
+        <v>2.568438038082608</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.364610627003776</v>
+        <v>3.364434407661573</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.209373651842049</v>
+        <v>3.209358808219196</v>
       </c>
       <c r="B15" t="n">
-        <v>3.180255456046172</v>
+        <v>3.18024882670875</v>
       </c>
       <c r="C15" t="n">
-        <v>3.191194106171169</v>
+        <v>3.191204599468234</v>
       </c>
       <c r="D15" t="n">
-        <v>3.046326760969284</v>
+        <v>3.046397955324435</v>
       </c>
       <c r="E15" t="n">
-        <v>3.124264643109886</v>
+        <v>3.124296167679524</v>
       </c>
       <c r="F15" t="n">
-        <v>3.026043979333664</v>
+        <v>3.026060235013229</v>
       </c>
       <c r="G15" t="n">
-        <v>3.048805136537668</v>
+        <v>3.048872461520999</v>
       </c>
       <c r="H15" t="n">
-        <v>3.10199817934583</v>
+        <v>3.102024560122604</v>
       </c>
       <c r="I15" t="n">
-        <v>3.191360640107367</v>
+        <v>3.191259993627919</v>
       </c>
       <c r="J15" t="n">
-        <v>3.304101310131241</v>
+        <v>3.304021817585805</v>
       </c>
       <c r="K15" t="n">
-        <v>3.329842197701026</v>
+        <v>3.329703321326883</v>
       </c>
       <c r="L15" t="n">
-        <v>2.907822414521198</v>
+        <v>2.907867679830522</v>
       </c>
       <c r="M15" t="n">
-        <v>2.968245834942431</v>
+        <v>2.968340221813291</v>
       </c>
       <c r="N15" t="n">
-        <v>2.924873561300178</v>
+        <v>2.924809177199518</v>
       </c>
       <c r="O15" t="n">
-        <v>3.28989368648812</v>
+        <v>3.289972035590748</v>
       </c>
       <c r="P15" t="n">
-        <v>2.623882929798233</v>
+        <v>2.623836755514984</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.353044757485394</v>
+        <v>3.353006031565029</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.219983441267776</v>
+        <v>3.219950662385306</v>
       </c>
       <c r="B16" t="n">
-        <v>3.181981799418463</v>
+        <v>3.18194290632646</v>
       </c>
       <c r="C16" t="n">
-        <v>3.199867193568354</v>
+        <v>3.199835921096629</v>
       </c>
       <c r="D16" t="n">
-        <v>3.083833709378648</v>
+        <v>3.083831435221482</v>
       </c>
       <c r="E16" t="n">
-        <v>3.126855209961604</v>
+        <v>3.126805032278931</v>
       </c>
       <c r="F16" t="n">
-        <v>3.064913701237768</v>
+        <v>3.06493221008235</v>
       </c>
       <c r="G16" t="n">
-        <v>3.100936919925049</v>
+        <v>3.100894939980165</v>
       </c>
       <c r="H16" t="n">
-        <v>3.154013213678992</v>
+        <v>3.153942560989452</v>
       </c>
       <c r="I16" t="n">
-        <v>3.191305596258982</v>
+        <v>3.191283483556393</v>
       </c>
       <c r="J16" t="n">
-        <v>3.315683657744363</v>
+        <v>3.31560620887893</v>
       </c>
       <c r="K16" t="n">
-        <v>3.327886212795661</v>
+        <v>3.327752956071643</v>
       </c>
       <c r="L16" t="n">
-        <v>2.955284586337591</v>
+        <v>2.955330307398144</v>
       </c>
       <c r="M16" t="n">
-        <v>3.016312437297782</v>
+        <v>3.01630665575729</v>
       </c>
       <c r="N16" t="n">
-        <v>2.985823404258676</v>
+        <v>2.985930672280876</v>
       </c>
       <c r="O16" t="n">
-        <v>3.337645802652377</v>
+        <v>3.337590327759004</v>
       </c>
       <c r="P16" t="n">
-        <v>2.727289986244297</v>
+        <v>2.727361077451465</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.36181145448461</v>
+        <v>3.361629640082583</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.266040417260418</v>
+        <v>3.266063144959592</v>
       </c>
       <c r="B17" t="n">
-        <v>3.243270845710165</v>
+        <v>3.243298950096611</v>
       </c>
       <c r="C17" t="n">
-        <v>3.244890957961049</v>
+        <v>3.244930273039742</v>
       </c>
       <c r="D17" t="n">
-        <v>3.100539692662497</v>
+        <v>3.100581156607265</v>
       </c>
       <c r="E17" t="n">
-        <v>3.193942792612835</v>
+        <v>3.193994642017434</v>
       </c>
       <c r="F17" t="n">
-        <v>3.094687514845624</v>
+        <v>3.094727606669913</v>
       </c>
       <c r="G17" t="n">
-        <v>3.129456294746135</v>
+        <v>3.129515489548077</v>
       </c>
       <c r="H17" t="n">
-        <v>3.167779434741749</v>
+        <v>3.167794256274243</v>
       </c>
       <c r="I17" t="n">
-        <v>3.220852923713609</v>
+        <v>3.220826100465898</v>
       </c>
       <c r="J17" t="n">
-        <v>3.322123437407694</v>
+        <v>3.322103803571609</v>
       </c>
       <c r="K17" t="n">
-        <v>3.333682645568628</v>
+        <v>3.333644720967259</v>
       </c>
       <c r="L17" t="n">
-        <v>3.010298633913357</v>
+        <v>3.010276054866513</v>
       </c>
       <c r="M17" t="n">
-        <v>3.061075006358967</v>
+        <v>3.061076355853134</v>
       </c>
       <c r="N17" t="n">
-        <v>3.114496989504681</v>
+        <v>3.114470365658426</v>
       </c>
       <c r="O17" t="n">
-        <v>3.377332066740491</v>
+        <v>3.377398744603561</v>
       </c>
       <c r="P17" t="n">
-        <v>2.853070438771344</v>
+        <v>2.853080226432393</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.372095538590909</v>
+        <v>3.372175215583639</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.300196001677961</v>
+        <v>3.300190154476957</v>
       </c>
       <c r="B18" t="n">
-        <v>3.279702160190571</v>
+        <v>3.279699924928643</v>
       </c>
       <c r="C18" t="n">
-        <v>3.283992775582549</v>
+        <v>3.283976494294708</v>
       </c>
       <c r="D18" t="n">
-        <v>3.162224914423469</v>
+        <v>3.162131430532261</v>
       </c>
       <c r="E18" t="n">
-        <v>3.234513264252719</v>
+        <v>3.234539310351477</v>
       </c>
       <c r="F18" t="n">
-        <v>3.152003236718524</v>
+        <v>3.151947670048895</v>
       </c>
       <c r="G18" t="n">
-        <v>3.172886942915497</v>
+        <v>3.17288771419769</v>
       </c>
       <c r="H18" t="n">
-        <v>3.211864648929809</v>
+        <v>3.211815434022444</v>
       </c>
       <c r="I18" t="n">
-        <v>3.302065388936502</v>
+        <v>3.301947691961142</v>
       </c>
       <c r="J18" t="n">
-        <v>3.367747425166223</v>
+        <v>3.367669707063939</v>
       </c>
       <c r="K18" t="n">
-        <v>3.413659604283814</v>
+        <v>3.413554302272432</v>
       </c>
       <c r="L18" t="n">
-        <v>3.061192807206467</v>
+        <v>3.06117557450624</v>
       </c>
       <c r="M18" t="n">
-        <v>3.097039324622498</v>
+        <v>3.097058017932106</v>
       </c>
       <c r="N18" t="n">
-        <v>3.224393961093816</v>
+        <v>3.224430577400848</v>
       </c>
       <c r="O18" t="n">
-        <v>3.415768099214959</v>
+        <v>3.415786897265308</v>
       </c>
       <c r="P18" t="n">
-        <v>2.968169755228421</v>
+        <v>2.968145991658446</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.397908298701579</v>
+        <v>3.397902997989771</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.335699283886544</v>
+        <v>3.3356283928375</v>
       </c>
       <c r="B19" t="n">
-        <v>3.320642512467695</v>
+        <v>3.320574854645111</v>
       </c>
       <c r="C19" t="n">
-        <v>3.326019630319204</v>
+        <v>3.325955801245404</v>
       </c>
       <c r="D19" t="n">
-        <v>3.208492249072362</v>
+        <v>3.208442701008708</v>
       </c>
       <c r="E19" t="n">
-        <v>3.270793471098386</v>
+        <v>3.270746756220558</v>
       </c>
       <c r="F19" t="n">
-        <v>3.170139308267113</v>
+        <v>3.170102579991752</v>
       </c>
       <c r="G19" t="n">
-        <v>3.209533524420799</v>
+        <v>3.209505357325198</v>
       </c>
       <c r="H19" t="n">
-        <v>3.255838022432297</v>
+        <v>3.255777010459592</v>
       </c>
       <c r="I19" t="n">
-        <v>3.2955828363464</v>
+        <v>3.295505842024096</v>
       </c>
       <c r="J19" t="n">
-        <v>3.402499025776473</v>
+        <v>3.402486689405735</v>
       </c>
       <c r="K19" t="n">
-        <v>3.423450046743446</v>
+        <v>3.4234908926129</v>
       </c>
       <c r="L19" t="n">
-        <v>3.090100293748334</v>
+        <v>3.089987198865471</v>
       </c>
       <c r="M19" t="n">
-        <v>3.13823911924233</v>
+        <v>3.138119815288525</v>
       </c>
       <c r="N19" t="n">
-        <v>3.255956173877557</v>
+        <v>3.256042060995807</v>
       </c>
       <c r="O19" t="n">
-        <v>3.47283209189588</v>
+        <v>3.472786435793392</v>
       </c>
       <c r="P19" t="n">
-        <v>3.057394781667874</v>
+        <v>3.057462763423552</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.414836210367772</v>
+        <v>3.414786997623398</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.38601742505929</v>
+        <v>3.386005524515641</v>
       </c>
       <c r="B20" t="n">
-        <v>3.362403263504193</v>
+        <v>3.362395692227595</v>
       </c>
       <c r="C20" t="n">
-        <v>3.373835905873617</v>
+        <v>3.373835988586349</v>
       </c>
       <c r="D20" t="n">
-        <v>3.245817938439591</v>
+        <v>3.24585023680565</v>
       </c>
       <c r="E20" t="n">
-        <v>3.293838963086088</v>
+        <v>3.293852431536281</v>
       </c>
       <c r="F20" t="n">
-        <v>3.183326341829661</v>
+        <v>3.183408397386482</v>
       </c>
       <c r="G20" t="n">
-        <v>3.254206691053078</v>
+        <v>3.254247009745252</v>
       </c>
       <c r="H20" t="n">
-        <v>3.253037798119849</v>
+        <v>3.253140528935341</v>
       </c>
       <c r="I20" t="n">
-        <v>3.275153855444687</v>
+        <v>3.275172679460205</v>
       </c>
       <c r="J20" t="n">
-        <v>3.395111930964496</v>
+        <v>3.395169751984044</v>
       </c>
       <c r="K20" t="n">
-        <v>3.403544858895796</v>
+        <v>3.403689934697122</v>
       </c>
       <c r="L20" t="n">
-        <v>3.12331697736348</v>
+        <v>3.123313797834983</v>
       </c>
       <c r="M20" t="n">
-        <v>3.190312352803721</v>
+        <v>3.190283583914483</v>
       </c>
       <c r="N20" t="n">
-        <v>3.311604803399677</v>
+        <v>3.311605909119395</v>
       </c>
       <c r="O20" t="n">
-        <v>3.541874958256954</v>
+        <v>3.541856291597661</v>
       </c>
       <c r="P20" t="n">
-        <v>3.139465159610507</v>
+        <v>3.139475920412967</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.459751640052498</v>
+        <v>3.459612442474874</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.423373967029436</v>
+        <v>3.423342941123108</v>
       </c>
       <c r="B21" t="n">
-        <v>3.395034098261684</v>
+        <v>3.395006724868515</v>
       </c>
       <c r="C21" t="n">
-        <v>3.417707606025584</v>
+        <v>3.417686426108179</v>
       </c>
       <c r="D21" t="n">
-        <v>3.310341950266656</v>
+        <v>3.310332544638533</v>
       </c>
       <c r="E21" t="n">
-        <v>3.320082257246549</v>
+        <v>3.320076307207946</v>
       </c>
       <c r="F21" t="n">
-        <v>3.24422587400954</v>
+        <v>3.244198579297572</v>
       </c>
       <c r="G21" t="n">
-        <v>3.282331292795935</v>
+        <v>3.282328342746104</v>
       </c>
       <c r="H21" t="n">
-        <v>3.304151796208741</v>
+        <v>3.304179585762123</v>
       </c>
       <c r="I21" t="n">
-        <v>3.30434427437921</v>
+        <v>3.304270039516546</v>
       </c>
       <c r="J21" t="n">
-        <v>3.455036801370416</v>
+        <v>3.455023141523752</v>
       </c>
       <c r="K21" t="n">
-        <v>3.464026478545258</v>
+        <v>3.464057648491627</v>
       </c>
       <c r="L21" t="n">
-        <v>3.176383103782372</v>
+        <v>3.176385609964638</v>
       </c>
       <c r="M21" t="n">
-        <v>3.228909660247981</v>
+        <v>3.22893328115297</v>
       </c>
       <c r="N21" t="n">
-        <v>3.338420623702898</v>
+        <v>3.338449638426017</v>
       </c>
       <c r="O21" t="n">
-        <v>3.606857902552404</v>
+        <v>3.606892541027395</v>
       </c>
       <c r="P21" t="n">
-        <v>3.140631948957173</v>
+        <v>3.140582401222879</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.549787599111796</v>
+        <v>3.549841114299099</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.449701755250158</v>
+        <v>3.449659724720827</v>
       </c>
       <c r="B22" t="n">
-        <v>3.423674429310113</v>
+        <v>3.423651816152744</v>
       </c>
       <c r="C22" t="n">
-        <v>3.439623472029223</v>
+        <v>3.439577987658146</v>
       </c>
       <c r="D22" t="n">
-        <v>3.309355718766604</v>
+        <v>3.309344565258834</v>
       </c>
       <c r="E22" t="n">
-        <v>3.35840294305784</v>
+        <v>3.35841537643706</v>
       </c>
       <c r="F22" t="n">
-        <v>3.244168726574591</v>
+        <v>3.244194722742151</v>
       </c>
       <c r="G22" t="n">
-        <v>3.320513492491861</v>
+        <v>3.320511396778637</v>
       </c>
       <c r="H22" t="n">
-        <v>3.300121324354992</v>
+        <v>3.300015908291112</v>
       </c>
       <c r="I22" t="n">
-        <v>3.338036368557481</v>
+        <v>3.33798194343222</v>
       </c>
       <c r="J22" t="n">
-        <v>3.459304978505728</v>
+        <v>3.459032907373865</v>
       </c>
       <c r="K22" t="n">
-        <v>3.514436125733472</v>
+        <v>3.514344326415345</v>
       </c>
       <c r="L22" t="n">
-        <v>3.220257608716421</v>
+        <v>3.220310724423259</v>
       </c>
       <c r="M22" t="n">
-        <v>3.300704017832805</v>
+        <v>3.300732526407544</v>
       </c>
       <c r="N22" t="n">
-        <v>3.341667509562116</v>
+        <v>3.341712284312278</v>
       </c>
       <c r="O22" t="n">
-        <v>3.647052533393122</v>
+        <v>3.647111505726327</v>
       </c>
       <c r="P22" t="n">
-        <v>3.12965438248077</v>
+        <v>3.129700253612343</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.652020854255985</v>
+        <v>3.652106095592615</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3.495544516011186</v>
+        <v>3.495518025233267</v>
       </c>
       <c r="B23" t="n">
-        <v>3.471391135100568</v>
+        <v>3.471379844852529</v>
       </c>
       <c r="C23" t="n">
-        <v>3.484941037345147</v>
+        <v>3.484907940077894</v>
       </c>
       <c r="D23" t="n">
-        <v>3.365215758738255</v>
+        <v>3.365174866302427</v>
       </c>
       <c r="E23" t="n">
-        <v>3.405379536976056</v>
+        <v>3.405378404779674</v>
       </c>
       <c r="F23" t="n">
-        <v>3.293952206162702</v>
+        <v>3.293895905433755</v>
       </c>
       <c r="G23" t="n">
-        <v>3.371290916730753</v>
+        <v>3.37126997684752</v>
       </c>
       <c r="H23" t="n">
-        <v>3.346784483875395</v>
+        <v>3.346614316848458</v>
       </c>
       <c r="I23" t="n">
-        <v>3.347009567637583</v>
+        <v>3.346833789911514</v>
       </c>
       <c r="J23" t="n">
-        <v>3.471617270656037</v>
+        <v>3.471429278881108</v>
       </c>
       <c r="K23" t="n">
-        <v>3.479243823738378</v>
+        <v>3.479055091332436</v>
       </c>
       <c r="L23" t="n">
-        <v>3.245318687228758</v>
+        <v>3.245375179296959</v>
       </c>
       <c r="M23" t="n">
-        <v>3.339930998854773</v>
+        <v>3.339988754634988</v>
       </c>
       <c r="N23" t="n">
-        <v>3.341584417892897</v>
+        <v>3.341684236636488</v>
       </c>
       <c r="O23" t="n">
-        <v>3.697613288216076</v>
+        <v>3.697522995807311</v>
       </c>
       <c r="P23" t="n">
-        <v>3.119009533279002</v>
+        <v>3.119149068576129</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.802160839176775</v>
+        <v>3.802042659638387</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3.547357606034348</v>
+        <v>3.547386241475588</v>
       </c>
       <c r="B24" t="n">
-        <v>3.520249387198939</v>
+        <v>3.520290083086857</v>
       </c>
       <c r="C24" t="n">
-        <v>3.530639351828885</v>
+        <v>3.530664217169648</v>
       </c>
       <c r="D24" t="n">
-        <v>3.399024251372984</v>
+        <v>3.399041383030893</v>
       </c>
       <c r="E24" t="n">
-        <v>3.446804415358075</v>
+        <v>3.446855307737784</v>
       </c>
       <c r="F24" t="n">
-        <v>3.360729860393725</v>
+        <v>3.360758409153359</v>
       </c>
       <c r="G24" t="n">
-        <v>3.438128172581046</v>
+        <v>3.438161229434809</v>
       </c>
       <c r="H24" t="n">
-        <v>3.465926017211195</v>
+        <v>3.465895121851813</v>
       </c>
       <c r="I24" t="n">
-        <v>3.482427602000721</v>
+        <v>3.482375234954065</v>
       </c>
       <c r="J24" t="n">
-        <v>3.605425360103342</v>
+        <v>3.60538603024153</v>
       </c>
       <c r="K24" t="n">
-        <v>3.615069603296881</v>
+        <v>3.614917682262781</v>
       </c>
       <c r="L24" t="n">
-        <v>3.265987126400835</v>
+        <v>3.266046316354118</v>
       </c>
       <c r="M24" t="n">
-        <v>3.363176682163672</v>
+        <v>3.363225552835028</v>
       </c>
       <c r="N24" t="n">
-        <v>3.393955308952882</v>
+        <v>3.394006474630658</v>
       </c>
       <c r="O24" t="n">
-        <v>3.727971197692786</v>
+        <v>3.72791545729325</v>
       </c>
       <c r="P24" t="n">
-        <v>3.129008581406083</v>
+        <v>3.129054105281333</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.916151740814295</v>
+        <v>3.916076095097398</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3.593942582254179</v>
+        <v>3.593861590855406</v>
       </c>
       <c r="B25" t="n">
-        <v>3.575085331112414</v>
+        <v>3.574996724119117</v>
       </c>
       <c r="C25" t="n">
-        <v>3.579696392857412</v>
+        <v>3.579623889432556</v>
       </c>
       <c r="D25" t="n">
-        <v>3.442422293950628</v>
+        <v>3.442393623711505</v>
       </c>
       <c r="E25" t="n">
-        <v>3.524993676092897</v>
+        <v>3.524925312107086</v>
       </c>
       <c r="F25" t="n">
-        <v>3.416570617488552</v>
+        <v>3.416556805965741</v>
       </c>
       <c r="G25" t="n">
-        <v>3.493871112900718</v>
+        <v>3.493903881491558</v>
       </c>
       <c r="H25" t="n">
-        <v>3.519353960518836</v>
+        <v>3.51937117110879</v>
       </c>
       <c r="I25" t="n">
-        <v>3.533359639851957</v>
+        <v>3.53324705751395</v>
       </c>
       <c r="J25" t="n">
-        <v>3.670824814538167</v>
+        <v>3.670775680386217</v>
       </c>
       <c r="K25" t="n">
-        <v>3.687610383513631</v>
+        <v>3.687568875669474</v>
       </c>
       <c r="L25" t="n">
-        <v>3.297343187701451</v>
+        <v>3.297344016576176</v>
       </c>
       <c r="M25" t="n">
-        <v>3.408442008413294</v>
+        <v>3.408492397984249</v>
       </c>
       <c r="N25" t="n">
-        <v>3.375241452295127</v>
+        <v>3.375184030004001</v>
       </c>
       <c r="O25" t="n">
-        <v>3.802492154060369</v>
+        <v>3.802534545752552</v>
       </c>
       <c r="P25" t="n">
-        <v>3.126266205724105</v>
+        <v>3.126068430193498</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.037228223189833</v>
+        <v>4.037363010111625</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3.672829532532229</v>
+        <v>3.672812292244511</v>
       </c>
       <c r="B26" t="n">
-        <v>3.656301302312911</v>
+        <v>3.656278888558258</v>
       </c>
       <c r="C26" t="n">
-        <v>3.664528779956607</v>
+        <v>3.664503168291752</v>
       </c>
       <c r="D26" t="n">
-        <v>3.537493187447268</v>
+        <v>3.537434575509383</v>
       </c>
       <c r="E26" t="n">
-        <v>3.599896784019333</v>
+        <v>3.599842056525708</v>
       </c>
       <c r="F26" t="n">
-        <v>3.499123768547279</v>
+        <v>3.499050629999005</v>
       </c>
       <c r="G26" t="n">
-        <v>3.545677190968672</v>
+        <v>3.545635014718456</v>
       </c>
       <c r="H26" t="n">
-        <v>3.569814794980071</v>
+        <v>3.569747601595036</v>
       </c>
       <c r="I26" t="n">
-        <v>3.637138329924062</v>
+        <v>3.637091473550385</v>
       </c>
       <c r="J26" t="n">
-        <v>3.714201821250186</v>
+        <v>3.71411039126946</v>
       </c>
       <c r="K26" t="n">
-        <v>3.752371399426738</v>
+        <v>3.752372329390151</v>
       </c>
       <c r="L26" t="n">
-        <v>3.357969253628205</v>
+        <v>3.357976430310948</v>
       </c>
       <c r="M26" t="n">
-        <v>3.460542939197759</v>
+        <v>3.460557298553047</v>
       </c>
       <c r="N26" t="n">
-        <v>3.375568209407835</v>
+        <v>3.375594227262428</v>
       </c>
       <c r="O26" t="n">
-        <v>3.863619925382279</v>
+        <v>3.863492312526486</v>
       </c>
       <c r="P26" t="n">
-        <v>3.127096771818531</v>
+        <v>3.127148265711409</v>
       </c>
       <c r="Q26" t="n">
-        <v>4.135939723830639</v>
+        <v>4.135632249392922</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3.752305136450019</v>
+        <v>3.752246816040992</v>
       </c>
       <c r="B27" t="n">
-        <v>3.725556280319037</v>
+        <v>3.725503707771266</v>
       </c>
       <c r="C27" t="n">
-        <v>3.736927217482628</v>
+        <v>3.736872833152703</v>
       </c>
       <c r="D27" t="n">
-        <v>3.58066264028512</v>
+        <v>3.580589430671623</v>
       </c>
       <c r="E27" t="n">
-        <v>3.669254136571501</v>
+        <v>3.669211671864982</v>
       </c>
       <c r="F27" t="n">
-        <v>3.574058780869914</v>
+        <v>3.57394563746889</v>
       </c>
       <c r="G27" t="n">
-        <v>3.633973483940782</v>
+        <v>3.633982038093126</v>
       </c>
       <c r="H27" t="n">
-        <v>3.716147288222738</v>
+        <v>3.715932789003909</v>
       </c>
       <c r="I27" t="n">
-        <v>3.724933969294298</v>
+        <v>3.724993240071889</v>
       </c>
       <c r="J27" t="n">
-        <v>3.795429011579017</v>
+        <v>3.795311918640704</v>
       </c>
       <c r="K27" t="n">
-        <v>3.822693597015572</v>
+        <v>3.82277865694581</v>
       </c>
       <c r="L27" t="n">
-        <v>3.409818104622929</v>
+        <v>3.409761204717794</v>
       </c>
       <c r="M27" t="n">
-        <v>3.522621531645918</v>
+        <v>3.522657657519472</v>
       </c>
       <c r="N27" t="n">
-        <v>3.38283539978575</v>
+        <v>3.382864886019066</v>
       </c>
       <c r="O27" t="n">
-        <v>3.932695747932832</v>
+        <v>3.932842995684602</v>
       </c>
       <c r="P27" t="n">
-        <v>3.157103732937065</v>
+        <v>3.157132282918659</v>
       </c>
       <c r="Q27" t="n">
-        <v>4.212421573472231</v>
+        <v>4.212645206980891</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3.850793306317438</v>
+        <v>3.850789520161239</v>
       </c>
       <c r="B28" t="n">
-        <v>3.83483725164312</v>
+        <v>3.834832496212468</v>
       </c>
       <c r="C28" t="n">
-        <v>3.837491977884994</v>
+        <v>3.837487208725983</v>
       </c>
       <c r="D28" t="n">
-        <v>3.67518660127551</v>
+        <v>3.675217380443495</v>
       </c>
       <c r="E28" t="n">
-        <v>3.7742897196147</v>
+        <v>3.774278966565856</v>
       </c>
       <c r="F28" t="n">
-        <v>3.638880450195572</v>
+        <v>3.638917727840254</v>
       </c>
       <c r="G28" t="n">
-        <v>3.709605484611125</v>
+        <v>3.709626269102549</v>
       </c>
       <c r="H28" t="n">
-        <v>3.851607043719365</v>
+        <v>3.851663205262095</v>
       </c>
       <c r="I28" t="n">
-        <v>3.930014376261166</v>
+        <v>3.930063471013823</v>
       </c>
       <c r="J28" t="n">
-        <v>4.117048464706112</v>
+        <v>4.116786665433738</v>
       </c>
       <c r="K28" t="n">
-        <v>4.193767669031507</v>
+        <v>4.19380067480955</v>
       </c>
       <c r="L28" t="n">
-        <v>3.487078281292647</v>
+        <v>3.487164375595191</v>
       </c>
       <c r="M28" t="n">
-        <v>3.613452295828079</v>
+        <v>3.613475330535286</v>
       </c>
       <c r="N28" t="n">
-        <v>3.400581606624755</v>
+        <v>3.400767016283867</v>
       </c>
       <c r="O28" t="n">
-        <v>4.017839816441037</v>
+        <v>4.017672489919271</v>
       </c>
       <c r="P28" t="n">
-        <v>3.130632900830093</v>
+        <v>3.130726798546254</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.329207440455791</v>
+        <v>4.328967332784359</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4.068075917737845</v>
+        <v>4.067798594899092</v>
       </c>
       <c r="B29" t="n">
-        <v>4.033570086157646</v>
+        <v>4.033302407849142</v>
       </c>
       <c r="C29" t="n">
-        <v>4.056577362989463</v>
+        <v>4.056315175238811</v>
       </c>
       <c r="D29" t="n">
-        <v>3.91438017033091</v>
+        <v>3.91424423127237</v>
       </c>
       <c r="E29" t="n">
-        <v>3.949271659447567</v>
+        <v>3.949073484472325</v>
       </c>
       <c r="F29" t="n">
-        <v>3.793667257832924</v>
+        <v>3.79357576750931</v>
       </c>
       <c r="G29" t="n">
-        <v>3.96169719467449</v>
+        <v>3.961631480711306</v>
       </c>
       <c r="H29" t="n">
-        <v>3.656052377903015</v>
+        <v>3.656022602920727</v>
       </c>
       <c r="I29" t="n">
-        <v>4.127606716261057</v>
+        <v>4.127605705773745</v>
       </c>
       <c r="J29" t="n">
-        <v>3.653271085869631</v>
+        <v>3.65318803468621</v>
       </c>
       <c r="K29" t="n">
-        <v>4.193367286389111</v>
+        <v>4.192901045608589</v>
       </c>
       <c r="L29" t="n">
-        <v>3.62096841061589</v>
+        <v>3.620997717182138</v>
       </c>
       <c r="M29" t="n">
-        <v>3.788312227640321</v>
+        <v>3.788340668823124</v>
       </c>
       <c r="N29" t="n">
-        <v>3.473828140133224</v>
+        <v>3.473923418450725</v>
       </c>
       <c r="O29" t="n">
-        <v>4.183987744504686</v>
+        <v>4.183906506578714</v>
       </c>
       <c r="P29" t="n">
-        <v>3.204868120022936</v>
+        <v>3.204972151725655</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.383006316193953</v>
+        <v>4.382885834126922</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4.35013812675266</v>
+        <v>4.350132810127315</v>
       </c>
       <c r="B30" t="n">
-        <v>4.321591054708501</v>
+        <v>4.321580977365088</v>
       </c>
       <c r="C30" t="n">
-        <v>4.323020091179959</v>
+        <v>4.32299703439653</v>
       </c>
       <c r="D30" t="n">
-        <v>4.15082119636928</v>
+        <v>4.15076186690589</v>
       </c>
       <c r="E30" t="n">
-        <v>4.262988989652633</v>
+        <v>4.262942052187083</v>
       </c>
       <c r="F30" t="n">
-        <v>4.055718047878682</v>
+        <v>4.05573458834996</v>
       </c>
       <c r="G30" t="n">
-        <v>4.289434228123095</v>
+        <v>4.289351042518962</v>
       </c>
       <c r="H30" t="n">
-        <v>3.912639803048202</v>
+        <v>3.912735967506768</v>
       </c>
       <c r="I30" t="n">
-        <v>4.545041732527917</v>
+        <v>4.544870978500142</v>
       </c>
       <c r="J30" t="n">
-        <v>3.923138102386116</v>
+        <v>3.923184077334454</v>
       </c>
       <c r="K30" t="n">
-        <v>4.722632820893804</v>
+        <v>4.722494805701917</v>
       </c>
       <c r="L30" t="n">
-        <v>3.880535566126857</v>
+        <v>3.880502176105221</v>
       </c>
       <c r="M30" t="n">
-        <v>4.075471777493832</v>
+        <v>4.075368311998839</v>
       </c>
       <c r="N30" t="n">
-        <v>3.72310945854909</v>
+        <v>3.723091257057387</v>
       </c>
       <c r="O30" t="n">
-        <v>4.442815839936696</v>
+        <v>4.442661391366312</v>
       </c>
       <c r="P30" t="n">
-        <v>3.370551506054035</v>
+        <v>3.370460450805034</v>
       </c>
       <c r="Q30" t="n">
-        <v>4.552041416814633</v>
+        <v>4.551757734694405</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4.548222355410416</v>
+        <v>4.548074724267243</v>
       </c>
       <c r="B31" t="n">
-        <v>4.518501832662143</v>
+        <v>4.518353303424577</v>
       </c>
       <c r="C31" t="n">
-        <v>4.534523098519899</v>
+        <v>4.534380446562823</v>
       </c>
       <c r="D31" t="n">
-        <v>4.362697940921823</v>
+        <v>4.362585978178032</v>
       </c>
       <c r="E31" t="n">
-        <v>4.496502874989285</v>
+        <v>4.49640704890682</v>
       </c>
       <c r="F31" t="n">
-        <v>4.252271216116698</v>
+        <v>4.252268158569288</v>
       </c>
       <c r="G31" t="n">
-        <v>4.473939454922156</v>
+        <v>4.473782391230894</v>
       </c>
       <c r="H31" t="n">
-        <v>4.155910824057247</v>
+        <v>4.155890033828126</v>
       </c>
       <c r="I31" t="n">
-        <v>4.752426969171764</v>
+        <v>4.75217660920253</v>
       </c>
       <c r="J31" t="n">
-        <v>4.242915865477743</v>
+        <v>4.243073078657516</v>
       </c>
       <c r="K31" t="n">
-        <v>5.007779589004763</v>
+        <v>5.007568928258866</v>
       </c>
       <c r="L31" t="n">
-        <v>3.956903120898554</v>
+        <v>3.956957686136866</v>
       </c>
       <c r="M31" t="n">
-        <v>4.131207705858296</v>
+        <v>4.131151282589537</v>
       </c>
       <c r="N31" t="n">
-        <v>3.939087495702986</v>
+        <v>3.939150917969751</v>
       </c>
       <c r="O31" t="n">
-        <v>4.483028351263195</v>
+        <v>4.48290770254914</v>
       </c>
       <c r="P31" t="n">
-        <v>3.562067636268146</v>
+        <v>3.562064992600234</v>
       </c>
       <c r="Q31" t="n">
-        <v>4.57466163371895</v>
+        <v>4.574536654587176</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4.504464599530585</v>
+        <v>4.504416062728627</v>
       </c>
       <c r="B32" t="n">
-        <v>4.476305989804968</v>
+        <v>4.476245678357142</v>
       </c>
       <c r="C32" t="n">
-        <v>4.4942601011159</v>
+        <v>4.494189178943733</v>
       </c>
       <c r="D32" t="n">
-        <v>4.321019580359023</v>
+        <v>4.320993729153236</v>
       </c>
       <c r="E32" t="n">
-        <v>4.473599725692313</v>
+        <v>4.47353872704747</v>
       </c>
       <c r="F32" t="n">
-        <v>4.223173354990926</v>
+        <v>4.223159579442632</v>
       </c>
       <c r="G32" t="n">
-        <v>4.400508156393948</v>
+        <v>4.400508539421666</v>
       </c>
       <c r="H32" t="n">
-        <v>4.135851022597253</v>
+        <v>4.135834893850503</v>
       </c>
       <c r="I32" t="n">
-        <v>4.441944253904301</v>
+        <v>4.441921984513301</v>
       </c>
       <c r="J32" t="n">
-        <v>4.22676277486207</v>
+        <v>4.226743371216687</v>
       </c>
       <c r="K32" t="n">
-        <v>4.619841063517271</v>
+        <v>4.619890798127292</v>
       </c>
       <c r="L32" t="n">
-        <v>3.963692797126781</v>
+        <v>3.963712618254918</v>
       </c>
       <c r="M32" t="n">
-        <v>4.129695227119859</v>
+        <v>4.129701217751199</v>
       </c>
       <c r="N32" t="n">
-        <v>3.96550153097277</v>
+        <v>3.965566920220577</v>
       </c>
       <c r="O32" t="n">
-        <v>4.479087983033873</v>
+        <v>4.479050095340185</v>
       </c>
       <c r="P32" t="n">
-        <v>3.574705984335643</v>
+        <v>3.574814063630535</v>
       </c>
       <c r="Q32" t="n">
-        <v>4.537491960355107</v>
+        <v>4.537365069862816</v>
       </c>
     </row>
   </sheetData>
@@ -2206,1645 +2206,1645 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.324573589856366</v>
+        <v>2.324387497923815</v>
       </c>
       <c r="B2" t="n">
-        <v>2.303285293843871</v>
+        <v>2.303078802136356</v>
       </c>
       <c r="C2" t="n">
-        <v>2.292379775207234</v>
+        <v>2.292175443471005</v>
       </c>
       <c r="D2" t="n">
-        <v>2.349726875579691</v>
+        <v>2.349536271122858</v>
       </c>
       <c r="E2" t="n">
-        <v>2.318584328315169</v>
+        <v>2.318397040269012</v>
       </c>
       <c r="F2" t="n">
-        <v>2.499369537577331</v>
+        <v>2.499299816068601</v>
       </c>
       <c r="G2" t="n">
-        <v>2.54996763106177</v>
+        <v>2.549938667621456</v>
       </c>
       <c r="H2" t="n">
-        <v>2.820137739342135</v>
+        <v>2.820169784852415</v>
       </c>
       <c r="I2" t="n">
-        <v>2.697888156860243</v>
+        <v>2.697893137478751</v>
       </c>
       <c r="J2" t="n">
-        <v>2.772592826454284</v>
+        <v>2.772504863423157</v>
       </c>
       <c r="K2" t="n">
-        <v>2.853364940890094</v>
+        <v>2.85326744466829</v>
       </c>
       <c r="L2" t="n">
-        <v>2.930178806610801</v>
+        <v>2.930341581249077</v>
       </c>
       <c r="M2" t="n">
-        <v>2.958960603855559</v>
+        <v>2.959145492497466</v>
       </c>
       <c r="N2" t="n">
-        <v>3.20740469481955</v>
+        <v>3.207583390341695</v>
       </c>
       <c r="O2" t="n">
-        <v>3.202849027520697</v>
+        <v>3.203053690701626</v>
       </c>
       <c r="P2" t="n">
-        <v>3.517957179041336</v>
+        <v>3.51823243547172</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.549688730543358</v>
+        <v>3.549913687660206</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.297724988662545</v>
+        <v>2.297655784022378</v>
       </c>
       <c r="B3" t="n">
-        <v>2.274595002614583</v>
+        <v>2.274519080965313</v>
       </c>
       <c r="C3" t="n">
-        <v>2.261851475218962</v>
+        <v>2.261772990000565</v>
       </c>
       <c r="D3" t="n">
-        <v>2.279831881361925</v>
+        <v>2.279766625807631</v>
       </c>
       <c r="E3" t="n">
-        <v>2.313507146847697</v>
+        <v>2.313456442178621</v>
       </c>
       <c r="F3" t="n">
-        <v>2.516156684242717</v>
+        <v>2.516173648419755</v>
       </c>
       <c r="G3" t="n">
-        <v>2.456946507371406</v>
+        <v>2.456908558879741</v>
       </c>
       <c r="H3" t="n">
-        <v>2.768344282793556</v>
+        <v>2.768394301238173</v>
       </c>
       <c r="I3" t="n">
-        <v>2.623497447560655</v>
+        <v>2.623474940497294</v>
       </c>
       <c r="J3" t="n">
-        <v>2.822039206295754</v>
+        <v>2.822070891377049</v>
       </c>
       <c r="K3" t="n">
-        <v>2.692133971117406</v>
+        <v>2.6922094512779</v>
       </c>
       <c r="L3" t="n">
-        <v>2.914513572778748</v>
+        <v>2.914574229707835</v>
       </c>
       <c r="M3" t="n">
-        <v>2.945390366940875</v>
+        <v>2.945476107105309</v>
       </c>
       <c r="N3" t="n">
-        <v>3.224440590595951</v>
+        <v>3.224416553562953</v>
       </c>
       <c r="O3" t="n">
-        <v>3.253032889751204</v>
+        <v>3.253026234656497</v>
       </c>
       <c r="P3" t="n">
-        <v>3.532599193309613</v>
+        <v>3.532506598873097</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.579629779282933</v>
+        <v>3.579485404033343</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.268152242870288</v>
+        <v>2.268450440414246</v>
       </c>
       <c r="B4" t="n">
-        <v>2.243739244318081</v>
+        <v>2.244037743406714</v>
       </c>
       <c r="C4" t="n">
-        <v>2.233001837307564</v>
+        <v>2.233305300265708</v>
       </c>
       <c r="D4" t="n">
-        <v>2.252473160426698</v>
+        <v>2.252752857466533</v>
       </c>
       <c r="E4" t="n">
-        <v>2.278739068142706</v>
+        <v>2.279012143328882</v>
       </c>
       <c r="F4" t="n">
-        <v>2.439476746866489</v>
+        <v>2.439620848012713</v>
       </c>
       <c r="G4" t="n">
-        <v>2.467843261064033</v>
+        <v>2.468027534052727</v>
       </c>
       <c r="H4" t="n">
-        <v>2.673875190352672</v>
+        <v>2.673897123754672</v>
       </c>
       <c r="I4" t="n">
-        <v>2.621686259530343</v>
+        <v>2.621717578311083</v>
       </c>
       <c r="J4" t="n">
-        <v>2.768546227103556</v>
+        <v>2.768214796113118</v>
       </c>
       <c r="K4" t="n">
-        <v>2.663300636001867</v>
+        <v>2.663212536960482</v>
       </c>
       <c r="L4" t="n">
-        <v>2.892671858201437</v>
+        <v>2.892727193843184</v>
       </c>
       <c r="M4" t="n">
-        <v>2.912159484116431</v>
+        <v>2.912234352355063</v>
       </c>
       <c r="N4" t="n">
-        <v>3.215226180256683</v>
+        <v>3.215296150587971</v>
       </c>
       <c r="O4" t="n">
-        <v>3.246056695514435</v>
+        <v>3.246209247055761</v>
       </c>
       <c r="P4" t="n">
-        <v>3.524237787321439</v>
+        <v>3.524367163358867</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.585098403149911</v>
+        <v>3.585228516247274</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.272627623282005</v>
+        <v>2.272733671103312</v>
       </c>
       <c r="B5" t="n">
-        <v>2.246366974532403</v>
+        <v>2.246465795640252</v>
       </c>
       <c r="C5" t="n">
-        <v>2.235499495752771</v>
+        <v>2.235603456700743</v>
       </c>
       <c r="D5" t="n">
-        <v>2.278181617703644</v>
+        <v>2.27828553322795</v>
       </c>
       <c r="E5" t="n">
-        <v>2.249889956127949</v>
+        <v>2.250008217092517</v>
       </c>
       <c r="F5" t="n">
-        <v>2.481395442194055</v>
+        <v>2.481550019742934</v>
       </c>
       <c r="G5" t="n">
-        <v>2.439706037801801</v>
+        <v>2.439839619883874</v>
       </c>
       <c r="H5" t="n">
-        <v>2.742473323454657</v>
+        <v>2.742581674612778</v>
       </c>
       <c r="I5" t="n">
-        <v>2.626411966742998</v>
+        <v>2.626518288618472</v>
       </c>
       <c r="J5" t="n">
-        <v>2.926155697310021</v>
+        <v>2.926078685124959</v>
       </c>
       <c r="K5" t="n">
-        <v>2.641295016971561</v>
+        <v>2.641415285720358</v>
       </c>
       <c r="L5" t="n">
-        <v>2.867454062490194</v>
+        <v>2.8676006834868</v>
       </c>
       <c r="M5" t="n">
-        <v>2.891313993075344</v>
+        <v>2.891467327306297</v>
       </c>
       <c r="N5" t="n">
-        <v>3.214527789517933</v>
+        <v>3.214716615486962</v>
       </c>
       <c r="O5" t="n">
-        <v>3.241974335192144</v>
+        <v>3.24221771219491</v>
       </c>
       <c r="P5" t="n">
-        <v>3.526126106859042</v>
+        <v>3.526402723429319</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.589729799565013</v>
+        <v>3.589999075303189</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.27168100932888</v>
+        <v>2.271679078493612</v>
       </c>
       <c r="B6" t="n">
-        <v>2.246652711707143</v>
+        <v>2.246643723083544</v>
       </c>
       <c r="C6" t="n">
-        <v>2.237722285553812</v>
+        <v>2.237712817218118</v>
       </c>
       <c r="D6" t="n">
-        <v>2.260795474764587</v>
+        <v>2.260795879095235</v>
       </c>
       <c r="E6" t="n">
-        <v>2.283518942709346</v>
+        <v>2.283528520322951</v>
       </c>
       <c r="F6" t="n">
-        <v>2.482727538384757</v>
+        <v>2.482793057674348</v>
       </c>
       <c r="G6" t="n">
-        <v>2.457624914037812</v>
+        <v>2.457637272556357</v>
       </c>
       <c r="H6" t="n">
-        <v>2.734173447373435</v>
+        <v>2.734209268091518</v>
       </c>
       <c r="I6" t="n">
-        <v>2.645353711945023</v>
+        <v>2.645367027941182</v>
       </c>
       <c r="J6" t="n">
-        <v>2.94196923399473</v>
+        <v>2.941830259848569</v>
       </c>
       <c r="K6" t="n">
-        <v>2.641710300018774</v>
+        <v>2.641785515040785</v>
       </c>
       <c r="L6" t="n">
-        <v>2.882161813838549</v>
+        <v>2.882372517835473</v>
       </c>
       <c r="M6" t="n">
-        <v>2.897574792581982</v>
+        <v>2.897799090115868</v>
       </c>
       <c r="N6" t="n">
-        <v>3.203854541897572</v>
+        <v>3.204048682000272</v>
       </c>
       <c r="O6" t="n">
-        <v>3.223512908921889</v>
+        <v>3.223708349749258</v>
       </c>
       <c r="P6" t="n">
-        <v>3.509977924612016</v>
+        <v>3.510227278205334</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.588249575820535</v>
+        <v>3.588424198307586</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.293731855470281</v>
+        <v>2.29369001796366</v>
       </c>
       <c r="B7" t="n">
-        <v>2.268866936404897</v>
+        <v>2.268837498340147</v>
       </c>
       <c r="C7" t="n">
-        <v>2.260189115937946</v>
+        <v>2.260152710829777</v>
       </c>
       <c r="D7" t="n">
-        <v>2.278406876764712</v>
+        <v>2.278380720027662</v>
       </c>
       <c r="E7" t="n">
-        <v>2.302043125978716</v>
+        <v>2.302035428596972</v>
       </c>
       <c r="F7" t="n">
-        <v>2.489005166583897</v>
+        <v>2.489004741371943</v>
       </c>
       <c r="G7" t="n">
-        <v>2.455836339563047</v>
+        <v>2.455785424762329</v>
       </c>
       <c r="H7" t="n">
-        <v>2.722873155658569</v>
+        <v>2.72279684411058</v>
       </c>
       <c r="I7" t="n">
-        <v>2.622346785710968</v>
+        <v>2.622186500390695</v>
       </c>
       <c r="J7" t="n">
-        <v>2.703416557645371</v>
+        <v>2.7031897657537</v>
       </c>
       <c r="K7" t="n">
-        <v>2.578706830678636</v>
+        <v>2.578443169930788</v>
       </c>
       <c r="L7" t="n">
-        <v>2.889786438633209</v>
+        <v>2.889787096228508</v>
       </c>
       <c r="M7" t="n">
-        <v>2.908631418853359</v>
+        <v>2.908658624287797</v>
       </c>
       <c r="N7" t="n">
-        <v>3.216026244345954</v>
+        <v>3.215881295224138</v>
       </c>
       <c r="O7" t="n">
-        <v>3.217813591728557</v>
+        <v>3.217716314412693</v>
       </c>
       <c r="P7" t="n">
-        <v>3.513547360410816</v>
+        <v>3.513368968489751</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.570917775534342</v>
+        <v>3.570679485623156</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.320135723405012</v>
+        <v>2.320075343069091</v>
       </c>
       <c r="B8" t="n">
-        <v>2.293168094271531</v>
+        <v>2.293106801605203</v>
       </c>
       <c r="C8" t="n">
-        <v>2.286263071380126</v>
+        <v>2.286204443891282</v>
       </c>
       <c r="D8" t="n">
-        <v>2.325120171764855</v>
+        <v>2.325074490682693</v>
       </c>
       <c r="E8" t="n">
-        <v>2.303156624465799</v>
+        <v>2.303111933453383</v>
       </c>
       <c r="F8" t="n">
-        <v>2.518552143440763</v>
+        <v>2.518582768472133</v>
       </c>
       <c r="G8" t="n">
-        <v>2.484147459314445</v>
+        <v>2.484137067238605</v>
       </c>
       <c r="H8" t="n">
-        <v>2.787997390851467</v>
+        <v>2.788069745804791</v>
       </c>
       <c r="I8" t="n">
-        <v>2.662331934389836</v>
+        <v>2.662367951323259</v>
       </c>
       <c r="J8" t="n">
-        <v>2.908740630055729</v>
+        <v>2.908913858137485</v>
       </c>
       <c r="K8" t="n">
-        <v>2.616487946536646</v>
+        <v>2.61651157908853</v>
       </c>
       <c r="L8" t="n">
-        <v>2.900606762014065</v>
+        <v>2.900663108409964</v>
       </c>
       <c r="M8" t="n">
-        <v>2.913000568143671</v>
+        <v>2.913074204946997</v>
       </c>
       <c r="N8" t="n">
-        <v>3.217135185062151</v>
+        <v>3.21715325732121</v>
       </c>
       <c r="O8" t="n">
-        <v>3.19242330191919</v>
+        <v>3.192488131231569</v>
       </c>
       <c r="P8" t="n">
-        <v>3.549390722447004</v>
+        <v>3.54943652657583</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.555263234933982</v>
+        <v>3.555296036644288</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.352709060129795</v>
+        <v>2.3526311568483</v>
       </c>
       <c r="B9" t="n">
-        <v>2.32753982220837</v>
+        <v>2.327462925574177</v>
       </c>
       <c r="C9" t="n">
-        <v>2.318108216556523</v>
+        <v>2.318031018099954</v>
       </c>
       <c r="D9" t="n">
-        <v>2.360320362209558</v>
+        <v>2.360271168435496</v>
       </c>
       <c r="E9" t="n">
-        <v>2.331901959543472</v>
+        <v>2.331847829087982</v>
       </c>
       <c r="F9" t="n">
-        <v>2.550781894360337</v>
+        <v>2.550745739492311</v>
       </c>
       <c r="G9" t="n">
-        <v>2.509134386400453</v>
+        <v>2.509060407243488</v>
       </c>
       <c r="H9" t="n">
-        <v>2.804208855994249</v>
+        <v>2.804154737274353</v>
       </c>
       <c r="I9" t="n">
-        <v>2.671861707414599</v>
+        <v>2.671782679596061</v>
       </c>
       <c r="J9" t="n">
-        <v>2.710562791795943</v>
+        <v>2.710371022543758</v>
       </c>
       <c r="K9" t="n">
-        <v>2.632438742244558</v>
+        <v>2.632211966803823</v>
       </c>
       <c r="L9" t="n">
-        <v>2.935403589735409</v>
+        <v>2.935392967658839</v>
       </c>
       <c r="M9" t="n">
-        <v>2.94957755599353</v>
+        <v>2.949576677305793</v>
       </c>
       <c r="N9" t="n">
-        <v>3.250399199374954</v>
+        <v>3.250394661475509</v>
       </c>
       <c r="O9" t="n">
-        <v>3.200475480682677</v>
+        <v>3.200486977770902</v>
       </c>
       <c r="P9" t="n">
-        <v>3.550748938170858</v>
+        <v>3.550813667457114</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.566551431026114</v>
+        <v>3.566572254099672</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.378480625003616</v>
+        <v>2.378424325398617</v>
       </c>
       <c r="B10" t="n">
-        <v>2.354368264030966</v>
+        <v>2.354301220643615</v>
       </c>
       <c r="C10" t="n">
-        <v>2.345969168783547</v>
+        <v>2.345903921810092</v>
       </c>
       <c r="D10" t="n">
-        <v>2.388420772706946</v>
+        <v>2.3883454895174</v>
       </c>
       <c r="E10" t="n">
-        <v>2.362347167862526</v>
+        <v>2.362273421890948</v>
       </c>
       <c r="F10" t="n">
-        <v>2.571260660144029</v>
+        <v>2.571241227979836</v>
       </c>
       <c r="G10" t="n">
-        <v>2.534623544778258</v>
+        <v>2.53455574453651</v>
       </c>
       <c r="H10" t="n">
-        <v>2.829654715548643</v>
+        <v>2.829670759728271</v>
       </c>
       <c r="I10" t="n">
-        <v>2.719436771709846</v>
+        <v>2.719421131031291</v>
       </c>
       <c r="J10" t="n">
-        <v>2.685747482313658</v>
+        <v>2.68575077273538</v>
       </c>
       <c r="K10" t="n">
-        <v>2.65444067999838</v>
+        <v>2.654425726029427</v>
       </c>
       <c r="L10" t="n">
-        <v>2.955709861420976</v>
+        <v>2.955805014310888</v>
       </c>
       <c r="M10" t="n">
-        <v>2.969053612182431</v>
+        <v>2.969172536592356</v>
       </c>
       <c r="N10" t="n">
-        <v>3.272196913933334</v>
+        <v>3.272248709259108</v>
       </c>
       <c r="O10" t="n">
-        <v>3.225601770378451</v>
+        <v>3.225708149033078</v>
       </c>
       <c r="P10" t="n">
-        <v>3.566546873255228</v>
+        <v>3.566588381513251</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.55713928354997</v>
+        <v>3.557194513699318</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.387359337987285</v>
+        <v>2.387313335048332</v>
       </c>
       <c r="B11" t="n">
-        <v>2.365078324416171</v>
+        <v>2.365031560208938</v>
       </c>
       <c r="C11" t="n">
-        <v>2.355109778294247</v>
+        <v>2.3550607867636</v>
       </c>
       <c r="D11" t="n">
-        <v>2.403934022409858</v>
+        <v>2.403921065075429</v>
       </c>
       <c r="E11" t="n">
-        <v>2.371312127895258</v>
+        <v>2.37129302853106</v>
       </c>
       <c r="F11" t="n">
-        <v>2.594861849581991</v>
+        <v>2.594932573825646</v>
       </c>
       <c r="G11" t="n">
-        <v>2.535614334049196</v>
+        <v>2.535643819059184</v>
       </c>
       <c r="H11" t="n">
-        <v>2.875382655543135</v>
+        <v>2.875466478864104</v>
       </c>
       <c r="I11" t="n">
-        <v>2.657206896328067</v>
+        <v>2.657240310294943</v>
       </c>
       <c r="J11" t="n">
-        <v>2.98466537985602</v>
+        <v>2.984625754164751</v>
       </c>
       <c r="K11" t="n">
-        <v>2.649721984740934</v>
+        <v>2.649719676627828</v>
       </c>
       <c r="L11" t="n">
-        <v>2.960312508819725</v>
+        <v>2.960416402806696</v>
       </c>
       <c r="M11" t="n">
-        <v>2.977277233250762</v>
+        <v>2.977387350235272</v>
       </c>
       <c r="N11" t="n">
-        <v>3.270915479119011</v>
+        <v>3.270887345195455</v>
       </c>
       <c r="O11" t="n">
-        <v>3.24044783254329</v>
+        <v>3.240437736570093</v>
       </c>
       <c r="P11" t="n">
-        <v>3.564841215150802</v>
+        <v>3.56481962495875</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.579399085956579</v>
+        <v>3.579309755463709</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.411357579388919</v>
+        <v>2.411401730804543</v>
       </c>
       <c r="B12" t="n">
-        <v>2.386184660191009</v>
+        <v>2.386239810257473</v>
       </c>
       <c r="C12" t="n">
-        <v>2.377452672370074</v>
+        <v>2.37750541342055</v>
       </c>
       <c r="D12" t="n">
-        <v>2.386090875290098</v>
+        <v>2.386143746967893</v>
       </c>
       <c r="E12" t="n">
-        <v>2.418499431067484</v>
+        <v>2.418561425943837</v>
       </c>
       <c r="F12" t="n">
-        <v>2.54993467487229</v>
+        <v>2.549901855046982</v>
       </c>
       <c r="G12" t="n">
-        <v>2.612382622061049</v>
+        <v>2.612402945181256</v>
       </c>
       <c r="H12" t="n">
-        <v>2.896782266344561</v>
+        <v>2.896738362077088</v>
       </c>
       <c r="I12" t="n">
-        <v>2.666481609482127</v>
+        <v>2.66637947015311</v>
       </c>
       <c r="J12" t="n">
-        <v>3.020572550684603</v>
+        <v>3.020553073871881</v>
       </c>
       <c r="K12" t="n">
-        <v>2.674843541366942</v>
+        <v>2.674771159451475</v>
       </c>
       <c r="L12" t="n">
-        <v>2.974609184293992</v>
+        <v>2.974551379616965</v>
       </c>
       <c r="M12" t="n">
-        <v>2.993601766171278</v>
+        <v>2.993555082348414</v>
       </c>
       <c r="N12" t="n">
-        <v>3.275976007192864</v>
+        <v>3.275967129876954</v>
       </c>
       <c r="O12" t="n">
-        <v>3.248537525267142</v>
+        <v>3.248564550630218</v>
       </c>
       <c r="P12" t="n">
-        <v>3.560411412447938</v>
+        <v>3.560444187535525</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.586553033257879</v>
+        <v>3.586529577807978</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.400498339656656</v>
+        <v>2.400624236084299</v>
       </c>
       <c r="B13" t="n">
-        <v>2.376558472782132</v>
+        <v>2.376695887378064</v>
       </c>
       <c r="C13" t="n">
-        <v>2.366765926735936</v>
+        <v>2.366889718730019</v>
       </c>
       <c r="D13" t="n">
-        <v>2.380674665788302</v>
+        <v>2.380763150963547</v>
       </c>
       <c r="E13" t="n">
-        <v>2.412815540175611</v>
+        <v>2.412932432710777</v>
       </c>
       <c r="F13" t="n">
-        <v>2.550375200958254</v>
+        <v>2.550422139432885</v>
       </c>
       <c r="G13" t="n">
-        <v>2.603342458808708</v>
+        <v>2.603429792504171</v>
       </c>
       <c r="H13" t="n">
-        <v>2.8799824981598</v>
+        <v>2.880010027044095</v>
       </c>
       <c r="I13" t="n">
-        <v>2.659484204080853</v>
+        <v>2.659578785263927</v>
       </c>
       <c r="J13" t="n">
-        <v>2.987046289247009</v>
+        <v>2.986834158037259</v>
       </c>
       <c r="K13" t="n">
-        <v>2.631189737723074</v>
+        <v>2.631121438109516</v>
       </c>
       <c r="L13" t="n">
-        <v>2.983233889200239</v>
+        <v>2.983305059230994</v>
       </c>
       <c r="M13" t="n">
-        <v>3.001019713586171</v>
+        <v>3.001104815479162</v>
       </c>
       <c r="N13" t="n">
-        <v>3.276604628977291</v>
+        <v>3.276559987623963</v>
       </c>
       <c r="O13" t="n">
-        <v>3.258788302586202</v>
+        <v>3.25876759389069</v>
       </c>
       <c r="P13" t="n">
-        <v>3.550064220744764</v>
+        <v>3.550008699161944</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.618445158534172</v>
+        <v>3.618333889173992</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.356731818832814</v>
+        <v>2.356304525886909</v>
       </c>
       <c r="B14" t="n">
-        <v>2.329551902755401</v>
+        <v>2.329117212551861</v>
       </c>
       <c r="C14" t="n">
-        <v>2.316972279812774</v>
+        <v>2.316529415657352</v>
       </c>
       <c r="D14" t="n">
-        <v>2.299776686756503</v>
+        <v>2.299341098741404</v>
       </c>
       <c r="E14" t="n">
-        <v>2.345539160630396</v>
+        <v>2.345133487215738</v>
       </c>
       <c r="F14" t="n">
-        <v>2.458728771086483</v>
+        <v>2.458397715166211</v>
       </c>
       <c r="G14" t="n">
-        <v>2.550903902380962</v>
+        <v>2.550645469051362</v>
       </c>
       <c r="H14" t="n">
-        <v>2.881647486924018</v>
+        <v>2.88149322319946</v>
       </c>
       <c r="I14" t="n">
-        <v>2.558534662636429</v>
+        <v>2.55834928910098</v>
       </c>
       <c r="J14" t="n">
-        <v>3.001141721606797</v>
+        <v>3.00105958860195</v>
       </c>
       <c r="K14" t="n">
-        <v>2.598889691952537</v>
+        <v>2.598852411815259</v>
       </c>
       <c r="L14" t="n">
-        <v>2.961981354159308</v>
+        <v>2.961869272412613</v>
       </c>
       <c r="M14" t="n">
-        <v>2.998508031230547</v>
+        <v>2.998443441642647</v>
       </c>
       <c r="N14" t="n">
-        <v>3.280902606922237</v>
+        <v>3.280822533152134</v>
       </c>
       <c r="O14" t="n">
-        <v>3.248433047134538</v>
+        <v>3.248425714635058</v>
       </c>
       <c r="P14" t="n">
-        <v>3.551743233419399</v>
+        <v>3.551751511616339</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.632478184492605</v>
+        <v>3.632467814196419</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.367716046666665</v>
+        <v>2.367623516047872</v>
       </c>
       <c r="B15" t="n">
-        <v>2.343492195606204</v>
+        <v>2.343397511382316</v>
       </c>
       <c r="C15" t="n">
-        <v>2.333285067708316</v>
+        <v>2.333187806798844</v>
       </c>
       <c r="D15" t="n">
-        <v>2.349365935185343</v>
+        <v>2.349259125026459</v>
       </c>
       <c r="E15" t="n">
-        <v>2.383278029458276</v>
+        <v>2.3831724463139</v>
       </c>
       <c r="F15" t="n">
-        <v>2.528684243417922</v>
+        <v>2.528570195224971</v>
       </c>
       <c r="G15" t="n">
-        <v>2.587106977719337</v>
+        <v>2.587013663162314</v>
       </c>
       <c r="H15" t="n">
-        <v>2.890391219769927</v>
+        <v>2.890350503915938</v>
       </c>
       <c r="I15" t="n">
-        <v>2.645172452902888</v>
+        <v>2.645100750319152</v>
       </c>
       <c r="J15" t="n">
-        <v>3.008820864353201</v>
+        <v>3.008857894259386</v>
       </c>
       <c r="K15" t="n">
-        <v>2.655120839653589</v>
+        <v>2.655076081511805</v>
       </c>
       <c r="L15" t="n">
-        <v>2.985273666970343</v>
+        <v>2.985265241172761</v>
       </c>
       <c r="M15" t="n">
-        <v>3.00769264076018</v>
+        <v>3.007688306178947</v>
       </c>
       <c r="N15" t="n">
-        <v>3.26591560445771</v>
+        <v>3.265895209500799</v>
       </c>
       <c r="O15" t="n">
-        <v>3.249511135247819</v>
+        <v>3.249493980486706</v>
       </c>
       <c r="P15" t="n">
-        <v>3.505923612110558</v>
+        <v>3.505951059435216</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.634944990334896</v>
+        <v>3.634883420273824</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.332744621260634</v>
+        <v>2.332759904445075</v>
       </c>
       <c r="B16" t="n">
-        <v>2.312612070765353</v>
+        <v>2.312637975939477</v>
       </c>
       <c r="C16" t="n">
-        <v>2.301386281074575</v>
+        <v>2.301405407679541</v>
       </c>
       <c r="D16" t="n">
-        <v>2.331430756153473</v>
+        <v>2.331456564010713</v>
       </c>
       <c r="E16" t="n">
-        <v>2.366814659824635</v>
+        <v>2.366855009731229</v>
       </c>
       <c r="F16" t="n">
-        <v>2.510731709796911</v>
+        <v>2.510753960967277</v>
       </c>
       <c r="G16" t="n">
-        <v>2.572540166670669</v>
+        <v>2.572568408938619</v>
       </c>
       <c r="H16" t="n">
-        <v>2.873008232210713</v>
+        <v>2.872930443078776</v>
       </c>
       <c r="I16" t="n">
-        <v>2.628680158954013</v>
+        <v>2.628676031376584</v>
       </c>
       <c r="J16" t="n">
-        <v>2.629924956302371</v>
+        <v>2.629806177412944</v>
       </c>
       <c r="K16" t="n">
-        <v>2.849988509158402</v>
+        <v>2.849641406082577</v>
       </c>
       <c r="L16" t="n">
-        <v>2.979050907320709</v>
+        <v>2.979066003631297</v>
       </c>
       <c r="M16" t="n">
-        <v>3.000342358713047</v>
+        <v>3.000363655646413</v>
       </c>
       <c r="N16" t="n">
-        <v>3.275491831685728</v>
+        <v>3.275509251569684</v>
       </c>
       <c r="O16" t="n">
-        <v>3.247916967231205</v>
+        <v>3.247930322561419</v>
       </c>
       <c r="P16" t="n">
-        <v>3.504077714901965</v>
+        <v>3.504139179579188</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.62612745666042</v>
+        <v>3.626148672840953</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.356157013804612</v>
+        <v>2.356044208395984</v>
       </c>
       <c r="B17" t="n">
-        <v>2.330549879280426</v>
+        <v>2.330438433379539</v>
       </c>
       <c r="C17" t="n">
-        <v>2.31990678306746</v>
+        <v>2.319790659159823</v>
       </c>
       <c r="D17" t="n">
-        <v>2.324341143541209</v>
+        <v>2.324227801469786</v>
       </c>
       <c r="E17" t="n">
-        <v>2.358567198108595</v>
+        <v>2.358473838311284</v>
       </c>
       <c r="F17" t="n">
-        <v>2.475327822053405</v>
+        <v>2.475264535598417</v>
       </c>
       <c r="G17" t="n">
-        <v>2.561006376847365</v>
+        <v>2.56098384234752</v>
       </c>
       <c r="H17" t="n">
-        <v>2.828330507807549</v>
+        <v>2.828395291671725</v>
       </c>
       <c r="I17" t="n">
-        <v>2.562007158154474</v>
+        <v>2.562106099975064</v>
       </c>
       <c r="J17" t="n">
-        <v>2.733052936931144</v>
+        <v>2.733244778640293</v>
       </c>
       <c r="K17" t="n">
-        <v>2.630534996405496</v>
+        <v>2.630739639122826</v>
       </c>
       <c r="L17" t="n">
-        <v>2.950071898835717</v>
+        <v>2.950117296256643</v>
       </c>
       <c r="M17" t="n">
-        <v>2.989880170944456</v>
+        <v>2.989939035747201</v>
       </c>
       <c r="N17" t="n">
-        <v>3.236587751201104</v>
+        <v>3.236569962078666</v>
       </c>
       <c r="O17" t="n">
-        <v>3.250770131805475</v>
+        <v>3.250768046159462</v>
       </c>
       <c r="P17" t="n">
-        <v>3.477964141912858</v>
+        <v>3.478032052357999</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.629719681313648</v>
+        <v>3.629674966879639</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.340124353519642</v>
+        <v>2.340185877206399</v>
       </c>
       <c r="B18" t="n">
-        <v>2.315087466252774</v>
+        <v>2.315152800669989</v>
       </c>
       <c r="C18" t="n">
-        <v>2.307985933316656</v>
+        <v>2.308050953862012</v>
       </c>
       <c r="D18" t="n">
-        <v>2.317215244060742</v>
+        <v>2.317269874298205</v>
       </c>
       <c r="E18" t="n">
-        <v>2.342878474226595</v>
+        <v>2.342947346185889</v>
       </c>
       <c r="F18" t="n">
-        <v>2.462457904165154</v>
+        <v>2.462452006701641</v>
       </c>
       <c r="G18" t="n">
-        <v>2.537203067800523</v>
+        <v>2.537222552610209</v>
       </c>
       <c r="H18" t="n">
-        <v>2.787743032176285</v>
+        <v>2.78768409026268</v>
       </c>
       <c r="I18" t="n">
-        <v>2.555253944093331</v>
+        <v>2.555259311718801</v>
       </c>
       <c r="J18" t="n">
-        <v>2.729349397488984</v>
+        <v>2.729151746252677</v>
       </c>
       <c r="K18" t="n">
-        <v>2.613509092665267</v>
+        <v>2.61336498046085</v>
       </c>
       <c r="L18" t="n">
-        <v>2.923097783643668</v>
+        <v>2.923149280686677</v>
       </c>
       <c r="M18" t="n">
-        <v>2.958622627614517</v>
+        <v>2.958690418957775</v>
       </c>
       <c r="N18" t="n">
-        <v>3.208914018178143</v>
+        <v>3.20890303348761</v>
       </c>
       <c r="O18" t="n">
-        <v>3.227631030215742</v>
+        <v>3.227638530319318</v>
       </c>
       <c r="P18" t="n">
-        <v>3.473868108277911</v>
+        <v>3.473892916603304</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.616208344822714</v>
+        <v>3.616195253895012</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.379515063695725</v>
+        <v>2.379646853467109</v>
       </c>
       <c r="B19" t="n">
-        <v>2.350041361770785</v>
+        <v>2.350169797999762</v>
       </c>
       <c r="C19" t="n">
-        <v>2.343656450656959</v>
+        <v>2.343786848181875</v>
       </c>
       <c r="D19" t="n">
-        <v>2.335682104596284</v>
+        <v>2.335805180843963</v>
       </c>
       <c r="E19" t="n">
-        <v>2.356715340738075</v>
+        <v>2.356834977555286</v>
       </c>
       <c r="F19" t="n">
-        <v>2.475547120952546</v>
+        <v>2.475651593524318</v>
       </c>
       <c r="G19" t="n">
-        <v>2.539205682208022</v>
+        <v>2.539299307704477</v>
       </c>
       <c r="H19" t="n">
-        <v>2.820868560373723</v>
+        <v>2.820867120191741</v>
       </c>
       <c r="I19" t="n">
-        <v>2.641783925548462</v>
+        <v>2.64183231959976</v>
       </c>
       <c r="J19" t="n">
-        <v>2.766266289867567</v>
+        <v>2.766387665333379</v>
       </c>
       <c r="K19" t="n">
-        <v>2.643253280762368</v>
+        <v>2.643412630832547</v>
       </c>
       <c r="L19" t="n">
-        <v>2.915612170861014</v>
+        <v>2.915655292311562</v>
       </c>
       <c r="M19" t="n">
-        <v>2.952383740467904</v>
+        <v>2.952422815206573</v>
       </c>
       <c r="N19" t="n">
-        <v>3.196315638255335</v>
+        <v>3.196388511146103</v>
       </c>
       <c r="O19" t="n">
-        <v>3.223000685593921</v>
+        <v>3.223091651477828</v>
       </c>
       <c r="P19" t="n">
-        <v>3.498453425629362</v>
+        <v>3.498499493169734</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.584898913024233</v>
+        <v>3.584935418035269</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.317587578882305</v>
+        <v>2.317634494083474</v>
       </c>
       <c r="B20" t="n">
-        <v>2.291077655125047</v>
+        <v>2.291116468411963</v>
       </c>
       <c r="C20" t="n">
-        <v>2.28480177991471</v>
+        <v>2.284849215256708</v>
       </c>
       <c r="D20" t="n">
-        <v>2.29910126017106</v>
+        <v>2.299171410302876</v>
       </c>
       <c r="E20" t="n">
-        <v>2.319757428421523</v>
+        <v>2.319802228826086</v>
       </c>
       <c r="F20" t="n">
-        <v>2.453475764842162</v>
+        <v>2.453641881140086</v>
       </c>
       <c r="G20" t="n">
-        <v>2.512137431517301</v>
+        <v>2.512198942164378</v>
       </c>
       <c r="H20" t="n">
-        <v>2.558655969461533</v>
+        <v>2.559134448725124</v>
       </c>
       <c r="I20" t="n">
-        <v>2.76453503812663</v>
+        <v>2.764655546055379</v>
       </c>
       <c r="J20" t="n">
-        <v>2.54076864702396</v>
+        <v>2.541000925135056</v>
       </c>
       <c r="K20" t="n">
-        <v>2.732513717575623</v>
+        <v>2.732300799051989</v>
       </c>
       <c r="L20" t="n">
-        <v>2.917885446739555</v>
+        <v>2.9180933365296</v>
       </c>
       <c r="M20" t="n">
-        <v>2.944451115540719</v>
+        <v>2.944611186903138</v>
       </c>
       <c r="N20" t="n">
-        <v>3.211911629029705</v>
+        <v>3.212114842961502</v>
       </c>
       <c r="O20" t="n">
-        <v>3.192374568830492</v>
+        <v>3.192503206857306</v>
       </c>
       <c r="P20" t="n">
-        <v>3.552986453077836</v>
+        <v>3.55323593485752</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.563268082999813</v>
+        <v>3.563447041824782</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.328646834636885</v>
+        <v>2.328367989012323</v>
       </c>
       <c r="B21" t="n">
-        <v>2.301312129648247</v>
+        <v>2.301018875647562</v>
       </c>
       <c r="C21" t="n">
-        <v>2.295454166968327</v>
+        <v>2.295166728093998</v>
       </c>
       <c r="D21" t="n">
-        <v>2.307687048725902</v>
+        <v>2.307418478772949</v>
       </c>
       <c r="E21" t="n">
-        <v>2.323717956022069</v>
+        <v>2.323440362971984</v>
       </c>
       <c r="F21" t="n">
-        <v>2.485311443879028</v>
+        <v>2.485111198078384</v>
       </c>
       <c r="G21" t="n">
-        <v>2.49198752643288</v>
+        <v>2.491821604511118</v>
       </c>
       <c r="H21" t="n">
-        <v>2.748638935669343</v>
+        <v>2.748655048209134</v>
       </c>
       <c r="I21" t="n">
-        <v>2.704470980409824</v>
+        <v>2.704400548857956</v>
       </c>
       <c r="J21" t="n">
-        <v>2.67499324661064</v>
+        <v>2.674933835971057</v>
       </c>
       <c r="K21" t="n">
-        <v>2.724742017020469</v>
+        <v>2.724715305134609</v>
       </c>
       <c r="L21" t="n">
-        <v>2.941006667843507</v>
+        <v>2.941045626118346</v>
       </c>
       <c r="M21" t="n">
-        <v>2.946627977035146</v>
+        <v>2.946677599416959</v>
       </c>
       <c r="N21" t="n">
-        <v>3.24724767610657</v>
+        <v>3.247301002835883</v>
       </c>
       <c r="O21" t="n">
-        <v>3.182491217964349</v>
+        <v>3.182525246195048</v>
       </c>
       <c r="P21" t="n">
-        <v>3.59423848676397</v>
+        <v>3.594334194192466</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.561882170052886</v>
+        <v>3.561908977403653</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2.340441644492819</v>
+        <v>2.340589237843853</v>
       </c>
       <c r="B22" t="n">
-        <v>2.313106939504181</v>
+        <v>2.31325432361496</v>
       </c>
       <c r="C22" t="n">
-        <v>2.306026968330329</v>
+        <v>2.306178070311141</v>
       </c>
       <c r="D22" t="n">
-        <v>2.32069720571832</v>
+        <v>2.320824216012681</v>
       </c>
       <c r="E22" t="n">
-        <v>2.344595000861594</v>
+        <v>2.344717680422153</v>
       </c>
       <c r="F22" t="n">
-        <v>2.48320943500645</v>
+        <v>2.483230601416671</v>
       </c>
       <c r="G22" t="n">
-        <v>2.530499638621358</v>
+        <v>2.530618727345476</v>
       </c>
       <c r="H22" t="n">
-        <v>2.598240910796886</v>
+        <v>2.597753994712137</v>
       </c>
       <c r="I22" t="n">
-        <v>2.764410050025041</v>
+        <v>2.764372439827875</v>
       </c>
       <c r="J22" t="n">
-        <v>2.627164524835732</v>
+        <v>2.626352456735364</v>
       </c>
       <c r="K22" t="n">
-        <v>2.736337687348487</v>
+        <v>2.736073562041678</v>
       </c>
       <c r="L22" t="n">
-        <v>2.954977112101706</v>
+        <v>2.954986022177823</v>
       </c>
       <c r="M22" t="n">
-        <v>2.974829359687533</v>
+        <v>2.974863760606075</v>
       </c>
       <c r="N22" t="n">
-        <v>3.252971535143131</v>
+        <v>3.252944896396706</v>
       </c>
       <c r="O22" t="n">
-        <v>3.192022568679033</v>
+        <v>3.191983273067351</v>
       </c>
       <c r="P22" t="n">
-        <v>3.585717208197046</v>
+        <v>3.585592785436595</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.573470828425695</v>
+        <v>3.573326835621776</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.356934113740575</v>
+        <v>2.357189605356054</v>
       </c>
       <c r="B23" t="n">
-        <v>2.329629209561572</v>
+        <v>2.329892730787452</v>
       </c>
       <c r="C23" t="n">
-        <v>2.323159103191965</v>
+        <v>2.323427741517879</v>
       </c>
       <c r="D23" t="n">
-        <v>2.340882170578782</v>
+        <v>2.341123020173729</v>
       </c>
       <c r="E23" t="n">
-        <v>2.364190961484557</v>
+        <v>2.364432742330823</v>
       </c>
       <c r="F23" t="n">
-        <v>2.478132253538978</v>
+        <v>2.478117685418145</v>
       </c>
       <c r="G23" t="n">
-        <v>2.564334075490359</v>
+        <v>2.564457021100179</v>
       </c>
       <c r="H23" t="n">
-        <v>2.396493636738298</v>
+        <v>2.395616674167959</v>
       </c>
       <c r="I23" t="n">
-        <v>2.764732249366864</v>
+        <v>2.764605936728826</v>
       </c>
       <c r="J23" t="n">
-        <v>2.39636128608374</v>
+        <v>2.395100421635451</v>
       </c>
       <c r="K23" t="n">
-        <v>2.734513176603279</v>
+        <v>2.734286574497914</v>
       </c>
       <c r="L23" t="n">
-        <v>2.974135176121909</v>
+        <v>2.974115238258432</v>
       </c>
       <c r="M23" t="n">
-        <v>2.997641353566797</v>
+        <v>2.997650744205635</v>
       </c>
       <c r="N23" t="n">
-        <v>3.297828765599628</v>
+        <v>3.297802245479394</v>
       </c>
       <c r="O23" t="n">
-        <v>3.209698305368195</v>
+        <v>3.209615795048621</v>
       </c>
       <c r="P23" t="n">
-        <v>3.624578866352659</v>
+        <v>3.624460903950296</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.550175009637056</v>
+        <v>3.550010452141681</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2.373210614767914</v>
+        <v>2.373174852278589</v>
       </c>
       <c r="B24" t="n">
-        <v>2.348526604146906</v>
+        <v>2.348490092815894</v>
       </c>
       <c r="C24" t="n">
-        <v>2.336982121091909</v>
+        <v>2.336946896546586</v>
       </c>
       <c r="D24" t="n">
-        <v>2.350346206523467</v>
+        <v>2.350333876903133</v>
       </c>
       <c r="E24" t="n">
-        <v>2.383044531349838</v>
+        <v>2.383024144228161</v>
       </c>
       <c r="F24" t="n">
-        <v>2.526027413589485</v>
+        <v>2.526022063879458</v>
       </c>
       <c r="G24" t="n">
-        <v>2.547643869105729</v>
+        <v>2.547618949535658</v>
       </c>
       <c r="H24" t="n">
-        <v>2.725509475518021</v>
+        <v>2.725519221641937</v>
       </c>
       <c r="I24" t="n">
-        <v>2.755802699707934</v>
+        <v>2.755768639981348</v>
       </c>
       <c r="J24" t="n">
-        <v>2.760408502486527</v>
+        <v>2.76032603670126</v>
       </c>
       <c r="K24" t="n">
-        <v>2.724833172438178</v>
+        <v>2.724778938299057</v>
       </c>
       <c r="L24" t="n">
-        <v>3.006099173939087</v>
+        <v>3.00614463222266</v>
       </c>
       <c r="M24" t="n">
-        <v>3.008691493779607</v>
+        <v>3.008724667799384</v>
       </c>
       <c r="N24" t="n">
-        <v>3.299569132882336</v>
+        <v>3.299559782963579</v>
       </c>
       <c r="O24" t="n">
-        <v>3.228762759786367</v>
+        <v>3.228755879603599</v>
       </c>
       <c r="P24" t="n">
-        <v>3.624479647186462</v>
+        <v>3.624526815988402</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.565325741255697</v>
+        <v>3.565266985387599</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.378086377822027</v>
+        <v>2.378124916459559</v>
       </c>
       <c r="B25" t="n">
-        <v>2.351039864192451</v>
+        <v>2.351081873356855</v>
       </c>
       <c r="C25" t="n">
-        <v>2.341212083071334</v>
+        <v>2.341256597229679</v>
       </c>
       <c r="D25" t="n">
-        <v>2.353511227805628</v>
+        <v>2.353569877497394</v>
       </c>
       <c r="E25" t="n">
-        <v>2.383655447947364</v>
+        <v>2.383710260497171</v>
       </c>
       <c r="F25" t="n">
-        <v>2.533621711677868</v>
+        <v>2.533659095401101</v>
       </c>
       <c r="G25" t="n">
-        <v>2.569633711236816</v>
+        <v>2.569670908731548</v>
       </c>
       <c r="H25" t="n">
-        <v>2.830543656170179</v>
+        <v>2.830467839614625</v>
       </c>
       <c r="I25" t="n">
-        <v>2.719756692166226</v>
+        <v>2.719799248760534</v>
       </c>
       <c r="J25" t="n">
-        <v>2.694991518163681</v>
+        <v>2.694923940400442</v>
       </c>
       <c r="K25" t="n">
-        <v>2.735277479720987</v>
+        <v>2.735126427089848</v>
       </c>
       <c r="L25" t="n">
-        <v>3.018234414220385</v>
+        <v>3.018236335851635</v>
       </c>
       <c r="M25" t="n">
-        <v>3.022845475965384</v>
+        <v>3.022838959448758</v>
       </c>
       <c r="N25" t="n">
-        <v>3.321886082723892</v>
+        <v>3.321811757147446</v>
       </c>
       <c r="O25" t="n">
-        <v>3.240689043802457</v>
+        <v>3.240628460765465</v>
       </c>
       <c r="P25" t="n">
-        <v>3.629640796817554</v>
+        <v>3.629572592863006</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.535784023365237</v>
+        <v>3.535620942673618</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.415310919735376</v>
+        <v>2.41537976772142</v>
       </c>
       <c r="B26" t="n">
-        <v>2.386596787858379</v>
+        <v>2.38666280426798</v>
       </c>
       <c r="C26" t="n">
-        <v>2.379182346421089</v>
+        <v>2.379245771703313</v>
       </c>
       <c r="D26" t="n">
-        <v>2.387404565098378</v>
+        <v>2.387474258588176</v>
       </c>
       <c r="E26" t="n">
-        <v>2.410361531151575</v>
+        <v>2.410430580030318</v>
       </c>
       <c r="F26" t="n">
-        <v>2.557641164244007</v>
+        <v>2.557687889846259</v>
       </c>
       <c r="G26" t="n">
-        <v>2.591170581061445</v>
+        <v>2.591212400228063</v>
       </c>
       <c r="H26" t="n">
-        <v>2.844081638090904</v>
+        <v>2.844049576019938</v>
       </c>
       <c r="I26" t="n">
-        <v>2.721055481569689</v>
+        <v>2.721078748670474</v>
       </c>
       <c r="J26" t="n">
-        <v>2.765711468911708</v>
+        <v>2.765635111132342</v>
       </c>
       <c r="K26" t="n">
-        <v>2.665660334228351</v>
+        <v>2.665683361899599</v>
       </c>
       <c r="L26" t="n">
-        <v>3.032422404388923</v>
+        <v>3.03244388602301</v>
       </c>
       <c r="M26" t="n">
-        <v>3.035718373934599</v>
+        <v>3.035744396271587</v>
       </c>
       <c r="N26" t="n">
-        <v>3.34031630579347</v>
+        <v>3.340276243311834</v>
       </c>
       <c r="O26" t="n">
-        <v>3.270328578468074</v>
+        <v>3.27032463869992</v>
       </c>
       <c r="P26" t="n">
-        <v>3.62855219077146</v>
+        <v>3.628483291254516</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.526512114993261</v>
+        <v>3.52643603004432</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.413272369057434</v>
+        <v>2.413212032978808</v>
       </c>
       <c r="B27" t="n">
-        <v>2.390792917153925</v>
+        <v>2.390731996131174</v>
       </c>
       <c r="C27" t="n">
-        <v>2.380384370842677</v>
+        <v>2.380326834307041</v>
       </c>
       <c r="D27" t="n">
-        <v>2.40355695451853</v>
+        <v>2.403515425564317</v>
       </c>
       <c r="E27" t="n">
-        <v>2.441804891294535</v>
+        <v>2.441757730311956</v>
       </c>
       <c r="F27" t="n">
-        <v>2.570009201438222</v>
+        <v>2.570005026669396</v>
       </c>
       <c r="G27" t="n">
-        <v>2.626881241845315</v>
+        <v>2.626876948272636</v>
       </c>
       <c r="H27" t="n">
-        <v>2.717363161255862</v>
+        <v>2.71744745114555</v>
       </c>
       <c r="I27" t="n">
-        <v>2.884060476010085</v>
+        <v>2.884023824747604</v>
       </c>
       <c r="J27" t="n">
-        <v>2.641097805731327</v>
+        <v>2.641157597699039</v>
       </c>
       <c r="K27" t="n">
-        <v>2.711100258162661</v>
+        <v>2.711063800135768</v>
       </c>
       <c r="L27" t="n">
-        <v>3.060191500002717</v>
+        <v>3.060173220692699</v>
       </c>
       <c r="M27" t="n">
-        <v>3.071475138323964</v>
+        <v>3.071465916157609</v>
       </c>
       <c r="N27" t="n">
-        <v>3.366002500112629</v>
+        <v>3.365997013799018</v>
       </c>
       <c r="O27" t="n">
-        <v>3.303347174348585</v>
+        <v>3.303359191245268</v>
       </c>
       <c r="P27" t="n">
-        <v>3.620636043939015</v>
+        <v>3.620736873797291</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.535343321980394</v>
+        <v>3.53531627479535</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.473053844979344</v>
+        <v>2.472986012536435</v>
       </c>
       <c r="B28" t="n">
-        <v>2.441770708012894</v>
+        <v>2.441690240592087</v>
       </c>
       <c r="C28" t="n">
-        <v>2.447764001428335</v>
+        <v>2.447687534867863</v>
       </c>
       <c r="D28" t="n">
-        <v>2.457308850156796</v>
+        <v>2.457192015703193</v>
       </c>
       <c r="E28" t="n">
-        <v>2.483155793549106</v>
+        <v>2.483048642119984</v>
       </c>
       <c r="F28" t="n">
-        <v>2.620246354528312</v>
+        <v>2.62013603999248</v>
       </c>
       <c r="G28" t="n">
-        <v>2.669933770330069</v>
+        <v>2.66985037003211</v>
       </c>
       <c r="H28" t="n">
-        <v>2.760742271554443</v>
+        <v>2.760661732320871</v>
       </c>
       <c r="I28" t="n">
-        <v>2.894742839172218</v>
+        <v>2.894680363866004</v>
       </c>
       <c r="J28" t="n">
-        <v>2.793700214022403</v>
+        <v>2.793846164633722</v>
       </c>
       <c r="K28" t="n">
-        <v>2.837601013788484</v>
+        <v>2.837676618186551</v>
       </c>
       <c r="L28" t="n">
-        <v>3.073111027474067</v>
+        <v>3.073028872891001</v>
       </c>
       <c r="M28" t="n">
-        <v>3.087878906338334</v>
+        <v>3.087793169426806</v>
       </c>
       <c r="N28" t="n">
-        <v>3.376650855292001</v>
+        <v>3.376582907834023</v>
       </c>
       <c r="O28" t="n">
-        <v>3.320629540350559</v>
+        <v>3.320499125920479</v>
       </c>
       <c r="P28" t="n">
-        <v>3.605743702869801</v>
+        <v>3.60567842726164</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.543090831290079</v>
+        <v>3.542952605125099</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.516308142475217</v>
+        <v>2.516218875296966</v>
       </c>
       <c r="B29" t="n">
-        <v>2.498216772141081</v>
+        <v>2.498128650306399</v>
       </c>
       <c r="C29" t="n">
-        <v>2.487261994519105</v>
+        <v>2.48717690940031</v>
       </c>
       <c r="D29" t="n">
-        <v>2.504972966283189</v>
+        <v>2.504892172025161</v>
       </c>
       <c r="E29" t="n">
-        <v>2.545020170765651</v>
+        <v>2.544929002129432</v>
       </c>
       <c r="F29" t="n">
-        <v>2.660202403593066</v>
+        <v>2.660113444083672</v>
       </c>
       <c r="G29" t="n">
-        <v>2.693856282615452</v>
+        <v>2.693823770317583</v>
       </c>
       <c r="H29" t="n">
-        <v>2.805628251027295</v>
+        <v>2.805624786081692</v>
       </c>
       <c r="I29" t="n">
-        <v>2.823781151268384</v>
+        <v>2.823743935237917</v>
       </c>
       <c r="J29" t="n">
-        <v>2.701607999098262</v>
+        <v>2.701672386493466</v>
       </c>
       <c r="K29" t="n">
-        <v>2.725233204482813</v>
+        <v>2.725190362643301</v>
       </c>
       <c r="L29" t="n">
-        <v>3.094587945081666</v>
+        <v>3.094561774786805</v>
       </c>
       <c r="M29" t="n">
-        <v>3.110979442174421</v>
+        <v>3.110974222871214</v>
       </c>
       <c r="N29" t="n">
-        <v>3.371244287228618</v>
+        <v>3.371224048778414</v>
       </c>
       <c r="O29" t="n">
-        <v>3.384946699498978</v>
+        <v>3.384968461703309</v>
       </c>
       <c r="P29" t="n">
-        <v>3.585794339704337</v>
+        <v>3.585842760347072</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.703492111462741</v>
+        <v>3.703483477508613</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2.612267976593392</v>
+        <v>2.612202404299358</v>
       </c>
       <c r="B30" t="n">
-        <v>2.584790403017385</v>
+        <v>2.584731458842884</v>
       </c>
       <c r="C30" t="n">
-        <v>2.592022183021497</v>
+        <v>2.591959169595969</v>
       </c>
       <c r="D30" t="n">
-        <v>2.589090309250014</v>
+        <v>2.589042386611792</v>
       </c>
       <c r="E30" t="n">
-        <v>2.619180362037765</v>
+        <v>2.619135789754622</v>
       </c>
       <c r="F30" t="n">
-        <v>2.710949501125682</v>
+        <v>2.710907784939187</v>
       </c>
       <c r="G30" t="n">
-        <v>2.731320107500285</v>
+        <v>2.731276357693762</v>
       </c>
       <c r="H30" t="n">
-        <v>2.730450625054452</v>
+        <v>2.730371820149538</v>
       </c>
       <c r="I30" t="n">
-        <v>2.808069463233076</v>
+        <v>2.808094033339045</v>
       </c>
       <c r="J30" t="n">
-        <v>2.670198646938063</v>
+        <v>2.670030050455139</v>
       </c>
       <c r="K30" t="n">
-        <v>2.767923916078816</v>
+        <v>2.767937474718746</v>
       </c>
       <c r="L30" t="n">
-        <v>3.167183769146801</v>
+        <v>3.167158625821655</v>
       </c>
       <c r="M30" t="n">
-        <v>3.168290956874197</v>
+        <v>3.168244421470671</v>
       </c>
       <c r="N30" t="n">
-        <v>3.368664238309712</v>
+        <v>3.368662594786901</v>
       </c>
       <c r="O30" t="n">
-        <v>3.341886983760137</v>
+        <v>3.341818164288385</v>
       </c>
       <c r="P30" t="n">
-        <v>3.527010665008573</v>
+        <v>3.52706605096175</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.676038904431082</v>
+        <v>3.676061615484771</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.626664046532737</v>
+        <v>2.626701299703001</v>
       </c>
       <c r="B31" t="n">
-        <v>2.593447713515351</v>
+        <v>2.593494604547492</v>
       </c>
       <c r="C31" t="n">
-        <v>2.601588067615583</v>
+        <v>2.601618964435986</v>
       </c>
       <c r="D31" t="n">
-        <v>2.574326111662231</v>
+        <v>2.574356974164147</v>
       </c>
       <c r="E31" t="n">
-        <v>2.616912695723391</v>
+        <v>2.616910732574615</v>
       </c>
       <c r="F31" t="n">
-        <v>2.680654173349206</v>
+        <v>2.680694302684382</v>
       </c>
       <c r="G31" t="n">
-        <v>2.744938551607026</v>
+        <v>2.744890699522181</v>
       </c>
       <c r="H31" t="n">
-        <v>2.699604157598602</v>
+        <v>2.699650499664962</v>
       </c>
       <c r="I31" t="n">
-        <v>2.964956526754203</v>
+        <v>2.96495486734545</v>
       </c>
       <c r="J31" t="n">
-        <v>2.77863274937186</v>
+        <v>2.778450795392643</v>
       </c>
       <c r="K31" t="n">
-        <v>3.034855202248453</v>
+        <v>3.034770440729783</v>
       </c>
       <c r="L31" t="n">
-        <v>3.122061486783429</v>
+        <v>3.122096879301648</v>
       </c>
       <c r="M31" t="n">
-        <v>3.128765617158114</v>
+        <v>3.128748035019276</v>
       </c>
       <c r="N31" t="n">
-        <v>3.407224382391368</v>
+        <v>3.407332977186283</v>
       </c>
       <c r="O31" t="n">
-        <v>3.302363397032856</v>
+        <v>3.302307403403147</v>
       </c>
       <c r="P31" t="n">
-        <v>3.551501671562472</v>
+        <v>3.5515565802696</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.680594922327696</v>
+        <v>3.680646709284526</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2.586001017084103</v>
+        <v>2.585943819628903</v>
       </c>
       <c r="B32" t="n">
-        <v>2.556253673607158</v>
+        <v>2.556187339191499</v>
       </c>
       <c r="C32" t="n">
-        <v>2.56146530931575</v>
+        <v>2.561409991721553</v>
       </c>
       <c r="D32" t="n">
-        <v>2.544754067065495</v>
+        <v>2.544667808148639</v>
       </c>
       <c r="E32" t="n">
-        <v>2.578510846530564</v>
+        <v>2.578461050324104</v>
       </c>
       <c r="F32" t="n">
-        <v>2.656162465599786</v>
+        <v>2.656082467178741</v>
       </c>
       <c r="G32" t="n">
-        <v>2.742733992889527</v>
+        <v>2.742667745917858</v>
       </c>
       <c r="H32" t="n">
-        <v>2.705812367441178</v>
+        <v>2.705735267629608</v>
       </c>
       <c r="I32" t="n">
-        <v>3.114345531272181</v>
+        <v>3.114220390747948</v>
       </c>
       <c r="J32" t="n">
-        <v>2.7057802877461</v>
+        <v>2.705671634465159</v>
       </c>
       <c r="K32" t="n">
-        <v>3.151682089169983</v>
+        <v>3.151558157951363</v>
       </c>
       <c r="L32" t="n">
-        <v>3.073207441858182</v>
+        <v>3.073095486121002</v>
       </c>
       <c r="M32" t="n">
-        <v>3.101986259021976</v>
+        <v>3.101880114592285</v>
       </c>
       <c r="N32" t="n">
-        <v>3.370829530078045</v>
+        <v>3.370772831794144</v>
       </c>
       <c r="O32" t="n">
-        <v>3.295508509621191</v>
+        <v>3.29549462295378</v>
       </c>
       <c r="P32" t="n">
-        <v>3.48655063166322</v>
+        <v>3.486617095321341</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.687685762032121</v>
+        <v>3.687687377099686</v>
       </c>
     </row>
   </sheetData>
@@ -3921,1645 +3921,1645 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.200412723683562</v>
+        <v>7.200466643205955</v>
       </c>
       <c r="B2" t="n">
-        <v>7.213971741469913</v>
+        <v>7.214037511136899</v>
       </c>
       <c r="C2" t="n">
-        <v>7.205070064332936</v>
+        <v>7.205115545468131</v>
       </c>
       <c r="D2" t="n">
-        <v>7.367718676149869</v>
+        <v>7.367688989841044</v>
       </c>
       <c r="E2" t="n">
-        <v>7.263465627307919</v>
+        <v>7.263522025533026</v>
       </c>
       <c r="F2" t="n">
-        <v>7.449590966357866</v>
+        <v>7.449559454279878</v>
       </c>
       <c r="G2" t="n">
-        <v>7.353456359256123</v>
+        <v>7.353446380074931</v>
       </c>
       <c r="H2" t="n">
-        <v>7.479166692231087</v>
+        <v>7.479128716481384</v>
       </c>
       <c r="I2" t="n">
-        <v>7.393043754775799</v>
+        <v>7.393013937503643</v>
       </c>
       <c r="J2" t="n">
-        <v>7.185262693260442</v>
+        <v>7.185259894584563</v>
       </c>
       <c r="K2" t="n">
-        <v>7.124839272839209</v>
+        <v>7.124817153257321</v>
       </c>
       <c r="L2" t="n">
-        <v>7.541326272761903</v>
+        <v>7.541259226699284</v>
       </c>
       <c r="M2" t="n">
-        <v>7.426094605650269</v>
+        <v>7.426044984089518</v>
       </c>
       <c r="N2" t="n">
-        <v>7.493259319808791</v>
+        <v>7.493217765222547</v>
       </c>
       <c r="O2" t="n">
-        <v>7.11980749378171</v>
+        <v>7.119838690804613</v>
       </c>
       <c r="P2" t="n">
-        <v>7.623249049047399</v>
+        <v>7.623147220935486</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.933223572861139</v>
+        <v>6.933231193047332</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7.111885386787338</v>
+        <v>7.111822665063859</v>
       </c>
       <c r="B3" t="n">
-        <v>7.134352392470352</v>
+        <v>7.134305681977046</v>
       </c>
       <c r="C3" t="n">
-        <v>7.120576705268064</v>
+        <v>7.120520249326308</v>
       </c>
       <c r="D3" t="n">
-        <v>7.288437303391349</v>
+        <v>7.288405222301934</v>
       </c>
       <c r="E3" t="n">
-        <v>7.210646672310122</v>
+        <v>7.210611487539163</v>
       </c>
       <c r="F3" t="n">
-        <v>7.403830946668296</v>
+        <v>7.403801774804335</v>
       </c>
       <c r="G3" t="n">
-        <v>7.278342191477915</v>
+        <v>7.278315772128411</v>
       </c>
       <c r="H3" t="n">
-        <v>7.500636597883476</v>
+        <v>7.500545921714554</v>
       </c>
       <c r="I3" t="n">
-        <v>7.303564194362282</v>
+        <v>7.303525023128376</v>
       </c>
       <c r="J3" t="n">
-        <v>7.282037491872706</v>
+        <v>7.281825938753517</v>
       </c>
       <c r="K3" t="n">
-        <v>7.068897192991621</v>
+        <v>7.068843107875305</v>
       </c>
       <c r="L3" t="n">
-        <v>7.490795318748583</v>
+        <v>7.490788135307247</v>
       </c>
       <c r="M3" t="n">
-        <v>7.355182001432893</v>
+        <v>7.355181830014431</v>
       </c>
       <c r="N3" t="n">
-        <v>7.472754960388588</v>
+        <v>7.472671440322653</v>
       </c>
       <c r="O3" t="n">
-        <v>7.039383172324234</v>
+        <v>7.039402864982433</v>
       </c>
       <c r="P3" t="n">
-        <v>7.622640411335317</v>
+        <v>7.622462156454318</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.906887370294167</v>
+        <v>6.906923174348297</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.06308919049256</v>
+        <v>7.063535786423961</v>
       </c>
       <c r="B4" t="n">
-        <v>7.088535575943594</v>
+        <v>7.088449134444343</v>
       </c>
       <c r="C4" t="n">
-        <v>7.073339266616099</v>
+        <v>7.074334141603074</v>
       </c>
       <c r="D4" t="n">
-        <v>7.235366619201574</v>
+        <v>7.233400224118459</v>
       </c>
       <c r="E4" t="n">
-        <v>7.172180488428258</v>
+        <v>7.170910703650449</v>
       </c>
       <c r="F4" t="n">
-        <v>7.359601636800704</v>
+        <v>7.352788662077658</v>
       </c>
       <c r="G4" t="n">
-        <v>7.227784592034805</v>
+        <v>7.226580431750144</v>
       </c>
       <c r="H4" t="n">
-        <v>7.439518993896619</v>
+        <v>7.442567168705455</v>
       </c>
       <c r="I4" t="n">
-        <v>7.260622980666462</v>
+        <v>7.2631384735666</v>
       </c>
       <c r="J4" t="n">
-        <v>7.259224796797921</v>
+        <v>7.261238944723728</v>
       </c>
       <c r="K4" t="n">
-        <v>7.022848280747468</v>
+        <v>7.019049367853595</v>
       </c>
       <c r="L4" t="n">
-        <v>7.457698890165259</v>
+        <v>7.465811680016338</v>
       </c>
       <c r="M4" t="n">
-        <v>7.316591705943842</v>
+        <v>7.336179529666771</v>
       </c>
       <c r="N4" t="n">
-        <v>7.448284639102554</v>
+        <v>7.43394250840006</v>
       </c>
       <c r="O4" t="n">
-        <v>7.006056050414555</v>
+        <v>6.999784120545405</v>
       </c>
       <c r="P4" t="n">
-        <v>7.612553713768132</v>
+        <v>7.601149428813465</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.893148145258963</v>
+        <v>6.90039998615146</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7.033706994583089</v>
+        <v>7.033713393948451</v>
       </c>
       <c r="B5" t="n">
-        <v>7.059454894108082</v>
+        <v>7.059473080585793</v>
       </c>
       <c r="C5" t="n">
-        <v>7.047219032269544</v>
+        <v>7.047236580830553</v>
       </c>
       <c r="D5" t="n">
-        <v>7.21959112237387</v>
+        <v>7.219616895043406</v>
       </c>
       <c r="E5" t="n">
-        <v>7.127177058705667</v>
+        <v>7.127189285437252</v>
       </c>
       <c r="F5" t="n">
-        <v>7.322183039026965</v>
+        <v>7.322184440639504</v>
       </c>
       <c r="G5" t="n">
-        <v>7.183273401567838</v>
+        <v>7.183230645241164</v>
       </c>
       <c r="H5" t="n">
-        <v>7.408191681612357</v>
+        <v>7.408142853824716</v>
       </c>
       <c r="I5" t="n">
-        <v>7.223615283467931</v>
+        <v>7.223581434016308</v>
       </c>
       <c r="J5" t="n">
-        <v>7.237991895231572</v>
+        <v>7.237821940206738</v>
       </c>
       <c r="K5" t="n">
-        <v>7.019181729369031</v>
+        <v>7.019181893121702</v>
       </c>
       <c r="L5" t="n">
-        <v>7.434514561464433</v>
+        <v>7.434528003632174</v>
       </c>
       <c r="M5" t="n">
-        <v>7.287999056190829</v>
+        <v>7.287989415508349</v>
       </c>
       <c r="N5" t="n">
-        <v>7.423061233827144</v>
+        <v>7.423004616033892</v>
       </c>
       <c r="O5" t="n">
-        <v>6.961894055316964</v>
+        <v>6.961956220207561</v>
       </c>
       <c r="P5" t="n">
-        <v>7.591425991529909</v>
+        <v>7.591383929295315</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.89343142824938</v>
+        <v>6.893511476977459</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7.00194423988039</v>
+        <v>7.001821784191541</v>
       </c>
       <c r="B6" t="n">
-        <v>7.024921715902571</v>
+        <v>7.024824384298736</v>
       </c>
       <c r="C6" t="n">
-        <v>7.011819176400283</v>
+        <v>7.011707187523693</v>
       </c>
       <c r="D6" t="n">
-        <v>7.175862466108152</v>
+        <v>7.17581273618663</v>
       </c>
       <c r="E6" t="n">
-        <v>7.105426674844944</v>
+        <v>7.105366791288918</v>
       </c>
       <c r="F6" t="n">
-        <v>7.307067367184366</v>
+        <v>7.307047811207588</v>
       </c>
       <c r="G6" t="n">
-        <v>7.153610026254514</v>
+        <v>7.153605988879973</v>
       </c>
       <c r="H6" t="n">
-        <v>7.389665394756425</v>
+        <v>7.389626479460118</v>
       </c>
       <c r="I6" t="n">
-        <v>7.19140516602294</v>
+        <v>7.191389714128447</v>
       </c>
       <c r="J6" t="n">
-        <v>7.266669389642606</v>
+        <v>7.26656800312381</v>
       </c>
       <c r="K6" t="n">
-        <v>7.028197000180382</v>
+        <v>7.028132607658155</v>
       </c>
       <c r="L6" t="n">
-        <v>7.386655863581009</v>
+        <v>7.386626079342492</v>
       </c>
       <c r="M6" t="n">
-        <v>7.229142807758659</v>
+        <v>7.229115240449657</v>
       </c>
       <c r="N6" t="n">
-        <v>7.403690707564129</v>
+        <v>7.403637695900963</v>
       </c>
       <c r="O6" t="n">
-        <v>6.93875390193395</v>
+        <v>6.938718019623732</v>
       </c>
       <c r="P6" t="n">
-        <v>7.595801451579907</v>
+        <v>7.595701868983171</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.883304061341986</v>
+        <v>6.883226394265302</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.97358929540894</v>
+        <v>6.973586188973846</v>
       </c>
       <c r="B7" t="n">
-        <v>6.994488427907371</v>
+        <v>6.994492225315745</v>
       </c>
       <c r="C7" t="n">
-        <v>6.984728487452895</v>
+        <v>6.984723921030016</v>
       </c>
       <c r="D7" t="n">
-        <v>7.151020511196077</v>
+        <v>7.151000359799091</v>
       </c>
       <c r="E7" t="n">
-        <v>7.075421817312973</v>
+        <v>7.075401355666879</v>
       </c>
       <c r="F7" t="n">
-        <v>7.272915639342187</v>
+        <v>7.272878730176538</v>
       </c>
       <c r="G7" t="n">
-        <v>7.124743910248376</v>
+        <v>7.124742125724583</v>
       </c>
       <c r="H7" t="n">
-        <v>7.37490733262945</v>
+        <v>7.374829928097154</v>
       </c>
       <c r="I7" t="n">
-        <v>7.156555047442012</v>
+        <v>7.156534166232439</v>
       </c>
       <c r="J7" t="n">
-        <v>7.299091268134888</v>
+        <v>7.298977793690939</v>
       </c>
       <c r="K7" t="n">
-        <v>7.020078558440177</v>
+        <v>7.020139721249927</v>
       </c>
       <c r="L7" t="n">
-        <v>7.343185247266959</v>
+        <v>7.343161297362774</v>
       </c>
       <c r="M7" t="n">
-        <v>7.195703494565647</v>
+        <v>7.195683112099987</v>
       </c>
       <c r="N7" t="n">
-        <v>7.356310225025913</v>
+        <v>7.356290414400028</v>
       </c>
       <c r="O7" t="n">
-        <v>6.921317272917392</v>
+        <v>6.92119242940641</v>
       </c>
       <c r="P7" t="n">
-        <v>7.554452652911898</v>
+        <v>7.554405873533907</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.88508299437834</v>
+        <v>6.884931692953328</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.930695061813014</v>
+        <v>6.930765802345399</v>
       </c>
       <c r="B8" t="n">
-        <v>6.951716202332071</v>
+        <v>6.951781224622879</v>
       </c>
       <c r="C8" t="n">
-        <v>6.944457426300406</v>
+        <v>6.94451477301761</v>
       </c>
       <c r="D8" t="n">
-        <v>7.120431557795252</v>
+        <v>7.120476775428834</v>
       </c>
       <c r="E8" t="n">
-        <v>7.031050164754652</v>
+        <v>7.0310769124242</v>
       </c>
       <c r="F8" t="n">
-        <v>7.24217242292678</v>
+        <v>7.242170031146068</v>
       </c>
       <c r="G8" t="n">
-        <v>7.096827914172967</v>
+        <v>7.096850815727208</v>
       </c>
       <c r="H8" t="n">
-        <v>7.34377495269998</v>
+        <v>7.343715940151519</v>
       </c>
       <c r="I8" t="n">
-        <v>7.118902250364314</v>
+        <v>7.118908209160283</v>
       </c>
       <c r="J8" t="n">
-        <v>7.272766985891771</v>
+        <v>7.272622795134955</v>
       </c>
       <c r="K8" t="n">
-        <v>6.970507541094878</v>
+        <v>6.97055914356422</v>
       </c>
       <c r="L8" t="n">
-        <v>7.309999065656968</v>
+        <v>7.310033486295423</v>
       </c>
       <c r="M8" t="n">
-        <v>7.170133698702946</v>
+        <v>7.170162531898753</v>
       </c>
       <c r="N8" t="n">
-        <v>7.310630842821239</v>
+        <v>7.310735379382066</v>
       </c>
       <c r="O8" t="n">
-        <v>6.905186269960626</v>
+        <v>6.905225588771113</v>
       </c>
       <c r="P8" t="n">
-        <v>7.491319812998166</v>
+        <v>7.491374331731256</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.880375167651467</v>
+        <v>6.880308033599363</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.91620625876604</v>
+        <v>6.916091959564016</v>
       </c>
       <c r="B9" t="n">
-        <v>6.930620033892286</v>
+        <v>6.930518982798448</v>
       </c>
       <c r="C9" t="n">
-        <v>6.929549308331973</v>
+        <v>6.9294440556238</v>
       </c>
       <c r="D9" t="n">
-        <v>7.10809191901963</v>
+        <v>7.108037631216011</v>
       </c>
       <c r="E9" t="n">
-        <v>6.991369510230705</v>
+        <v>6.991306009346012</v>
       </c>
       <c r="F9" t="n">
-        <v>7.227378599828242</v>
+        <v>7.227344730915419</v>
       </c>
       <c r="G9" t="n">
-        <v>7.058646415672562</v>
+        <v>7.058616925282307</v>
       </c>
       <c r="H9" t="n">
-        <v>7.284828250045622</v>
+        <v>7.284810912649458</v>
       </c>
       <c r="I9" t="n">
-        <v>7.073071409927141</v>
+        <v>7.073102147444002</v>
       </c>
       <c r="J9" t="n">
-        <v>7.19437613144471</v>
+        <v>7.19433822604586</v>
       </c>
       <c r="K9" t="n">
-        <v>6.958895743269881</v>
+        <v>6.958916553343831</v>
       </c>
       <c r="L9" t="n">
-        <v>7.283686703737705</v>
+        <v>7.283674280588072</v>
       </c>
       <c r="M9" t="n">
-        <v>7.132403068922436</v>
+        <v>7.132395635255754</v>
       </c>
       <c r="N9" t="n">
-        <v>7.235639384259177</v>
+        <v>7.235693822806179</v>
       </c>
       <c r="O9" t="n">
-        <v>6.862766745732305</v>
+        <v>6.862822411320042</v>
       </c>
       <c r="P9" t="n">
-        <v>7.409303777708399</v>
+        <v>7.409394481356841</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.873115690424281</v>
+        <v>6.873207063281254</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.880460012309487</v>
+        <v>6.880426535029575</v>
       </c>
       <c r="B10" t="n">
-        <v>6.898138553780733</v>
+        <v>6.898131630371951</v>
       </c>
       <c r="C10" t="n">
-        <v>6.88521762391834</v>
+        <v>6.885213572095017</v>
       </c>
       <c r="D10" t="n">
-        <v>7.062627803839852</v>
+        <v>7.06260670716342</v>
       </c>
       <c r="E10" t="n">
-        <v>6.956954834068215</v>
+        <v>6.956979160138643</v>
       </c>
       <c r="F10" t="n">
-        <v>7.204327498276374</v>
+        <v>7.204260091356539</v>
       </c>
       <c r="G10" t="n">
-        <v>7.012360499342366</v>
+        <v>7.012324236391071</v>
       </c>
       <c r="H10" t="n">
-        <v>7.280022957141352</v>
+        <v>7.280006345786648</v>
       </c>
       <c r="I10" t="n">
-        <v>7.051611321012042</v>
+        <v>7.051554520518409</v>
       </c>
       <c r="J10" t="n">
-        <v>7.224938439415743</v>
+        <v>7.225000646411278</v>
       </c>
       <c r="K10" t="n">
-        <v>6.969710982983212</v>
+        <v>6.9696272595361</v>
       </c>
       <c r="L10" t="n">
-        <v>7.27869980119354</v>
+        <v>7.278647435894626</v>
       </c>
       <c r="M10" t="n">
-        <v>7.111750757247338</v>
+        <v>7.111726601774278</v>
       </c>
       <c r="N10" t="n">
-        <v>7.210541492981997</v>
+        <v>7.210500699219793</v>
       </c>
       <c r="O10" t="n">
-        <v>6.828744739061482</v>
+        <v>6.828717138751414</v>
       </c>
       <c r="P10" t="n">
-        <v>7.330514644205504</v>
+        <v>7.330478839562474</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.856825516084286</v>
+        <v>6.856725547795212</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6.850863951766162</v>
+        <v>6.850839041838806</v>
       </c>
       <c r="B11" t="n">
-        <v>6.872796646462302</v>
+        <v>6.872780037417352</v>
       </c>
       <c r="C11" t="n">
-        <v>6.854968049149599</v>
+        <v>6.854958544220448</v>
       </c>
       <c r="D11" t="n">
-        <v>7.024174241477363</v>
+        <v>7.024182793715042</v>
       </c>
       <c r="E11" t="n">
-        <v>6.940230619700825</v>
+        <v>6.940182108299965</v>
       </c>
       <c r="F11" t="n">
-        <v>7.185955474435024</v>
+        <v>7.185876242260047</v>
       </c>
       <c r="G11" t="n">
-        <v>6.988298273849456</v>
+        <v>6.988264238906597</v>
       </c>
       <c r="H11" t="n">
-        <v>7.265456321391564</v>
+        <v>7.265353538762107</v>
       </c>
       <c r="I11" t="n">
-        <v>7.023576121698092</v>
+        <v>7.023545410282717</v>
       </c>
       <c r="J11" t="n">
-        <v>7.205473952952936</v>
+        <v>7.205335018531187</v>
       </c>
       <c r="K11" t="n">
-        <v>6.938254650723117</v>
+        <v>6.938247519862356</v>
       </c>
       <c r="L11" t="n">
-        <v>7.231235175192825</v>
+        <v>7.231178848195899</v>
       </c>
       <c r="M11" t="n">
-        <v>7.058436758211832</v>
+        <v>7.058388336724619</v>
       </c>
       <c r="N11" t="n">
-        <v>7.156762601316179</v>
+        <v>7.156821654909286</v>
       </c>
       <c r="O11" t="n">
-        <v>6.768105350419832</v>
+        <v>6.768072454158484</v>
       </c>
       <c r="P11" t="n">
-        <v>7.281528423924581</v>
+        <v>7.281549669146987</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.821238441010963</v>
+        <v>6.821142863904351</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.818362136984505</v>
+        <v>6.818305841498201</v>
       </c>
       <c r="B12" t="n">
-        <v>6.847569034013768</v>
+        <v>6.847524507752333</v>
       </c>
       <c r="C12" t="n">
-        <v>6.830213743677627</v>
+        <v>6.830168605973541</v>
       </c>
       <c r="D12" t="n">
-        <v>6.997474118435079</v>
+        <v>6.997452657495369</v>
       </c>
       <c r="E12" t="n">
-        <v>6.932403174101764</v>
+        <v>6.932365221057318</v>
       </c>
       <c r="F12" t="n">
-        <v>7.146976716627432</v>
+        <v>7.146964299252923</v>
       </c>
       <c r="G12" t="n">
-        <v>6.951379628482071</v>
+        <v>6.95136331425361</v>
       </c>
       <c r="H12" t="n">
-        <v>7.239682477632301</v>
+        <v>7.239667477273714</v>
       </c>
       <c r="I12" t="n">
-        <v>6.973417502506336</v>
+        <v>6.973386349283842</v>
       </c>
       <c r="J12" t="n">
-        <v>7.149167251434514</v>
+        <v>7.149176559680853</v>
       </c>
       <c r="K12" t="n">
-        <v>6.881797893363237</v>
+        <v>6.881812791405491</v>
       </c>
       <c r="L12" t="n">
-        <v>7.203556183203458</v>
+        <v>7.203636030570213</v>
       </c>
       <c r="M12" t="n">
-        <v>7.03233545614434</v>
+        <v>7.032400762721483</v>
       </c>
       <c r="N12" t="n">
-        <v>7.121363446642439</v>
+        <v>7.1214156713759</v>
       </c>
       <c r="O12" t="n">
-        <v>6.712400274658285</v>
+        <v>6.712420957048052</v>
       </c>
       <c r="P12" t="n">
-        <v>7.291068188985515</v>
+        <v>7.291163711215871</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.761038000765355</v>
+        <v>6.761059132827219</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.779306247669621</v>
+        <v>6.779263476798656</v>
       </c>
       <c r="B13" t="n">
-        <v>6.799786766442114</v>
+        <v>6.799745292044233</v>
       </c>
       <c r="C13" t="n">
-        <v>6.795905649234303</v>
+        <v>6.795877517552805</v>
       </c>
       <c r="D13" t="n">
-        <v>7.005164830907576</v>
+        <v>7.005185401710645</v>
       </c>
       <c r="E13" t="n">
-        <v>6.86029643391241</v>
+        <v>6.86024482991495</v>
       </c>
       <c r="F13" t="n">
-        <v>7.111724111817546</v>
+        <v>7.111713980320173</v>
       </c>
       <c r="G13" t="n">
-        <v>6.906332023441667</v>
+        <v>6.906287193299761</v>
       </c>
       <c r="H13" t="n">
-        <v>7.175931884464715</v>
+        <v>7.175916512587052</v>
       </c>
       <c r="I13" t="n">
-        <v>6.924026692409892</v>
+        <v>6.92398527672319</v>
       </c>
       <c r="J13" t="n">
-        <v>7.044306967271524</v>
+        <v>7.044211638996612</v>
       </c>
       <c r="K13" t="n">
-        <v>6.81217128173107</v>
+        <v>6.81219846009495</v>
       </c>
       <c r="L13" t="n">
-        <v>7.184000541322942</v>
+        <v>7.183985828911807</v>
       </c>
       <c r="M13" t="n">
-        <v>6.993397367676955</v>
+        <v>6.993375226627411</v>
       </c>
       <c r="N13" t="n">
-        <v>7.116260846837337</v>
+        <v>7.116178469114031</v>
       </c>
       <c r="O13" t="n">
-        <v>6.657578004057468</v>
+        <v>6.657629121200581</v>
       </c>
       <c r="P13" t="n">
-        <v>7.298303124369472</v>
+        <v>7.298199470687768</v>
       </c>
       <c r="Q13" t="n">
-        <v>6.665854915985382</v>
+        <v>6.665959280910182</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6.734195535032342</v>
+        <v>6.734139674795964</v>
       </c>
       <c r="B14" t="n">
-        <v>6.751421104197129</v>
+        <v>6.751369362033702</v>
       </c>
       <c r="C14" t="n">
-        <v>6.748176672522233</v>
+        <v>6.748132660247547</v>
       </c>
       <c r="D14" t="n">
-        <v>6.961903872054256</v>
+        <v>6.961810372293454</v>
       </c>
       <c r="E14" t="n">
-        <v>6.818285706672734</v>
+        <v>6.818246240187148</v>
       </c>
       <c r="F14" t="n">
-        <v>7.068749240736725</v>
+        <v>7.068665706325934</v>
       </c>
       <c r="G14" t="n">
-        <v>6.887415170680631</v>
+        <v>6.887352207373997</v>
       </c>
       <c r="H14" t="n">
-        <v>7.127099927198375</v>
+        <v>7.127017493423039</v>
       </c>
       <c r="I14" t="n">
-        <v>6.871660008523031</v>
+        <v>6.87166163634523</v>
       </c>
       <c r="J14" t="n">
-        <v>7.009276641441742</v>
+        <v>7.009161860945759</v>
       </c>
       <c r="K14" t="n">
-        <v>6.733509064617446</v>
+        <v>6.73351280924206</v>
       </c>
       <c r="L14" t="n">
-        <v>7.146291648603578</v>
+        <v>7.146253991863545</v>
       </c>
       <c r="M14" t="n">
-        <v>6.970448640671128</v>
+        <v>6.970426618296113</v>
       </c>
       <c r="N14" t="n">
-        <v>7.101847071711091</v>
+        <v>7.101767573293178</v>
       </c>
       <c r="O14" t="n">
-        <v>6.620521223172479</v>
+        <v>6.620493297262853</v>
       </c>
       <c r="P14" t="n">
-        <v>7.309597280623531</v>
+        <v>7.309422046963204</v>
       </c>
       <c r="Q14" t="n">
-        <v>6.521343427510319</v>
+        <v>6.521405767040387</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6.674492943606525</v>
+        <v>6.674588849558841</v>
       </c>
       <c r="B15" t="n">
-        <v>6.702861210792872</v>
+        <v>6.702950659317591</v>
       </c>
       <c r="C15" t="n">
-        <v>6.692897923637354</v>
+        <v>6.692976204614807</v>
       </c>
       <c r="D15" t="n">
-        <v>6.887167648661777</v>
+        <v>6.88717690940031</v>
       </c>
       <c r="E15" t="n">
-        <v>6.812990278099402</v>
+        <v>6.813060926125489</v>
       </c>
       <c r="F15" t="n">
-        <v>7.010935670044034</v>
+        <v>7.010949900277366</v>
       </c>
       <c r="G15" t="n">
-        <v>6.830234078347731</v>
+        <v>6.830296222898386</v>
       </c>
       <c r="H15" t="n">
-        <v>7.131879977063894</v>
+        <v>7.13185010796164</v>
       </c>
       <c r="I15" t="n">
-        <v>6.777671059715038</v>
+        <v>6.777613572270314</v>
       </c>
       <c r="J15" t="n">
-        <v>7.194411191220752</v>
+        <v>7.194434289335441</v>
       </c>
       <c r="K15" t="n">
-        <v>6.582832665123219</v>
+        <v>6.58274953995238</v>
       </c>
       <c r="L15" t="n">
-        <v>7.101837254973799</v>
+        <v>7.101789310241916</v>
       </c>
       <c r="M15" t="n">
-        <v>6.929553515505098</v>
+        <v>6.929537314145802</v>
       </c>
       <c r="N15" t="n">
-        <v>7.107652970623589</v>
+        <v>7.107783098558218</v>
       </c>
       <c r="O15" t="n">
-        <v>6.563158521199682</v>
+        <v>6.563321616124608</v>
       </c>
       <c r="P15" t="n">
-        <v>7.308289550977177</v>
+        <v>7.308290323245081</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.411370726804934</v>
+        <v>6.411460280327755</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.622685112549769</v>
+        <v>6.622603183674149</v>
       </c>
       <c r="B16" t="n">
-        <v>6.637924194804036</v>
+        <v>6.637830968052382</v>
       </c>
       <c r="C16" t="n">
-        <v>6.637703318214974</v>
+        <v>6.637637439089432</v>
       </c>
       <c r="D16" t="n">
-        <v>6.843784681787831</v>
+        <v>6.843725450066591</v>
       </c>
       <c r="E16" t="n">
-        <v>6.719361042593596</v>
+        <v>6.719329800787</v>
       </c>
       <c r="F16" t="n">
-        <v>6.949852424637696</v>
+        <v>6.949837520690639</v>
       </c>
       <c r="G16" t="n">
-        <v>6.764738910724312</v>
+        <v>6.76469691637717</v>
       </c>
       <c r="H16" t="n">
-        <v>6.982329697576125</v>
+        <v>6.982212952854924</v>
       </c>
       <c r="I16" t="n">
-        <v>6.713151956256619</v>
+        <v>6.713116539407642</v>
       </c>
       <c r="J16" t="n">
-        <v>6.845407248223039</v>
+        <v>6.845018447920506</v>
       </c>
       <c r="K16" t="n">
-        <v>6.516518501131467</v>
+        <v>6.516539495290839</v>
       </c>
       <c r="L16" t="n">
-        <v>7.064643740962247</v>
+        <v>7.064684338747558</v>
       </c>
       <c r="M16" t="n">
-        <v>6.872743355602719</v>
+        <v>6.872754794509142</v>
       </c>
       <c r="N16" t="n">
-        <v>7.081572704421721</v>
+        <v>7.081630043267922</v>
       </c>
       <c r="O16" t="n">
-        <v>6.491237597823349</v>
+        <v>6.491215950012029</v>
       </c>
       <c r="P16" t="n">
-        <v>7.302886839489158</v>
+        <v>7.30284767175805</v>
       </c>
       <c r="Q16" t="n">
-        <v>6.333186023840998</v>
+        <v>6.33321708156045</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.538794781632815</v>
+        <v>6.538743437829917</v>
       </c>
       <c r="B17" t="n">
-        <v>6.56601869772916</v>
+        <v>6.565976328638123</v>
       </c>
       <c r="C17" t="n">
-        <v>6.556825323255517</v>
+        <v>6.556793519584509</v>
       </c>
       <c r="D17" t="n">
-        <v>6.756664644301918</v>
+        <v>6.756664062030941</v>
       </c>
       <c r="E17" t="n">
-        <v>6.650944694430386</v>
+        <v>6.650928531454372</v>
       </c>
       <c r="F17" t="n">
-        <v>6.891835507243964</v>
+        <v>6.891813891400276</v>
       </c>
       <c r="G17" t="n">
-        <v>6.66942119640434</v>
+        <v>6.669349543721287</v>
       </c>
       <c r="H17" t="n">
-        <v>6.923095504758225</v>
+        <v>6.923160675054967</v>
       </c>
       <c r="I17" t="n">
-        <v>6.592074422087799</v>
+        <v>6.59208661122284</v>
       </c>
       <c r="J17" t="n">
-        <v>6.730796840342864</v>
+        <v>6.730851786001493</v>
       </c>
       <c r="K17" t="n">
-        <v>6.418792881392953</v>
+        <v>6.418819289263131</v>
       </c>
       <c r="L17" t="n">
-        <v>7.010154538233826</v>
+        <v>7.010079019944088</v>
       </c>
       <c r="M17" t="n">
-        <v>6.788461757585138</v>
+        <v>6.788404214338585</v>
       </c>
       <c r="N17" t="n">
-        <v>7.046150410295794</v>
+        <v>7.045919041260322</v>
       </c>
       <c r="O17" t="n">
-        <v>6.434913366416906</v>
+        <v>6.435013316072326</v>
       </c>
       <c r="P17" t="n">
-        <v>7.264749516306565</v>
+        <v>7.264364858190513</v>
       </c>
       <c r="Q17" t="n">
-        <v>6.308815272318922</v>
+        <v>6.3090070290105</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.483794407369706</v>
+        <v>6.4837840171196</v>
       </c>
       <c r="B18" t="n">
-        <v>6.511997192413134</v>
+        <v>6.512011198034559</v>
       </c>
       <c r="C18" t="n">
-        <v>6.505947978654907</v>
+        <v>6.505953601255834</v>
       </c>
       <c r="D18" t="n">
-        <v>6.697839248472665</v>
+        <v>6.697886651453724</v>
       </c>
       <c r="E18" t="n">
-        <v>6.590732333860925</v>
+        <v>6.590774681187766</v>
       </c>
       <c r="F18" t="n">
-        <v>6.822113533020962</v>
+        <v>6.822137154011102</v>
       </c>
       <c r="G18" t="n">
-        <v>6.601379286649255</v>
+        <v>6.601368288333613</v>
       </c>
       <c r="H18" t="n">
-        <v>6.93755906476645</v>
+        <v>6.937577180410977</v>
       </c>
       <c r="I18" t="n">
-        <v>6.550869368501561</v>
+        <v>6.550857229003576</v>
       </c>
       <c r="J18" t="n">
-        <v>6.855586503598974</v>
+        <v>6.855595226460879</v>
       </c>
       <c r="K18" t="n">
-        <v>6.374198949854528</v>
+        <v>6.374224887140973</v>
       </c>
       <c r="L18" t="n">
-        <v>6.896980879975837</v>
+        <v>6.896966950634776</v>
       </c>
       <c r="M18" t="n">
-        <v>6.683050333742773</v>
+        <v>6.682998945144443</v>
       </c>
       <c r="N18" t="n">
-        <v>6.950531181901863</v>
+        <v>6.950549230463808</v>
       </c>
       <c r="O18" t="n">
-        <v>6.338409229275684</v>
+        <v>6.338344196694845</v>
       </c>
       <c r="P18" t="n">
-        <v>7.18648207227117</v>
+        <v>7.186618804476584</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.281026893828304</v>
+        <v>6.280988102088281</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.403318898639207</v>
+        <v>6.403260542310576</v>
       </c>
       <c r="B19" t="n">
-        <v>6.435851566023781</v>
+        <v>6.435794443843075</v>
       </c>
       <c r="C19" t="n">
-        <v>6.42485822264816</v>
+        <v>6.424805364468591</v>
       </c>
       <c r="D19" t="n">
-        <v>6.62420039607029</v>
+        <v>6.624164036831857</v>
       </c>
       <c r="E19" t="n">
-        <v>6.523574631657611</v>
+        <v>6.523514251067893</v>
       </c>
       <c r="F19" t="n">
-        <v>6.76542748472577</v>
+        <v>6.76538829158539</v>
       </c>
       <c r="G19" t="n">
-        <v>6.504295260812303</v>
+        <v>6.504239888265071</v>
       </c>
       <c r="H19" t="n">
-        <v>6.868395943373553</v>
+        <v>6.868478926334971</v>
       </c>
       <c r="I19" t="n">
-        <v>6.476253750738666</v>
+        <v>6.476252514978116</v>
       </c>
       <c r="J19" t="n">
-        <v>6.787354569857743</v>
+        <v>6.787395900393938</v>
       </c>
       <c r="K19" t="n">
-        <v>6.324807438562563</v>
+        <v>6.324843447953374</v>
       </c>
       <c r="L19" t="n">
-        <v>6.81194479557784</v>
+        <v>6.811915178569472</v>
       </c>
       <c r="M19" t="n">
-        <v>6.572056692359055</v>
+        <v>6.572025511114111</v>
       </c>
       <c r="N19" t="n">
-        <v>6.85666914948314</v>
+        <v>6.856719938260054</v>
       </c>
       <c r="O19" t="n">
-        <v>6.241425474398212</v>
+        <v>6.241493468616623</v>
       </c>
       <c r="P19" t="n">
-        <v>7.076902041057452</v>
+        <v>7.076972025511114</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.24048096403165</v>
+        <v>6.240539146447872</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6.31707886153194</v>
+        <v>6.317056010770307</v>
       </c>
       <c r="B20" t="n">
-        <v>6.363474865558906</v>
+        <v>6.363459487980913</v>
       </c>
       <c r="C20" t="n">
-        <v>6.332733752730061</v>
+        <v>6.332723442466548</v>
       </c>
       <c r="D20" t="n">
-        <v>6.493374140575328</v>
+        <v>6.493343366220694</v>
       </c>
       <c r="E20" t="n">
-        <v>6.47469218831377</v>
+        <v>6.474664315336513</v>
       </c>
       <c r="F20" t="n">
-        <v>6.670380431876839</v>
+        <v>6.670286336092669</v>
       </c>
       <c r="G20" t="n">
-        <v>6.441722676119717</v>
+        <v>6.441679547415691</v>
       </c>
       <c r="H20" t="n">
-        <v>6.800842065700968</v>
+        <v>6.800841254975723</v>
       </c>
       <c r="I20" t="n">
-        <v>6.396623883806293</v>
+        <v>6.396606231229422</v>
       </c>
       <c r="J20" t="n">
-        <v>6.698154085261518</v>
+        <v>6.698153805565623</v>
       </c>
       <c r="K20" t="n">
-        <v>6.261116447014248</v>
+        <v>6.261123335710082</v>
       </c>
       <c r="L20" t="n">
-        <v>6.687631945275897</v>
+        <v>6.687527943592618</v>
       </c>
       <c r="M20" t="n">
-        <v>6.478944237952103</v>
+        <v>6.478903020340262</v>
       </c>
       <c r="N20" t="n">
-        <v>6.733106578388488</v>
+        <v>6.73297219029121</v>
       </c>
       <c r="O20" t="n">
-        <v>6.1525384241998</v>
+        <v>6.152615292381681</v>
       </c>
       <c r="P20" t="n">
-        <v>6.935445661466659</v>
+        <v>6.935273063844837</v>
       </c>
       <c r="Q20" t="n">
-        <v>6.163792612309172</v>
+        <v>6.163855398454485</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6.238638923398422</v>
+        <v>6.238630502110368</v>
       </c>
       <c r="B21" t="n">
-        <v>6.259594852734041</v>
+        <v>6.259577908774058</v>
       </c>
       <c r="C21" t="n">
-        <v>6.255898149948208</v>
+        <v>6.255880523913054</v>
       </c>
       <c r="D21" t="n">
-        <v>6.448720607417632</v>
+        <v>6.44869777709022</v>
       </c>
       <c r="E21" t="n">
-        <v>6.34054296724558</v>
+        <v>6.340502465346877</v>
       </c>
       <c r="F21" t="n">
-        <v>6.579866608070095</v>
+        <v>6.579823466175599</v>
       </c>
       <c r="G21" t="n">
-        <v>6.364189383794635</v>
+        <v>6.364188727551451</v>
       </c>
       <c r="H21" t="n">
-        <v>6.72397631151172</v>
+        <v>6.723881237375807</v>
       </c>
       <c r="I21" t="n">
-        <v>6.279719865377472</v>
+        <v>6.279714737607419</v>
       </c>
       <c r="J21" t="n">
-        <v>6.597036782788735</v>
+        <v>6.596978827072493</v>
       </c>
       <c r="K21" t="n">
-        <v>6.093971068322213</v>
+        <v>6.09394796893194</v>
       </c>
       <c r="L21" t="n">
-        <v>6.632871379880912</v>
+        <v>6.632895278305254</v>
       </c>
       <c r="M21" t="n">
-        <v>6.445992956841591</v>
+        <v>6.446016419284706</v>
       </c>
       <c r="N21" t="n">
-        <v>6.587027917924363</v>
+        <v>6.587146714324343</v>
       </c>
       <c r="O21" t="n">
-        <v>6.073524206934718</v>
+        <v>6.073540480027206</v>
       </c>
       <c r="P21" t="n">
-        <v>6.792415097931596</v>
+        <v>6.792573501344755</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.044748545150768</v>
+        <v>6.044687835942132</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.156355732615216</v>
+        <v>6.15634142611037</v>
       </c>
       <c r="B22" t="n">
-        <v>6.176512299057085</v>
+        <v>6.176483163286995</v>
       </c>
       <c r="C22" t="n">
-        <v>6.171360615565524</v>
+        <v>6.171337115971443</v>
       </c>
       <c r="D22" t="n">
-        <v>6.371605928818488</v>
+        <v>6.371573680586932</v>
       </c>
       <c r="E22" t="n">
-        <v>6.263547491884976</v>
+        <v>6.263498973849487</v>
       </c>
       <c r="F22" t="n">
-        <v>6.51315416502251</v>
+        <v>6.513100149047102</v>
       </c>
       <c r="G22" t="n">
-        <v>6.265692448983205</v>
+        <v>6.26565443773394</v>
       </c>
       <c r="H22" t="n">
-        <v>6.677397996649337</v>
+        <v>6.677190271488354</v>
       </c>
       <c r="I22" t="n">
-        <v>6.203102334402598</v>
+        <v>6.203042208684349</v>
       </c>
       <c r="J22" t="n">
-        <v>6.596684081441756</v>
+        <v>6.59666819906312</v>
       </c>
       <c r="K22" t="n">
-        <v>6.013613360439215</v>
+        <v>6.013693050618604</v>
       </c>
       <c r="L22" t="n">
-        <v>6.572676549199471</v>
+        <v>6.572675516000541</v>
       </c>
       <c r="M22" t="n">
-        <v>6.367930963093801</v>
+        <v>6.367937299420771</v>
       </c>
       <c r="N22" t="n">
-        <v>6.540898368195314</v>
+        <v>6.540939570844266</v>
       </c>
       <c r="O22" t="n">
-        <v>6.024514146006087</v>
+        <v>6.024595883390035</v>
       </c>
       <c r="P22" t="n">
-        <v>6.638886235058619</v>
+        <v>6.638786692604923</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.82886166341458</v>
+        <v>5.828947918533773</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6.101857414345023</v>
+        <v>6.101832170596482</v>
       </c>
       <c r="B23" t="n">
-        <v>6.113073737896269</v>
+        <v>6.113036515882654</v>
       </c>
       <c r="C23" t="n">
-        <v>6.110050182810437</v>
+        <v>6.110026299078503</v>
       </c>
       <c r="D23" t="n">
-        <v>6.316073347155066</v>
+        <v>6.316000015776818</v>
       </c>
       <c r="E23" t="n">
-        <v>6.166824581741254</v>
+        <v>6.166781472231267</v>
       </c>
       <c r="F23" t="n">
-        <v>6.466267324130961</v>
+        <v>6.466179893410067</v>
       </c>
       <c r="G23" t="n">
-        <v>6.167802749492816</v>
+        <v>6.167724575329703</v>
       </c>
       <c r="H23" t="n">
-        <v>6.637867397966849</v>
+        <v>6.637808529911751</v>
       </c>
       <c r="I23" t="n">
-        <v>6.056333697545973</v>
+        <v>6.056281342729889</v>
       </c>
       <c r="J23" t="n">
-        <v>6.551046770968331</v>
+        <v>6.551055666309789</v>
       </c>
       <c r="K23" t="n">
-        <v>5.907748964290391</v>
+        <v>5.907729632676244</v>
       </c>
       <c r="L23" t="n">
-        <v>6.502103323614179</v>
+        <v>6.50202271949388</v>
       </c>
       <c r="M23" t="n">
-        <v>6.263509627326852</v>
+        <v>6.263432360619485</v>
       </c>
       <c r="N23" t="n">
-        <v>6.479906979402206</v>
+        <v>6.479954808182383</v>
       </c>
       <c r="O23" t="n">
-        <v>5.935801693492362</v>
+        <v>5.93582498951499</v>
       </c>
       <c r="P23" t="n">
-        <v>6.571691369492701</v>
+        <v>6.57170787118579</v>
       </c>
       <c r="Q23" t="n">
-        <v>5.734806451629868</v>
+        <v>5.734819217390961</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6.006949198209217</v>
+        <v>6.006944779823554</v>
       </c>
       <c r="B24" t="n">
-        <v>6.025523166360566</v>
+        <v>6.025516548347839</v>
       </c>
       <c r="C24" t="n">
-        <v>6.020284534624421</v>
+        <v>6.020289162772495</v>
       </c>
       <c r="D24" t="n">
-        <v>6.229818584941861</v>
+        <v>6.229809508074444</v>
       </c>
       <c r="E24" t="n">
-        <v>6.084434809238882</v>
+        <v>6.084451025909479</v>
       </c>
       <c r="F24" t="n">
-        <v>6.385868245712233</v>
+        <v>6.385838728493678</v>
       </c>
       <c r="G24" t="n">
-        <v>6.086367304094298</v>
+        <v>6.086365279782139</v>
       </c>
       <c r="H24" t="n">
-        <v>6.568033232460515</v>
+        <v>6.567987346992259</v>
       </c>
       <c r="I24" t="n">
-        <v>5.957443392047356</v>
+        <v>5.957459564235532</v>
       </c>
       <c r="J24" t="n">
-        <v>6.532434237063337</v>
+        <v>6.532359085628239</v>
       </c>
       <c r="K24" t="n">
-        <v>5.802261811331776</v>
+        <v>5.802194642981573</v>
       </c>
       <c r="L24" t="n">
-        <v>6.428951802098783</v>
+        <v>6.428897520366338</v>
       </c>
       <c r="M24" t="n">
-        <v>6.187084925120207</v>
+        <v>6.187043814413788</v>
       </c>
       <c r="N24" t="n">
-        <v>6.390271052387544</v>
+        <v>6.390285687490167</v>
       </c>
       <c r="O24" t="n">
-        <v>5.816057132008646</v>
+        <v>5.816114353880155</v>
       </c>
       <c r="P24" t="n">
-        <v>6.583495996085927</v>
+        <v>6.583501217663549</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.693625589289098</v>
+        <v>5.693723762823595</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.93977186253132</v>
+        <v>5.93978181537705</v>
       </c>
       <c r="B25" t="n">
-        <v>5.961642150826105</v>
+        <v>5.961642173887702</v>
       </c>
       <c r="C25" t="n">
-        <v>5.960143695998084</v>
+        <v>5.960164762565468</v>
       </c>
       <c r="D25" t="n">
-        <v>6.158024577954799</v>
+        <v>6.158057943868712</v>
       </c>
       <c r="E25" t="n">
-        <v>6.02774876094369</v>
+        <v>6.027795422005768</v>
       </c>
       <c r="F25" t="n">
-        <v>6.305694251055693</v>
+        <v>6.305703713994344</v>
       </c>
       <c r="G25" t="n">
-        <v>6.025355580631087</v>
+        <v>6.025374206393205</v>
       </c>
       <c r="H25" t="n">
-        <v>6.488613724184392</v>
+        <v>6.488628551920411</v>
       </c>
       <c r="I25" t="n">
-        <v>5.912168599658203</v>
+        <v>5.912235491791892</v>
       </c>
       <c r="J25" t="n">
-        <v>6.533922875154066</v>
+        <v>6.53395710195637</v>
       </c>
       <c r="K25" t="n">
-        <v>5.71290881670977</v>
+        <v>5.713000229202101</v>
       </c>
       <c r="L25" t="n">
-        <v>6.342070872285475</v>
+        <v>6.342013533880058</v>
       </c>
       <c r="M25" t="n">
-        <v>6.112692988728457</v>
+        <v>6.112651561532437</v>
       </c>
       <c r="N25" t="n">
-        <v>6.310044468066942</v>
+        <v>6.309948028533251</v>
       </c>
       <c r="O25" t="n">
-        <v>5.767893414073661</v>
+        <v>5.768030820889734</v>
       </c>
       <c r="P25" t="n">
-        <v>6.573470302529055</v>
+        <v>6.573310795857183</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.672507683788167</v>
+        <v>5.672620691559271</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5.89618414656529</v>
+        <v>5.896064604315223</v>
       </c>
       <c r="B26" t="n">
-        <v>5.916173127277681</v>
+        <v>5.916072413839951</v>
       </c>
       <c r="C26" t="n">
-        <v>5.915410226551014</v>
+        <v>5.915303907523307</v>
       </c>
       <c r="D26" t="n">
-        <v>6.119507907995435</v>
+        <v>6.119454525295279</v>
       </c>
       <c r="E26" t="n">
-        <v>5.972108896365581</v>
+        <v>5.972019112738071</v>
       </c>
       <c r="F26" t="n">
-        <v>6.253502164853521</v>
+        <v>6.253441778503122</v>
       </c>
       <c r="G26" t="n">
-        <v>5.987748361262243</v>
+        <v>5.987740536210207</v>
       </c>
       <c r="H26" t="n">
-        <v>6.399988921110771</v>
+        <v>6.399922167699683</v>
       </c>
       <c r="I26" t="n">
-        <v>5.867733839503007</v>
+        <v>5.867798857846052</v>
       </c>
       <c r="J26" t="n">
-        <v>6.428966527204721</v>
+        <v>6.428925568042128</v>
       </c>
       <c r="K26" t="n">
-        <v>5.645131257666039</v>
+        <v>5.645084885852533</v>
       </c>
       <c r="L26" t="n">
-        <v>6.280867021249555</v>
+        <v>6.280843656557963</v>
       </c>
       <c r="M26" t="n">
-        <v>6.060411850695139</v>
+        <v>6.060400845111531</v>
       </c>
       <c r="N26" t="n">
-        <v>6.248690561189564</v>
+        <v>6.248685593881049</v>
       </c>
       <c r="O26" t="n">
-        <v>5.733049956850181</v>
+        <v>5.733025217928249</v>
       </c>
       <c r="P26" t="n">
-        <v>6.528508243342192</v>
+        <v>6.528584569658813</v>
       </c>
       <c r="Q26" t="n">
-        <v>5.669585802052855</v>
+        <v>5.669579271715803</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.853466614240615</v>
+        <v>5.853454575255201</v>
       </c>
       <c r="B27" t="n">
-        <v>5.869165680756548</v>
+        <v>5.869154962970494</v>
       </c>
       <c r="C27" t="n">
-        <v>5.865448643300612</v>
+        <v>5.865434789372911</v>
       </c>
       <c r="D27" t="n">
-        <v>6.063003469340138</v>
+        <v>6.062984737243676</v>
       </c>
       <c r="E27" t="n">
-        <v>5.926775203552677</v>
+        <v>5.926743152094219</v>
       </c>
       <c r="F27" t="n">
-        <v>6.205599992847806</v>
+        <v>6.205530037526914</v>
       </c>
       <c r="G27" t="n">
-        <v>5.952771326292045</v>
+        <v>5.95270197722967</v>
       </c>
       <c r="H27" t="n">
-        <v>6.321157014681106</v>
+        <v>6.320888725666998</v>
       </c>
       <c r="I27" t="n">
-        <v>5.845529782140304</v>
+        <v>5.845520588966132</v>
       </c>
       <c r="J27" t="n">
-        <v>6.37714607462859</v>
+        <v>6.376755488689118</v>
       </c>
       <c r="K27" t="n">
-        <v>5.613332391394017</v>
+        <v>5.613322996596152</v>
       </c>
       <c r="L27" t="n">
-        <v>6.2681122747256</v>
+        <v>6.268095286719557</v>
       </c>
       <c r="M27" t="n">
-        <v>6.060308774953577</v>
+        <v>6.060257100773108</v>
       </c>
       <c r="N27" t="n">
-        <v>6.205857331603951</v>
+        <v>6.20595636219892</v>
       </c>
       <c r="O27" t="n">
-        <v>5.705250008633469</v>
+        <v>5.705192808050033</v>
       </c>
       <c r="P27" t="n">
-        <v>6.475966961770645</v>
+        <v>6.476045663369166</v>
       </c>
       <c r="Q27" t="n">
-        <v>5.648628820923955</v>
+        <v>5.64859365009385</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5.851272573455928</v>
+        <v>5.851288593492326</v>
       </c>
       <c r="B28" t="n">
-        <v>5.85947130208327</v>
+        <v>5.859491837468978</v>
       </c>
       <c r="C28" t="n">
-        <v>5.858897724147228</v>
+        <v>5.8589147565396</v>
       </c>
       <c r="D28" t="n">
-        <v>6.043564225916081</v>
+        <v>6.043591171818747</v>
       </c>
       <c r="E28" t="n">
-        <v>5.889409896638521</v>
+        <v>5.889394165820489</v>
       </c>
       <c r="F28" t="n">
-        <v>6.198513009718745</v>
+        <v>6.198491473287437</v>
       </c>
       <c r="G28" t="n">
-        <v>5.930278376374759</v>
+        <v>5.930239294881431</v>
       </c>
       <c r="H28" t="n">
-        <v>6.29351238127226</v>
+        <v>6.293394991473945</v>
       </c>
       <c r="I28" t="n">
-        <v>5.826301598568018</v>
+        <v>5.826263755960679</v>
       </c>
       <c r="J28" t="n">
-        <v>6.325774387185792</v>
+        <v>6.325652623399913</v>
       </c>
       <c r="K28" t="n">
-        <v>5.552323122115128</v>
+        <v>5.552362074458691</v>
       </c>
       <c r="L28" t="n">
-        <v>6.233989997095297</v>
+        <v>6.233999830837456</v>
       </c>
       <c r="M28" t="n">
-        <v>6.008797549602133</v>
+        <v>6.008785408547266</v>
       </c>
       <c r="N28" t="n">
-        <v>6.211480919681033</v>
+        <v>6.211453706653741</v>
       </c>
       <c r="O28" t="n">
-        <v>5.674716099081031</v>
+        <v>5.674684649901461</v>
       </c>
       <c r="P28" t="n">
-        <v>6.422814938900451</v>
+        <v>6.422773310357612</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.676933279317905</v>
+        <v>5.676966678922916</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5.843084012163638</v>
+        <v>5.843166337179517</v>
       </c>
       <c r="B29" t="n">
-        <v>5.855573005585198</v>
+        <v>5.855663680319603</v>
       </c>
       <c r="C29" t="n">
-        <v>5.851673306696084</v>
+        <v>5.851742264648228</v>
       </c>
       <c r="D29" t="n">
-        <v>6.029064904936294</v>
+        <v>6.02911015680842</v>
       </c>
       <c r="E29" t="n">
-        <v>5.887449353962272</v>
+        <v>5.887451163080144</v>
       </c>
       <c r="F29" t="n">
-        <v>6.164719592787713</v>
+        <v>6.164701035879551</v>
       </c>
       <c r="G29" t="n">
-        <v>5.921085001901116</v>
+        <v>5.921063497746764</v>
       </c>
       <c r="H29" t="n">
-        <v>6.256822325644666</v>
+        <v>6.256770336427489</v>
       </c>
       <c r="I29" t="n">
-        <v>5.808649351928805</v>
+        <v>5.808623520868567</v>
       </c>
       <c r="J29" t="n">
-        <v>6.235835543706131</v>
+        <v>6.23580680235022</v>
       </c>
       <c r="K29" t="n">
-        <v>5.580331675999287</v>
+        <v>5.580355758472699</v>
       </c>
       <c r="L29" t="n">
-        <v>6.178863407638438</v>
+        <v>6.178792889388293</v>
       </c>
       <c r="M29" t="n">
-        <v>5.977029886530788</v>
+        <v>5.976991264463726</v>
       </c>
       <c r="N29" t="n">
-        <v>6.149005801165843</v>
+        <v>6.148838672836571</v>
       </c>
       <c r="O29" t="n">
-        <v>5.666759633506137</v>
+        <v>5.666893005567025</v>
       </c>
       <c r="P29" t="n">
-        <v>6.312166285712983</v>
+        <v>6.312027062501178</v>
       </c>
       <c r="Q29" t="n">
-        <v>5.670387268533167</v>
+        <v>5.670476446745133</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5.788171988536154</v>
+        <v>5.788245832619359</v>
       </c>
       <c r="B30" t="n">
-        <v>5.789090204070686</v>
+        <v>5.789171405920426</v>
       </c>
       <c r="C30" t="n">
-        <v>5.784933517023187</v>
+        <v>5.785019648711626</v>
       </c>
       <c r="D30" t="n">
-        <v>5.977342619733079</v>
+        <v>5.977421095095207</v>
       </c>
       <c r="E30" t="n">
-        <v>5.829318492296403</v>
+        <v>5.829368633670621</v>
       </c>
       <c r="F30" t="n">
-        <v>6.162238061839485</v>
+        <v>6.162194976047723</v>
       </c>
       <c r="G30" t="n">
-        <v>5.897432274592373</v>
+        <v>5.897394064147664</v>
       </c>
       <c r="H30" t="n">
-        <v>6.153914871007196</v>
+        <v>6.153912497386965</v>
       </c>
       <c r="I30" t="n">
-        <v>5.741210820919397</v>
+        <v>5.741201466016954</v>
       </c>
       <c r="J30" t="n">
-        <v>5.955440777639857</v>
+        <v>5.955377024308132</v>
       </c>
       <c r="K30" t="n">
-        <v>5.441663950994847</v>
+        <v>5.441669818378152</v>
       </c>
       <c r="L30" t="n">
-        <v>6.199458922476349</v>
+        <v>6.199482958626611</v>
       </c>
       <c r="M30" t="n">
-        <v>5.992615359372346</v>
+        <v>5.992651684241019</v>
       </c>
       <c r="N30" t="n">
-        <v>6.118069755982206</v>
+        <v>6.118078085605889</v>
       </c>
       <c r="O30" t="n">
-        <v>5.779847395312824</v>
+        <v>5.779838191205388</v>
       </c>
       <c r="P30" t="n">
-        <v>6.217273495878636</v>
+        <v>6.217294635136989</v>
       </c>
       <c r="Q30" t="n">
-        <v>5.702930453850554</v>
+        <v>5.702899910554209</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5.764699117878505</v>
+        <v>5.764618821129892</v>
       </c>
       <c r="B31" t="n">
-        <v>5.773795376772513</v>
+        <v>5.773722746095348</v>
       </c>
       <c r="C31" t="n">
-        <v>5.767794896102983</v>
+        <v>5.767727555395255</v>
       </c>
       <c r="D31" t="n">
-        <v>5.9787232737136</v>
+        <v>5.978719702484279</v>
       </c>
       <c r="E31" t="n">
-        <v>5.82777551155281</v>
+        <v>5.827722235101754</v>
       </c>
       <c r="F31" t="n">
-        <v>6.157263780814694</v>
+        <v>6.157217915978805</v>
       </c>
       <c r="G31" t="n">
-        <v>5.861666044063477</v>
+        <v>5.861612942950589</v>
       </c>
       <c r="H31" t="n">
-        <v>6.287653191500178</v>
+        <v>6.287547051071749</v>
       </c>
       <c r="I31" t="n">
-        <v>5.66312638891494</v>
+        <v>5.663154600980179</v>
       </c>
       <c r="J31" t="n">
-        <v>6.259945450494457</v>
+        <v>6.259768632969429</v>
       </c>
       <c r="K31" t="n">
-        <v>5.392788519606215</v>
+        <v>5.392853890453667</v>
       </c>
       <c r="L31" t="n">
-        <v>6.17967258726948</v>
+        <v>6.179685506670307</v>
       </c>
       <c r="M31" t="n">
-        <v>5.967537802765269</v>
+        <v>5.967528679844108</v>
       </c>
       <c r="N31" t="n">
-        <v>6.172481126007815</v>
+        <v>6.17250950881946</v>
       </c>
       <c r="O31" t="n">
-        <v>5.812317305698283</v>
+        <v>5.812313192618729</v>
       </c>
       <c r="P31" t="n">
-        <v>6.273059209125078</v>
+        <v>6.273145971937424</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.683883879918164</v>
+        <v>5.683897259610601</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.844462211959836</v>
+        <v>5.84442743080222</v>
       </c>
       <c r="B32" t="n">
-        <v>5.852702661720667</v>
+        <v>5.852662228414136</v>
       </c>
       <c r="C32" t="n">
-        <v>5.840413509022546</v>
+        <v>5.840400485750685</v>
       </c>
       <c r="D32" t="n">
-        <v>6.029678451017022</v>
+        <v>6.029624831659165</v>
       </c>
       <c r="E32" t="n">
-        <v>5.889826406777896</v>
+        <v>5.889812777381653</v>
       </c>
       <c r="F32" t="n">
-        <v>6.219586038706344</v>
+        <v>6.219506895564917</v>
       </c>
       <c r="G32" t="n">
-        <v>5.929761595275906</v>
+        <v>5.929766691544371</v>
       </c>
       <c r="H32" t="n">
-        <v>6.364439009400052</v>
+        <v>6.364383658898191</v>
       </c>
       <c r="I32" t="n">
-        <v>5.77119288959694</v>
+        <v>5.771383920530416</v>
       </c>
       <c r="J32" t="n">
-        <v>6.365814053816406</v>
+        <v>6.365737660446949</v>
       </c>
       <c r="K32" t="n">
-        <v>5.496889409020144</v>
+        <v>5.496985444571</v>
       </c>
       <c r="L32" t="n">
-        <v>6.202288246402911</v>
+        <v>6.2022344356216</v>
       </c>
       <c r="M32" t="n">
-        <v>5.995805798992136</v>
+        <v>5.995782506051067</v>
       </c>
       <c r="N32" t="n">
-        <v>6.185939171639165</v>
+        <v>6.185938735987666</v>
       </c>
       <c r="O32" t="n">
-        <v>5.851256445958949</v>
+        <v>5.851205151656851</v>
       </c>
       <c r="P32" t="n">
-        <v>6.222399235135926</v>
+        <v>6.222365654919804</v>
       </c>
       <c r="Q32" t="n">
-        <v>5.694011246825556</v>
+        <v>5.693976542501651</v>
       </c>
     </row>
   </sheetData>
@@ -5636,1645 +5636,1645 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.375010233072132</v>
+        <v>2.375011098552959</v>
       </c>
       <c r="B2" t="n">
-        <v>2.346132372041021</v>
+        <v>2.346125323150858</v>
       </c>
       <c r="C2" t="n">
-        <v>2.340747541038783</v>
+        <v>2.340752440257355</v>
       </c>
       <c r="D2" t="n">
-        <v>2.352758669712894</v>
+        <v>2.352769466949539</v>
       </c>
       <c r="E2" t="n">
-        <v>2.38212876999963</v>
+        <v>2.382120307875831</v>
       </c>
       <c r="F2" t="n">
-        <v>2.545868442046979</v>
+        <v>2.545871053440026</v>
       </c>
       <c r="G2" t="n">
-        <v>2.593493992419726</v>
+        <v>2.59349162448194</v>
       </c>
       <c r="H2" t="n">
-        <v>2.819994520157004</v>
+        <v>2.819932256098069</v>
       </c>
       <c r="I2" t="n">
-        <v>2.907901299017292</v>
+        <v>2.90788994267318</v>
       </c>
       <c r="J2" t="n">
-        <v>2.954020330813529</v>
+        <v>2.953925820032965</v>
       </c>
       <c r="K2" t="n">
-        <v>3.034223775681943</v>
+        <v>3.034150236498879</v>
       </c>
       <c r="L2" t="n">
-        <v>2.99718908245586</v>
+        <v>2.997148690808996</v>
       </c>
       <c r="M2" t="n">
-        <v>3.037121466171786</v>
+        <v>3.037070700740502</v>
       </c>
       <c r="N2" t="n">
-        <v>3.261921244173284</v>
+        <v>3.261941889598213</v>
       </c>
       <c r="O2" t="n">
-        <v>3.287777478406246</v>
+        <v>3.287780810919661</v>
       </c>
       <c r="P2" t="n">
-        <v>3.5554641274507</v>
+        <v>3.555452753032764</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.660283041077962</v>
+        <v>3.66032231161932</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.399195693677828</v>
+        <v>2.399073900805012</v>
       </c>
       <c r="B3" t="n">
-        <v>2.370150422216118</v>
+        <v>2.370021417029935</v>
       </c>
       <c r="C3" t="n">
-        <v>2.362185717593855</v>
+        <v>2.362067271473892</v>
       </c>
       <c r="D3" t="n">
-        <v>2.3660284443469</v>
+        <v>2.365933292985583</v>
       </c>
       <c r="E3" t="n">
-        <v>2.402697113511109</v>
+        <v>2.402584768622013</v>
       </c>
       <c r="F3" t="n">
-        <v>2.5506493684069</v>
+        <v>2.550600242174151</v>
       </c>
       <c r="G3" t="n">
-        <v>2.612663626166023</v>
+        <v>2.612562115741364</v>
       </c>
       <c r="H3" t="n">
-        <v>2.795898637279095</v>
+        <v>2.795948162636201</v>
       </c>
       <c r="I3" t="n">
-        <v>2.936609120134602</v>
+        <v>2.93660497784891</v>
       </c>
       <c r="J3" t="n">
-        <v>2.973599462743992</v>
+        <v>2.973654204587636</v>
       </c>
       <c r="K3" t="n">
-        <v>3.11025475660364</v>
+        <v>3.110271979188624</v>
       </c>
       <c r="L3" t="n">
-        <v>3.020968024958353</v>
+        <v>3.020992721189887</v>
       </c>
       <c r="M3" t="n">
-        <v>3.062076664160477</v>
+        <v>3.06208607218157</v>
       </c>
       <c r="N3" t="n">
-        <v>3.274319432774895</v>
+        <v>3.274315472368876</v>
       </c>
       <c r="O3" t="n">
-        <v>3.298603586650149</v>
+        <v>3.298596695896143</v>
       </c>
       <c r="P3" t="n">
-        <v>3.54474144554612</v>
+        <v>3.544760628425706</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.679751384116134</v>
+        <v>3.679837533837987</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.385391958654707</v>
+        <v>2.384829012165241</v>
       </c>
       <c r="B4" t="n">
-        <v>2.355519977673934</v>
+        <v>2.353046613045938</v>
       </c>
       <c r="C4" t="n">
-        <v>2.348518715697296</v>
+        <v>2.348196819305917</v>
       </c>
       <c r="D4" t="n">
-        <v>2.357204599912736</v>
+        <v>2.360130930056547</v>
       </c>
       <c r="E4" t="n">
-        <v>2.391322495071034</v>
+        <v>2.387672520596416</v>
       </c>
       <c r="F4" t="n">
-        <v>2.541245284679246</v>
+        <v>2.533624035806364</v>
       </c>
       <c r="G4" t="n">
-        <v>2.60996823058394</v>
+        <v>2.603213124208694</v>
       </c>
       <c r="H4" t="n">
-        <v>2.731686482159921</v>
+        <v>2.716761159578566</v>
       </c>
       <c r="I4" t="n">
-        <v>2.93430201157218</v>
+        <v>2.926691176245021</v>
       </c>
       <c r="J4" t="n">
-        <v>2.88073996462118</v>
+        <v>2.876728448976676</v>
       </c>
       <c r="K4" t="n">
-        <v>3.12861030235025</v>
+        <v>3.140671452593512</v>
       </c>
       <c r="L4" t="n">
-        <v>3.013378635238616</v>
+        <v>3.015037498427796</v>
       </c>
       <c r="M4" t="n">
-        <v>3.050998476126834</v>
+        <v>3.053538893580544</v>
       </c>
       <c r="N4" t="n">
-        <v>3.276934541469843</v>
+        <v>3.257660762484831</v>
       </c>
       <c r="O4" t="n">
-        <v>3.292335950487182</v>
+        <v>3.276399414680066</v>
       </c>
       <c r="P4" t="n">
-        <v>3.555081625294086</v>
+        <v>3.554502988611329</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.689470304632641</v>
+        <v>3.686626473762933</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.375607125759241</v>
+        <v>2.375497199833993</v>
       </c>
       <c r="B5" t="n">
-        <v>2.347086173248234</v>
+        <v>2.346992697524661</v>
       </c>
       <c r="C5" t="n">
-        <v>2.342271063606673</v>
+        <v>2.342174106823956</v>
       </c>
       <c r="D5" t="n">
-        <v>2.354959897751669</v>
+        <v>2.354883209916256</v>
       </c>
       <c r="E5" t="n">
-        <v>2.383897886298692</v>
+        <v>2.383829813715226</v>
       </c>
       <c r="F5" t="n">
-        <v>2.535916899916435</v>
+        <v>2.535853475435714</v>
       </c>
       <c r="G5" t="n">
-        <v>2.581096505013635</v>
+        <v>2.581022854911565</v>
       </c>
       <c r="H5" t="n">
-        <v>2.778395219389178</v>
+        <v>2.778396978914722</v>
       </c>
       <c r="I5" t="n">
-        <v>2.908305713533932</v>
+        <v>2.908297510462002</v>
       </c>
       <c r="J5" t="n">
-        <v>2.981234430172583</v>
+        <v>2.981215507384646</v>
       </c>
       <c r="K5" t="n">
-        <v>3.145172540552328</v>
+        <v>3.145149965225265</v>
       </c>
       <c r="L5" t="n">
-        <v>3.003672336241483</v>
+        <v>3.003639273582727</v>
       </c>
       <c r="M5" t="n">
-        <v>3.030106004985851</v>
+        <v>3.030064741924132</v>
       </c>
       <c r="N5" t="n">
-        <v>3.272797487896927</v>
+        <v>3.272700276839325</v>
       </c>
       <c r="O5" t="n">
-        <v>3.268256545704012</v>
+        <v>3.268124298534202</v>
       </c>
       <c r="P5" t="n">
-        <v>3.552827632292368</v>
+        <v>3.552704781997249</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.683093983163945</v>
+        <v>3.683032865302352</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.366597990408697</v>
+        <v>2.366552445428645</v>
       </c>
       <c r="B6" t="n">
-        <v>2.335869849696987</v>
+        <v>2.335826742494727</v>
       </c>
       <c r="C6" t="n">
-        <v>2.334163315098159</v>
+        <v>2.334119866124937</v>
       </c>
       <c r="D6" t="n">
-        <v>2.348180564157374</v>
+        <v>2.348150715938837</v>
       </c>
       <c r="E6" t="n">
-        <v>2.367074978661744</v>
+        <v>2.36704380564889</v>
       </c>
       <c r="F6" t="n">
-        <v>2.529932722042765</v>
+        <v>2.529941551273124</v>
       </c>
       <c r="G6" t="n">
-        <v>2.573160724706607</v>
+        <v>2.573129187156443</v>
       </c>
       <c r="H6" t="n">
-        <v>2.769183087935353</v>
+        <v>2.76915965219129</v>
       </c>
       <c r="I6" t="n">
-        <v>2.892336336144719</v>
+        <v>2.892334175786178</v>
       </c>
       <c r="J6" t="n">
-        <v>2.989543947692217</v>
+        <v>2.989527436104984</v>
       </c>
       <c r="K6" t="n">
-        <v>3.139731263310663</v>
+        <v>3.139777082331761</v>
       </c>
       <c r="L6" t="n">
-        <v>2.991611072087633</v>
+        <v>2.991634517748701</v>
       </c>
       <c r="M6" t="n">
-        <v>3.022025077206009</v>
+        <v>3.022038198304956</v>
       </c>
       <c r="N6" t="n">
-        <v>3.288610498684995</v>
+        <v>3.288679037736833</v>
       </c>
       <c r="O6" t="n">
-        <v>3.30323393127197</v>
+        <v>3.303276801197636</v>
       </c>
       <c r="P6" t="n">
-        <v>3.575389299370694</v>
+        <v>3.575368355823333</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.691005572225505</v>
+        <v>3.691048189851212</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.362247247500808</v>
+        <v>2.362223461968447</v>
       </c>
       <c r="B7" t="n">
-        <v>2.331410772081129</v>
+        <v>2.331393456740185</v>
       </c>
       <c r="C7" t="n">
-        <v>2.328547790769568</v>
+        <v>2.328531717319747</v>
       </c>
       <c r="D7" t="n">
-        <v>2.339052225568288</v>
+        <v>2.339051348720697</v>
       </c>
       <c r="E7" t="n">
-        <v>2.360353143100157</v>
+        <v>2.360339885241181</v>
       </c>
       <c r="F7" t="n">
-        <v>2.5210238576517</v>
+        <v>2.52103834248754</v>
       </c>
       <c r="G7" t="n">
-        <v>2.567316610638223</v>
+        <v>2.567282123244117</v>
       </c>
       <c r="H7" t="n">
-        <v>2.754476388380279</v>
+        <v>2.754512104105961</v>
       </c>
       <c r="I7" t="n">
-        <v>2.878951740744175</v>
+        <v>2.87896665350471</v>
       </c>
       <c r="J7" t="n">
-        <v>2.973652753603575</v>
+        <v>2.973583384206266</v>
       </c>
       <c r="K7" t="n">
-        <v>3.123027033015616</v>
+        <v>3.122975472745767</v>
       </c>
       <c r="L7" t="n">
-        <v>2.980265377962792</v>
+        <v>2.980237344691473</v>
       </c>
       <c r="M7" t="n">
-        <v>3.011204578526273</v>
+        <v>3.011154297714684</v>
       </c>
       <c r="N7" t="n">
-        <v>3.285371676574267</v>
+        <v>3.285368009609835</v>
       </c>
       <c r="O7" t="n">
-        <v>3.300862838618273</v>
+        <v>3.300816669434914</v>
       </c>
       <c r="P7" t="n">
-        <v>3.577494288324236</v>
+        <v>3.577547309636261</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.687260136350975</v>
+        <v>3.687295060234575</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.346160069264093</v>
+        <v>2.346127426726543</v>
       </c>
       <c r="B8" t="n">
-        <v>2.318369587186914</v>
+        <v>2.318341646109327</v>
       </c>
       <c r="C8" t="n">
-        <v>2.3130049155559</v>
+        <v>2.312981735265877</v>
       </c>
       <c r="D8" t="n">
-        <v>2.32605837137173</v>
+        <v>2.326038804835945</v>
       </c>
       <c r="E8" t="n">
-        <v>2.357596392910002</v>
+        <v>2.357571229044771</v>
       </c>
       <c r="F8" t="n">
-        <v>2.50884584444363</v>
+        <v>2.508797986176878</v>
       </c>
       <c r="G8" t="n">
-        <v>2.573888565657231</v>
+        <v>2.573865438645929</v>
       </c>
       <c r="H8" t="n">
-        <v>2.72807567582539</v>
+        <v>2.728046317230608</v>
       </c>
       <c r="I8" t="n">
-        <v>2.888665051696516</v>
+        <v>2.888680089524675</v>
       </c>
       <c r="J8" t="n">
-        <v>2.950745046535717</v>
+        <v>2.950695428973863</v>
       </c>
       <c r="K8" t="n">
-        <v>3.137782290360507</v>
+        <v>3.137816199198099</v>
       </c>
       <c r="L8" t="n">
-        <v>2.976191431986752</v>
+        <v>2.976115738734147</v>
       </c>
       <c r="M8" t="n">
-        <v>3.015629823458251</v>
+        <v>3.015561989965068</v>
       </c>
       <c r="N8" t="n">
-        <v>3.285890210661923</v>
+        <v>3.285816071230579</v>
       </c>
       <c r="O8" t="n">
-        <v>3.301792623878898</v>
+        <v>3.301726115322401</v>
       </c>
       <c r="P8" t="n">
-        <v>3.59649353155897</v>
+        <v>3.596421993059077</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.685651944423944</v>
+        <v>3.685587657970864</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.356215738929481</v>
+        <v>2.35627507582733</v>
       </c>
       <c r="B9" t="n">
-        <v>2.31668251076379</v>
+        <v>2.316749414614329</v>
       </c>
       <c r="C9" t="n">
-        <v>2.32491402028173</v>
+        <v>2.324979654478929</v>
       </c>
       <c r="D9" t="n">
-        <v>2.310777217386213</v>
+        <v>2.310861681572107</v>
       </c>
       <c r="E9" t="n">
-        <v>2.351210955899535</v>
+        <v>2.351278732981306</v>
       </c>
       <c r="F9" t="n">
-        <v>2.498246923548477</v>
+        <v>2.498356537672192</v>
       </c>
       <c r="G9" t="n">
-        <v>2.574554876700903</v>
+        <v>2.574625881255782</v>
       </c>
       <c r="H9" t="n">
-        <v>2.740992749112418</v>
+        <v>2.740945443326384</v>
       </c>
       <c r="I9" t="n">
-        <v>2.900758570844325</v>
+        <v>2.900712717736517</v>
       </c>
       <c r="J9" t="n">
-        <v>2.954440697528268</v>
+        <v>2.954308670807497</v>
       </c>
       <c r="K9" t="n">
-        <v>3.121090681584835</v>
+        <v>3.120972868694368</v>
       </c>
       <c r="L9" t="n">
-        <v>2.98111347394524</v>
+        <v>2.981076671389486</v>
       </c>
       <c r="M9" t="n">
-        <v>3.019270781200177</v>
+        <v>3.019218004504281</v>
       </c>
       <c r="N9" t="n">
-        <v>3.283728424871195</v>
+        <v>3.283703380051704</v>
       </c>
       <c r="O9" t="n">
-        <v>3.287965749403589</v>
+        <v>3.287961017236611</v>
       </c>
       <c r="P9" t="n">
-        <v>3.606733440347456</v>
+        <v>3.606701115640129</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.670867587464938</v>
+        <v>3.670814596536375</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.339864735878054</v>
+        <v>2.339900842701184</v>
       </c>
       <c r="B10" t="n">
-        <v>2.310263942264963</v>
+        <v>2.310316680171915</v>
       </c>
       <c r="C10" t="n">
-        <v>2.306506936664339</v>
+        <v>2.30655601274241</v>
       </c>
       <c r="D10" t="n">
-        <v>2.315386175544649</v>
+        <v>2.315449930735388</v>
       </c>
       <c r="E10" t="n">
-        <v>2.341880848299329</v>
+        <v>2.341958139720373</v>
       </c>
       <c r="F10" t="n">
-        <v>2.501987976951002</v>
+        <v>2.502016058170879</v>
       </c>
       <c r="G10" t="n">
-        <v>2.55625490069932</v>
+        <v>2.556285506056764</v>
       </c>
       <c r="H10" t="n">
-        <v>2.752398044856529</v>
+        <v>2.752390472730428</v>
       </c>
       <c r="I10" t="n">
-        <v>2.868907114908241</v>
+        <v>2.868922430208399</v>
       </c>
       <c r="J10" t="n">
-        <v>2.979978588994771</v>
+        <v>2.979962126872785</v>
       </c>
       <c r="K10" t="n">
-        <v>3.093096502208854</v>
+        <v>3.093092076575414</v>
       </c>
       <c r="L10" t="n">
-        <v>2.989512043296019</v>
+        <v>2.98943452817893</v>
       </c>
       <c r="M10" t="n">
-        <v>3.021779308175957</v>
+        <v>3.021697769640056</v>
       </c>
       <c r="N10" t="n">
-        <v>3.249775485959173</v>
+        <v>3.249757628639131</v>
       </c>
       <c r="O10" t="n">
-        <v>3.272853232940833</v>
+        <v>3.272835256279064</v>
       </c>
       <c r="P10" t="n">
-        <v>3.578296806597829</v>
+        <v>3.578244995571535</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.659216172093014</v>
+        <v>3.659221790940513</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.357913508584299</v>
+        <v>2.357981601601172</v>
       </c>
       <c r="B11" t="n">
-        <v>2.327947216805974</v>
+        <v>2.328029663923108</v>
       </c>
       <c r="C11" t="n">
-        <v>2.32359331851824</v>
+        <v>2.32367596344862</v>
       </c>
       <c r="D11" t="n">
-        <v>2.325507231692355</v>
+        <v>2.325599157517939</v>
       </c>
       <c r="E11" t="n">
-        <v>2.352524996305576</v>
+        <v>2.352627124994906</v>
       </c>
       <c r="F11" t="n">
-        <v>2.50623669591061</v>
+        <v>2.506288770981524</v>
       </c>
       <c r="G11" t="n">
-        <v>2.556316430606273</v>
+        <v>2.556369824382108</v>
       </c>
       <c r="H11" t="n">
-        <v>2.758359083278012</v>
+        <v>2.758335703508019</v>
       </c>
       <c r="I11" t="n">
-        <v>2.878438465622926</v>
+        <v>2.878449173886387</v>
       </c>
       <c r="J11" t="n">
-        <v>2.988241477012269</v>
+        <v>2.988254071624123</v>
       </c>
       <c r="K11" t="n">
-        <v>3.108266166106557</v>
+        <v>3.108242729845225</v>
       </c>
       <c r="L11" t="n">
-        <v>3.005115747221118</v>
+        <v>3.005061641341222</v>
       </c>
       <c r="M11" t="n">
-        <v>3.032729878624808</v>
+        <v>3.032663359086067</v>
       </c>
       <c r="N11" t="n">
-        <v>3.278185824876769</v>
+        <v>3.278152043820988</v>
       </c>
       <c r="O11" t="n">
-        <v>3.272629902167448</v>
+        <v>3.272515512775059</v>
       </c>
       <c r="P11" t="n">
-        <v>3.594044255604699</v>
+        <v>3.593924347529986</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.638170840328489</v>
+        <v>3.638090321404452</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.37631305434984</v>
+        <v>2.376168941669161</v>
       </c>
       <c r="B12" t="n">
-        <v>2.346581838369875</v>
+        <v>2.346438755927811</v>
       </c>
       <c r="C12" t="n">
-        <v>2.340390983116439</v>
+        <v>2.340244777325558</v>
       </c>
       <c r="D12" t="n">
-        <v>2.34178040204097</v>
+        <v>2.341625248868342</v>
       </c>
       <c r="E12" t="n">
-        <v>2.372183538628774</v>
+        <v>2.372046283923992</v>
       </c>
       <c r="F12" t="n">
-        <v>2.52087310061472</v>
+        <v>2.52076733182022</v>
       </c>
       <c r="G12" t="n">
-        <v>2.573075529450826</v>
+        <v>2.572943721900283</v>
       </c>
       <c r="H12" t="n">
-        <v>2.76061342687749</v>
+        <v>2.760664361790476</v>
       </c>
       <c r="I12" t="n">
-        <v>2.902316276693856</v>
+        <v>2.902256566990778</v>
       </c>
       <c r="J12" t="n">
-        <v>2.989623182786071</v>
+        <v>2.989641029191934</v>
       </c>
       <c r="K12" t="n">
-        <v>3.144199982364932</v>
+        <v>3.144157778694197</v>
       </c>
       <c r="L12" t="n">
-        <v>3.014269854745595</v>
+        <v>3.014230777152889</v>
       </c>
       <c r="M12" t="n">
-        <v>3.038107347074078</v>
+        <v>3.038062536675623</v>
       </c>
       <c r="N12" t="n">
-        <v>3.301892544240617</v>
+        <v>3.301859692378351</v>
       </c>
       <c r="O12" t="n">
-        <v>3.278470860855988</v>
+        <v>3.278446544416782</v>
       </c>
       <c r="P12" t="n">
-        <v>3.600346600945948</v>
+        <v>3.600334293235821</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.650431594608017</v>
+        <v>3.65045128272101</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.40893494886444</v>
+        <v>2.40906325583556</v>
       </c>
       <c r="B13" t="n">
-        <v>2.380913422863146</v>
+        <v>2.381045205403209</v>
       </c>
       <c r="C13" t="n">
-        <v>2.372074678024164</v>
+        <v>2.372202649716521</v>
       </c>
       <c r="D13" t="n">
-        <v>2.37021090032979</v>
+        <v>2.370316794115598</v>
       </c>
       <c r="E13" t="n">
-        <v>2.412120655414465</v>
+        <v>2.412243336376214</v>
       </c>
       <c r="F13" t="n">
-        <v>2.54896632385802</v>
+        <v>2.5490283452441</v>
       </c>
       <c r="G13" t="n">
-        <v>2.614321778273913</v>
+        <v>2.614397836121813</v>
       </c>
       <c r="H13" t="n">
-        <v>2.774606659990117</v>
+        <v>2.774617028708111</v>
       </c>
       <c r="I13" t="n">
-        <v>2.940028850689705</v>
+        <v>2.940049407733884</v>
       </c>
       <c r="J13" t="n">
-        <v>2.989279947578623</v>
+        <v>2.989232234317296</v>
       </c>
       <c r="K13" t="n">
-        <v>3.177390721745808</v>
+        <v>3.177351501799653</v>
       </c>
       <c r="L13" t="n">
-        <v>3.038503171945588</v>
+        <v>3.038499729821998</v>
       </c>
       <c r="M13" t="n">
-        <v>3.068076093036725</v>
+        <v>3.068080561689767</v>
       </c>
       <c r="N13" t="n">
-        <v>3.313326589001082</v>
+        <v>3.313301741716842</v>
       </c>
       <c r="O13" t="n">
-        <v>3.275091098445572</v>
+        <v>3.275106416826151</v>
       </c>
       <c r="P13" t="n">
-        <v>3.621175964490056</v>
+        <v>3.621142162712456</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.666086485806137</v>
+        <v>3.666089614953618</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.445934407015601</v>
+        <v>2.445923160762704</v>
       </c>
       <c r="B14" t="n">
-        <v>2.414460544867485</v>
+        <v>2.414442800052063</v>
       </c>
       <c r="C14" t="n">
-        <v>2.41955630801626</v>
+        <v>2.419535206187668</v>
       </c>
       <c r="D14" t="n">
-        <v>2.429278734510372</v>
+        <v>2.429254952934685</v>
       </c>
       <c r="E14" t="n">
-        <v>2.462742414247732</v>
+        <v>2.462699527440487</v>
       </c>
       <c r="F14" t="n">
-        <v>2.594284590369465</v>
+        <v>2.594288003176399</v>
       </c>
       <c r="G14" t="n">
-        <v>2.658141064060697</v>
+        <v>2.658065963751008</v>
       </c>
       <c r="H14" t="n">
-        <v>2.805659278929092</v>
+        <v>2.805681407327192</v>
       </c>
       <c r="I14" t="n">
-        <v>2.973371223601961</v>
+        <v>2.973306764003788</v>
       </c>
       <c r="J14" t="n">
-        <v>3.025992441462883</v>
+        <v>3.026087581497124</v>
       </c>
       <c r="K14" t="n">
-        <v>3.199253647487625</v>
+        <v>3.199311429559358</v>
       </c>
       <c r="L14" t="n">
-        <v>3.040892145085067</v>
+        <v>3.040846268497771</v>
       </c>
       <c r="M14" t="n">
-        <v>3.07737149145865</v>
+        <v>3.077293872590803</v>
       </c>
       <c r="N14" t="n">
-        <v>3.342708434312792</v>
+        <v>3.342639259997134</v>
       </c>
       <c r="O14" t="n">
-        <v>3.308482379745406</v>
+        <v>3.308420394341557</v>
       </c>
       <c r="P14" t="n">
-        <v>3.654929062678641</v>
+        <v>3.654749589035813</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.693900457933265</v>
+        <v>3.693813690684096</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.4449061037843</v>
+        <v>2.44493448019111</v>
       </c>
       <c r="B15" t="n">
-        <v>2.418733279773682</v>
+        <v>2.418744437028366</v>
       </c>
       <c r="C15" t="n">
-        <v>2.409163188006471</v>
+        <v>2.409181757265772</v>
       </c>
       <c r="D15" t="n">
-        <v>2.425803434210243</v>
+        <v>2.425794045040185</v>
       </c>
       <c r="E15" t="n">
-        <v>2.465461825776403</v>
+        <v>2.465415243648845</v>
       </c>
       <c r="F15" t="n">
-        <v>2.605072132859723</v>
+        <v>2.605059011871617</v>
       </c>
       <c r="G15" t="n">
-        <v>2.669234678395798</v>
+        <v>2.669154261778599</v>
       </c>
       <c r="H15" t="n">
-        <v>2.843458625870644</v>
+        <v>2.843482136479114</v>
       </c>
       <c r="I15" t="n">
-        <v>2.993255375583986</v>
+        <v>2.993201681633462</v>
       </c>
       <c r="J15" t="n">
-        <v>3.068625830325058</v>
+        <v>3.06866500513404</v>
       </c>
       <c r="K15" t="n">
-        <v>3.235041965675427</v>
+        <v>3.2350034993858</v>
       </c>
       <c r="L15" t="n">
-        <v>3.065791247432091</v>
+        <v>3.065789767769627</v>
       </c>
       <c r="M15" t="n">
-        <v>3.097572233218331</v>
+        <v>3.097532724844851</v>
       </c>
       <c r="N15" t="n">
-        <v>3.358787548801017</v>
+        <v>3.358925844136436</v>
       </c>
       <c r="O15" t="n">
-        <v>3.31891371491108</v>
+        <v>3.319001380033298</v>
       </c>
       <c r="P15" t="n">
-        <v>3.661402149129211</v>
+        <v>3.66155044922297</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.659392873364264</v>
+        <v>3.659561518413518</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.474656777939968</v>
+        <v>2.474652219776329</v>
       </c>
       <c r="B16" t="n">
-        <v>2.437296379394458</v>
+        <v>2.437292189730256</v>
       </c>
       <c r="C16" t="n">
-        <v>2.444886295010836</v>
+        <v>2.444878209541556</v>
       </c>
       <c r="D16" t="n">
-        <v>2.434652171085396</v>
+        <v>2.434633971257268</v>
       </c>
       <c r="E16" t="n">
-        <v>2.470797748391063</v>
+        <v>2.470781114623401</v>
       </c>
       <c r="F16" t="n">
-        <v>2.59529063064298</v>
+        <v>2.595247584284361</v>
       </c>
       <c r="G16" t="n">
-        <v>2.656727804488458</v>
+        <v>2.656697938364356</v>
       </c>
       <c r="H16" t="n">
-        <v>2.819491762968567</v>
+        <v>2.819361135299797</v>
       </c>
       <c r="I16" t="n">
-        <v>2.97625734436571</v>
+        <v>2.976217060962938</v>
       </c>
       <c r="J16" t="n">
-        <v>2.996664938804038</v>
+        <v>2.996411738127616</v>
       </c>
       <c r="K16" t="n">
-        <v>3.193815525625804</v>
+        <v>3.193659822887692</v>
       </c>
       <c r="L16" t="n">
-        <v>3.060223404398915</v>
+        <v>3.060146925996646</v>
       </c>
       <c r="M16" t="n">
-        <v>3.091138413716927</v>
+        <v>3.091056867100909</v>
       </c>
       <c r="N16" t="n">
-        <v>3.344576419180292</v>
+        <v>3.344509338780426</v>
       </c>
       <c r="O16" t="n">
-        <v>3.303970537166605</v>
+        <v>3.303872814308171</v>
       </c>
       <c r="P16" t="n">
-        <v>3.655945094988328</v>
+        <v>3.655793313171145</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.682861536848789</v>
+        <v>3.682678763395504</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.45115182758724</v>
+        <v>2.451208920563285</v>
       </c>
       <c r="B17" t="n">
-        <v>2.422532532404436</v>
+        <v>2.422599765363662</v>
       </c>
       <c r="C17" t="n">
-        <v>2.411419284594752</v>
+        <v>2.411489730387334</v>
       </c>
       <c r="D17" t="n">
-        <v>2.400236092531864</v>
+        <v>2.400330787276347</v>
       </c>
       <c r="E17" t="n">
-        <v>2.445644988564378</v>
+        <v>2.445730157693675</v>
       </c>
       <c r="F17" t="n">
-        <v>2.579037794964469</v>
+        <v>2.579078099191482</v>
       </c>
       <c r="G17" t="n">
-        <v>2.646518573004008</v>
+        <v>2.646542225556779</v>
       </c>
       <c r="H17" t="n">
-        <v>2.804778226757165</v>
+        <v>2.804656089479098</v>
       </c>
       <c r="I17" t="n">
-        <v>2.979603098793365</v>
+        <v>2.979571913583358</v>
       </c>
       <c r="J17" t="n">
-        <v>3.003610280437889</v>
+        <v>3.003506047122725</v>
       </c>
       <c r="K17" t="n">
-        <v>3.195412147826741</v>
+        <v>3.195455575330141</v>
       </c>
       <c r="L17" t="n">
-        <v>3.057143403073655</v>
+        <v>3.057138111576284</v>
       </c>
       <c r="M17" t="n">
-        <v>3.08676435605797</v>
+        <v>3.08674874409958</v>
       </c>
       <c r="N17" t="n">
-        <v>3.334141928634774</v>
+        <v>3.334206726270899</v>
       </c>
       <c r="O17" t="n">
-        <v>3.308237662508636</v>
+        <v>3.30832783701145</v>
       </c>
       <c r="P17" t="n">
-        <v>3.61782074392287</v>
+        <v>3.617856728089616</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.710391524789979</v>
+        <v>3.710508719102089</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.435017669250631</v>
+        <v>2.434848535977061</v>
       </c>
       <c r="B18" t="n">
-        <v>2.408149083984466</v>
+        <v>2.407975356610859</v>
       </c>
       <c r="C18" t="n">
-        <v>2.401224602917359</v>
+        <v>2.401063883402306</v>
       </c>
       <c r="D18" t="n">
-        <v>2.39828852197275</v>
+        <v>2.398174622199998</v>
       </c>
       <c r="E18" t="n">
-        <v>2.427707180049305</v>
+        <v>2.427571917089317</v>
       </c>
       <c r="F18" t="n">
-        <v>2.5533596643938</v>
+        <v>2.55331841255414</v>
       </c>
       <c r="G18" t="n">
-        <v>2.602517852876208</v>
+        <v>2.602398163929024</v>
       </c>
       <c r="H18" t="n">
-        <v>2.736538930462966</v>
+        <v>2.736631535491923</v>
       </c>
       <c r="I18" t="n">
-        <v>2.93346881599455</v>
+        <v>2.933334618851807</v>
       </c>
       <c r="J18" t="n">
-        <v>2.928272606587417</v>
+        <v>2.928423996714916</v>
       </c>
       <c r="K18" t="n">
-        <v>3.186634231699191</v>
+        <v>3.186617051496847</v>
       </c>
       <c r="L18" t="n">
-        <v>3.048368291728189</v>
+        <v>3.048340607468833</v>
       </c>
       <c r="M18" t="n">
-        <v>3.071432014799433</v>
+        <v>3.071376864786976</v>
       </c>
       <c r="N18" t="n">
-        <v>3.293608620357494</v>
+        <v>3.293651189462488</v>
       </c>
       <c r="O18" t="n">
-        <v>3.28925419617312</v>
+        <v>3.289299241967737</v>
       </c>
       <c r="P18" t="n">
-        <v>3.585363805654546</v>
+        <v>3.585457805996856</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.715520770024873</v>
+        <v>3.71568561886101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.385870699896556</v>
+        <v>2.385971253761785</v>
       </c>
       <c r="B19" t="n">
-        <v>2.360171533460262</v>
+        <v>2.360279758036207</v>
       </c>
       <c r="C19" t="n">
-        <v>2.354672758185888</v>
+        <v>2.354776804046228</v>
       </c>
       <c r="D19" t="n">
-        <v>2.365467312631353</v>
+        <v>2.365578840482788</v>
       </c>
       <c r="E19" t="n">
-        <v>2.393437826658507</v>
+        <v>2.393563058406217</v>
       </c>
       <c r="F19" t="n">
-        <v>2.542218719361042</v>
+        <v>2.542315309341761</v>
       </c>
       <c r="G19" t="n">
-        <v>2.588105304842123</v>
+        <v>2.588197450378622</v>
       </c>
       <c r="H19" t="n">
-        <v>2.774499377075429</v>
+        <v>2.774548662498373</v>
       </c>
       <c r="I19" t="n">
-        <v>2.920039694678434</v>
+        <v>2.920066315223446</v>
       </c>
       <c r="J19" t="n">
-        <v>2.989156537166956</v>
+        <v>2.989069908393661</v>
       </c>
       <c r="K19" t="n">
-        <v>3.183353337857213</v>
+        <v>3.183221179150585</v>
       </c>
       <c r="L19" t="n">
-        <v>3.049727208647564</v>
+        <v>3.04979487945854</v>
       </c>
       <c r="M19" t="n">
-        <v>3.073174485668703</v>
+        <v>3.073234672712109</v>
       </c>
       <c r="N19" t="n">
-        <v>3.254941193361151</v>
+        <v>3.254953460579211</v>
       </c>
       <c r="O19" t="n">
-        <v>3.269913821317501</v>
+        <v>3.269897963431966</v>
       </c>
       <c r="P19" t="n">
-        <v>3.559050041344241</v>
+        <v>3.559057931159609</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.669182264030616</v>
+        <v>3.669176261674297</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.335373578567117</v>
+        <v>2.335555556529433</v>
       </c>
       <c r="B20" t="n">
-        <v>2.311322747501421</v>
+        <v>2.311504674539591</v>
       </c>
       <c r="C20" t="n">
-        <v>2.311196006411031</v>
+        <v>2.311374252847168</v>
       </c>
       <c r="D20" t="n">
-        <v>2.343033263137818</v>
+        <v>2.343197145798392</v>
       </c>
       <c r="E20" t="n">
-        <v>2.367110739633306</v>
+        <v>2.36728676864042</v>
       </c>
       <c r="F20" t="n">
-        <v>2.518165258812143</v>
+        <v>2.518287566684445</v>
       </c>
       <c r="G20" t="n">
-        <v>2.574008645390174</v>
+        <v>2.574142760040301</v>
       </c>
       <c r="H20" t="n">
-        <v>2.686325968618345</v>
+        <v>2.686197431972334</v>
       </c>
       <c r="I20" t="n">
-        <v>2.908525012433073</v>
+        <v>2.908553094907638</v>
       </c>
       <c r="J20" t="n">
-        <v>2.851991649462542</v>
+        <v>2.851717635282924</v>
       </c>
       <c r="K20" t="n">
-        <v>3.201498174349812</v>
+        <v>3.201529650118392</v>
       </c>
       <c r="L20" t="n">
-        <v>3.0259896366808</v>
+        <v>3.025947343118174</v>
       </c>
       <c r="M20" t="n">
-        <v>3.049302284161939</v>
+        <v>3.049250754548216</v>
       </c>
       <c r="N20" t="n">
-        <v>3.246359611979435</v>
+        <v>3.246302505577762</v>
       </c>
       <c r="O20" t="n">
-        <v>3.240828581711103</v>
+        <v>3.240772555699836</v>
       </c>
       <c r="P20" t="n">
-        <v>3.561800130176949</v>
+        <v>3.561659002493176</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.638104927949531</v>
+        <v>3.638044393335346</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.416958904508214</v>
+        <v>2.416947106904154</v>
       </c>
       <c r="B21" t="n">
-        <v>2.386971752163144</v>
+        <v>2.386961512015142</v>
       </c>
       <c r="C21" t="n">
-        <v>2.383908579530385</v>
+        <v>2.383905191843911</v>
       </c>
       <c r="D21" t="n">
-        <v>2.387456628865801</v>
+        <v>2.387450418063755</v>
       </c>
       <c r="E21" t="n">
-        <v>2.409827746061341</v>
+        <v>2.409808622819677</v>
       </c>
       <c r="F21" t="n">
-        <v>2.542667133896615</v>
+        <v>2.542672216016187</v>
       </c>
       <c r="G21" t="n">
-        <v>2.616466735372141</v>
+        <v>2.616454256651134</v>
       </c>
       <c r="H21" t="n">
-        <v>2.679050714491941</v>
+        <v>2.679050884181067</v>
       </c>
       <c r="I21" t="n">
-        <v>2.968280894718473</v>
+        <v>2.968251871634553</v>
       </c>
       <c r="J21" t="n">
-        <v>2.839207628025593</v>
+        <v>2.839158236660153</v>
       </c>
       <c r="K21" t="n">
-        <v>3.205905889393769</v>
+        <v>3.205856354704932</v>
       </c>
       <c r="L21" t="n">
-        <v>3.05362059677699</v>
+        <v>3.053626542567388</v>
       </c>
       <c r="M21" t="n">
-        <v>3.093193267190729</v>
+        <v>3.093189542248784</v>
       </c>
       <c r="N21" t="n">
-        <v>3.248505971468705</v>
+        <v>3.248545969045007</v>
       </c>
       <c r="O21" t="n">
-        <v>3.247330767775789</v>
+        <v>3.247354293419884</v>
       </c>
       <c r="P21" t="n">
-        <v>3.604067845575009</v>
+        <v>3.604054466833404</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.674183541082958</v>
+        <v>3.67424482728548</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2.398396506082959</v>
+        <v>2.398360788648054</v>
       </c>
       <c r="B22" t="n">
-        <v>2.368108014962811</v>
+        <v>2.368076135415932</v>
       </c>
       <c r="C22" t="n">
-        <v>2.364721766493828</v>
+        <v>2.36468411962509</v>
       </c>
       <c r="D22" t="n">
-        <v>2.380217661607599</v>
+        <v>2.380164858979354</v>
       </c>
       <c r="E22" t="n">
-        <v>2.403209336839077</v>
+        <v>2.403165881404785</v>
       </c>
       <c r="F22" t="n">
-        <v>2.546295470119166</v>
+        <v>2.546226207134715</v>
       </c>
       <c r="G22" t="n">
-        <v>2.613105905240788</v>
+        <v>2.613015085705371</v>
       </c>
       <c r="H22" t="n">
-        <v>2.734502658670467</v>
+        <v>2.734546891988839</v>
       </c>
       <c r="I22" t="n">
-        <v>2.952494529360196</v>
+        <v>2.952433333084994</v>
       </c>
       <c r="J22" t="n">
-        <v>2.94372818295874</v>
+        <v>2.943584641969228</v>
       </c>
       <c r="K22" t="n">
-        <v>3.195494187702678</v>
+        <v>3.195424722886772</v>
       </c>
       <c r="L22" t="n">
-        <v>3.082161358061461</v>
+        <v>3.082115969250983</v>
       </c>
       <c r="M22" t="n">
-        <v>3.116841787326347</v>
+        <v>3.116779741163777</v>
       </c>
       <c r="N22" t="n">
-        <v>3.266590154548752</v>
+        <v>3.266553628689968</v>
       </c>
       <c r="O22" t="n">
-        <v>3.286168234685934</v>
+        <v>3.286133009967005</v>
       </c>
       <c r="P22" t="n">
-        <v>3.642855527603175</v>
+        <v>3.642816004179104</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.712347509695343</v>
+        <v>3.71227467088901</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.484926838135851</v>
+        <v>2.484790402786536</v>
       </c>
       <c r="B23" t="n">
-        <v>2.448472208904377</v>
+        <v>2.448347531738794</v>
       </c>
       <c r="C23" t="n">
-        <v>2.457243638973359</v>
+        <v>2.457111028039349</v>
       </c>
       <c r="D23" t="n">
-        <v>2.430844679407272</v>
+        <v>2.430759009548919</v>
       </c>
       <c r="E23" t="n">
-        <v>2.473352904868979</v>
+        <v>2.473234234467175</v>
       </c>
       <c r="F23" t="n">
-        <v>2.586904682811577</v>
+        <v>2.586882189682049</v>
       </c>
       <c r="G23" t="n">
-        <v>2.682353871291705</v>
+        <v>2.682244813261642</v>
       </c>
       <c r="H23" t="n">
-        <v>2.760434622019678</v>
+        <v>2.76057040207658</v>
       </c>
       <c r="I23" t="n">
-        <v>3.000696462451068</v>
+        <v>3.000643431212418</v>
       </c>
       <c r="J23" t="n">
-        <v>2.894588400858754</v>
+        <v>2.89457746395545</v>
       </c>
       <c r="K23" t="n">
-        <v>3.221387234700483</v>
+        <v>3.221354097962643</v>
       </c>
       <c r="L23" t="n">
-        <v>3.09576174638354</v>
+        <v>3.095766071866034</v>
       </c>
       <c r="M23" t="n">
-        <v>3.147902645312692</v>
+        <v>3.147870589776885</v>
       </c>
       <c r="N23" t="n">
-        <v>3.309346953822593</v>
+        <v>3.309288119311307</v>
       </c>
       <c r="O23" t="n">
-        <v>3.367974963112733</v>
+        <v>3.36791652661089</v>
       </c>
       <c r="P23" t="n">
-        <v>3.641928196526873</v>
+        <v>3.641839945061615</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.735253463774399</v>
+        <v>3.735161574333572</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2.504826767017095</v>
+        <v>2.504975263264688</v>
       </c>
       <c r="B24" t="n">
-        <v>2.466409666821689</v>
+        <v>2.466560991204862</v>
       </c>
       <c r="C24" t="n">
-        <v>2.476043567381296</v>
+        <v>2.476184148768378</v>
       </c>
       <c r="D24" t="n">
-        <v>2.447951746529038</v>
+        <v>2.448117190201369</v>
       </c>
       <c r="E24" t="n">
-        <v>2.487942855369834</v>
+        <v>2.488075662111403</v>
       </c>
       <c r="F24" t="n">
-        <v>2.617973955144172</v>
+        <v>2.618130280577554</v>
       </c>
       <c r="G24" t="n">
-        <v>2.691314624151312</v>
+        <v>2.691428849401073</v>
       </c>
       <c r="H24" t="n">
-        <v>2.810472109685211</v>
+        <v>2.81055381450582</v>
       </c>
       <c r="I24" t="n">
-        <v>3.038767522656942</v>
+        <v>3.038841560870687</v>
       </c>
       <c r="J24" t="n">
-        <v>2.944766302927333</v>
+        <v>2.944832062349983</v>
       </c>
       <c r="K24" t="n">
-        <v>3.257951776329848</v>
+        <v>3.258087788348733</v>
       </c>
       <c r="L24" t="n">
-        <v>3.112801148137546</v>
+        <v>3.112908460712875</v>
       </c>
       <c r="M24" t="n">
-        <v>3.14872584885415</v>
+        <v>3.148810186915847</v>
       </c>
       <c r="N24" t="n">
-        <v>3.335116239810972</v>
+        <v>3.335169462742388</v>
       </c>
       <c r="O24" t="n">
-        <v>3.329436906689984</v>
+        <v>3.329477186940827</v>
       </c>
       <c r="P24" t="n">
-        <v>3.650446319713955</v>
+        <v>3.650369593865272</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.720935401836746</v>
+        <v>3.720899331194406</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.475529240466765</v>
+        <v>2.4755304626245</v>
       </c>
       <c r="B25" t="n">
-        <v>2.439382611367817</v>
+        <v>2.439383143960393</v>
       </c>
       <c r="C25" t="n">
-        <v>2.447803969573023</v>
+        <v>2.447803757424417</v>
       </c>
       <c r="D25" t="n">
-        <v>2.442391266048832</v>
+        <v>2.442377058052992</v>
       </c>
       <c r="E25" t="n">
-        <v>2.477720476469369</v>
+        <v>2.477697671473191</v>
       </c>
       <c r="F25" t="n">
-        <v>2.631370646167449</v>
+        <v>2.631348799581388</v>
       </c>
       <c r="G25" t="n">
-        <v>2.694486832687562</v>
+        <v>2.694442747462671</v>
       </c>
       <c r="H25" t="n">
-        <v>2.806900745598727</v>
+        <v>2.806982994781817</v>
       </c>
       <c r="I25" t="n">
-        <v>3.037462247194911</v>
+        <v>3.037458810454245</v>
       </c>
       <c r="J25" t="n">
-        <v>2.934123732611008</v>
+        <v>2.934151156813241</v>
       </c>
       <c r="K25" t="n">
-        <v>3.220779298183921</v>
+        <v>3.22073775028716</v>
       </c>
       <c r="L25" t="n">
-        <v>3.143906181441704</v>
+        <v>3.143943213974404</v>
       </c>
       <c r="M25" t="n">
-        <v>3.172682895018935</v>
+        <v>3.17271276681995</v>
       </c>
       <c r="N25" t="n">
-        <v>3.349368739967426</v>
+        <v>3.349400853438185</v>
       </c>
       <c r="O25" t="n">
-        <v>3.326048028737797</v>
+        <v>3.326107959886565</v>
       </c>
       <c r="P25" t="n">
-        <v>3.638700242946718</v>
+        <v>3.638711928019146</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.733519757849139</v>
+        <v>3.733513773380915</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.452894999652032</v>
+        <v>2.452966983941391</v>
       </c>
       <c r="B26" t="n">
-        <v>2.416795000055219</v>
+        <v>2.416873306457232</v>
       </c>
       <c r="C26" t="n">
-        <v>2.424069027089462</v>
+        <v>2.424150100642949</v>
       </c>
       <c r="D26" t="n">
-        <v>2.427604279606622</v>
+        <v>2.427696729246582</v>
       </c>
       <c r="E26" t="n">
-        <v>2.463688151706456</v>
+        <v>2.463776908786767</v>
       </c>
       <c r="F26" t="n">
-        <v>2.624213368187426</v>
+        <v>2.624301470443228</v>
       </c>
       <c r="G26" t="n">
-        <v>2.693399278434749</v>
+        <v>2.693423039149735</v>
       </c>
       <c r="H26" t="n">
-        <v>2.820313914716744</v>
+        <v>2.820358931366023</v>
       </c>
       <c r="I26" t="n">
-        <v>3.027762258957466</v>
+        <v>3.027823031436624</v>
       </c>
       <c r="J26" t="n">
-        <v>2.977444818980241</v>
+        <v>2.977395413942062</v>
       </c>
       <c r="K26" t="n">
-        <v>3.210999724254862</v>
+        <v>3.211065859886959</v>
       </c>
       <c r="L26" t="n">
-        <v>3.120849470325668</v>
+        <v>3.12088171374805</v>
       </c>
       <c r="M26" t="n">
-        <v>3.157944115768783</v>
+        <v>3.157950223263882</v>
       </c>
       <c r="N26" t="n">
-        <v>3.341080258313418</v>
+        <v>3.341072797304268</v>
       </c>
       <c r="O26" t="n">
-        <v>3.34676344800977</v>
+        <v>3.346733168874618</v>
       </c>
       <c r="P26" t="n">
-        <v>3.611696151646153</v>
+        <v>3.611661347103574</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.749710362425176</v>
+        <v>3.749655911989899</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.416123955941782</v>
+        <v>2.416103573054773</v>
       </c>
       <c r="B27" t="n">
-        <v>2.378797214781271</v>
+        <v>2.378773168366254</v>
       </c>
       <c r="C27" t="n">
-        <v>2.387269935558379</v>
+        <v>2.387246020626436</v>
       </c>
       <c r="D27" t="n">
-        <v>2.390373251634706</v>
+        <v>2.390333719134957</v>
       </c>
       <c r="E27" t="n">
-        <v>2.419471112760479</v>
+        <v>2.419430027403456</v>
       </c>
       <c r="F27" t="n">
-        <v>2.574015482046502</v>
+        <v>2.573953438228719</v>
       </c>
       <c r="G27" t="n">
-        <v>2.65513924603601</v>
+        <v>2.655058902310384</v>
       </c>
       <c r="H27" t="n">
-        <v>2.774406643967799</v>
+        <v>2.774426479810713</v>
       </c>
       <c r="I27" t="n">
-        <v>3.00510067151742</v>
+        <v>3.005079171138591</v>
       </c>
       <c r="J27" t="n">
-        <v>2.960856636543892</v>
+        <v>2.960778568420333</v>
       </c>
       <c r="K27" t="n">
-        <v>3.114418806204108</v>
+        <v>3.114349760652529</v>
       </c>
       <c r="L27" t="n">
-        <v>3.101645127401091</v>
+        <v>3.101653629610282</v>
       </c>
       <c r="M27" t="n">
-        <v>3.146068317830192</v>
+        <v>3.146068526607384</v>
       </c>
       <c r="N27" t="n">
-        <v>3.297081641772181</v>
+        <v>3.297111571463068</v>
       </c>
       <c r="O27" t="n">
-        <v>3.32355107148811</v>
+        <v>3.323620832235895</v>
       </c>
       <c r="P27" t="n">
-        <v>3.598071922676365</v>
+        <v>3.59809433572805</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.688067913590975</v>
+        <v>3.688236410353273</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.413876098400871</v>
+        <v>2.413942850231109</v>
       </c>
       <c r="B28" t="n">
-        <v>2.376673293548668</v>
+        <v>2.376745321406644</v>
       </c>
       <c r="C28" t="n">
-        <v>2.384689886639473</v>
+        <v>2.384770637940004</v>
       </c>
       <c r="D28" t="n">
-        <v>2.375424289027184</v>
+        <v>2.375502458773203</v>
       </c>
       <c r="E28" t="n">
-        <v>2.405380939367098</v>
+        <v>2.405484547702742</v>
       </c>
       <c r="F28" t="n">
-        <v>2.555340892337914</v>
+        <v>2.555419534066751</v>
       </c>
       <c r="G28" t="n">
-        <v>2.631066152012528</v>
+        <v>2.63114299976028</v>
       </c>
       <c r="H28" t="n">
-        <v>2.789390491052482</v>
+        <v>2.789437771191444</v>
       </c>
       <c r="I28" t="n">
-        <v>2.979862190538313</v>
+        <v>2.979912692844205</v>
       </c>
       <c r="J28" t="n">
-        <v>2.984912901874874</v>
+        <v>2.984865211196807</v>
       </c>
       <c r="K28" t="n">
-        <v>3.07688345937615</v>
+        <v>3.076942224855587</v>
       </c>
       <c r="L28" t="n">
-        <v>3.085211558577085</v>
+        <v>3.085259763111083</v>
       </c>
       <c r="M28" t="n">
-        <v>3.132583977366811</v>
+        <v>3.13261896487423</v>
       </c>
       <c r="N28" t="n">
-        <v>3.298206008789836</v>
+        <v>3.2981752795674</v>
       </c>
       <c r="O28" t="n">
-        <v>3.341319015388262</v>
+        <v>3.341230214884638</v>
       </c>
       <c r="P28" t="n">
-        <v>3.64019974956802</v>
+        <v>3.64011185763701</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.752241678255384</v>
+        <v>3.752114991964779</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.348893680002062</v>
+        <v>2.348916417487901</v>
       </c>
       <c r="B29" t="n">
-        <v>2.309095925826135</v>
+        <v>2.309134295339397</v>
       </c>
       <c r="C29" t="n">
-        <v>2.316705650215977</v>
+        <v>2.31673994852375</v>
       </c>
       <c r="D29" t="n">
-        <v>2.294486517149577</v>
+        <v>2.294565981938173</v>
       </c>
       <c r="E29" t="n">
-        <v>2.324621972347303</v>
+        <v>2.324690412822346</v>
       </c>
       <c r="F29" t="n">
-        <v>2.489433772346006</v>
+        <v>2.489498380465846</v>
       </c>
       <c r="G29" t="n">
-        <v>2.551085161423097</v>
+        <v>2.551132797418211</v>
       </c>
       <c r="H29" t="n">
-        <v>2.778734247423501</v>
+        <v>2.778647304421146</v>
       </c>
       <c r="I29" t="n">
-        <v>2.896142776029561</v>
+        <v>2.896065568454078</v>
       </c>
       <c r="J29" t="n">
-        <v>2.971878027740347</v>
+        <v>2.972035152502663</v>
       </c>
       <c r="K29" t="n">
-        <v>2.953514768843008</v>
+        <v>2.95370354220233</v>
       </c>
       <c r="L29" t="n">
-        <v>3.009715239240023</v>
+        <v>3.009720710885873</v>
       </c>
       <c r="M29" t="n">
-        <v>3.051002332702199</v>
+        <v>3.051003734285084</v>
       </c>
       <c r="N29" t="n">
-        <v>3.275449058758958</v>
+        <v>3.275506096206157</v>
       </c>
       <c r="O29" t="n">
-        <v>3.316492837375404</v>
+        <v>3.316567893562576</v>
       </c>
       <c r="P29" t="n">
-        <v>3.618432887612557</v>
+        <v>3.61847693232052</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.738142739917992</v>
+        <v>3.738204396560829</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2.329508779230869</v>
+        <v>2.329296367080969</v>
       </c>
       <c r="B30" t="n">
-        <v>2.279671482886534</v>
+        <v>2.279472125211837</v>
       </c>
       <c r="C30" t="n">
-        <v>2.295192971636816</v>
+        <v>2.294987398266917</v>
       </c>
       <c r="D30" t="n">
-        <v>2.222097545763087</v>
+        <v>2.222016811952166</v>
       </c>
       <c r="E30" t="n">
-        <v>2.276111337928385</v>
+        <v>2.276014197382889</v>
       </c>
       <c r="F30" t="n">
-        <v>2.362054243433698</v>
+        <v>2.362065869090103</v>
       </c>
       <c r="G30" t="n">
-        <v>2.487533357185668</v>
+        <v>2.487495776414447</v>
       </c>
       <c r="H30" t="n">
-        <v>2.563567318188328</v>
+        <v>2.563630315856272</v>
       </c>
       <c r="I30" t="n">
-        <v>2.796175258912064</v>
+        <v>2.796167810997231</v>
       </c>
       <c r="J30" t="n">
-        <v>2.624589910182113</v>
+        <v>2.624591939185627</v>
       </c>
       <c r="K30" t="n">
-        <v>2.82763229236768</v>
+        <v>2.827643964556503</v>
       </c>
       <c r="L30" t="n">
-        <v>2.910571276261744</v>
+        <v>2.910582519549011</v>
       </c>
       <c r="M30" t="n">
-        <v>2.987843899151957</v>
+        <v>2.987831954103485</v>
       </c>
       <c r="N30" t="n">
-        <v>3.233938985121157</v>
+        <v>3.233983966370837</v>
       </c>
       <c r="O30" t="n">
-        <v>3.320302783237851</v>
+        <v>3.320328736290055</v>
       </c>
       <c r="P30" t="n">
-        <v>3.617944855530058</v>
+        <v>3.618000121832092</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.724699419392579</v>
+        <v>3.724802165280571</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.281995420141456</v>
+        <v>2.281966264781454</v>
       </c>
       <c r="B31" t="n">
-        <v>2.233911287898084</v>
+        <v>2.233888691922138</v>
       </c>
       <c r="C31" t="n">
-        <v>2.249516043616465</v>
+        <v>2.249489860984324</v>
       </c>
       <c r="D31" t="n">
-        <v>2.191023715659607</v>
+        <v>2.191027636163797</v>
       </c>
       <c r="E31" t="n">
-        <v>2.250163071783314</v>
+        <v>2.250174925465493</v>
       </c>
       <c r="F31" t="n">
-        <v>2.342330489927063</v>
+        <v>2.342374121811932</v>
       </c>
       <c r="G31" t="n">
-        <v>2.46801768344984</v>
+        <v>2.468063294839359</v>
       </c>
       <c r="H31" t="n">
-        <v>2.53917833558271</v>
+        <v>2.539182033360081</v>
       </c>
       <c r="I31" t="n">
-        <v>2.74118785676609</v>
+        <v>2.741219434059257</v>
       </c>
       <c r="J31" t="n">
-        <v>2.737193321182783</v>
+        <v>2.737205811653721</v>
       </c>
       <c r="K31" t="n">
-        <v>2.787347908500295</v>
+        <v>2.787464617199624</v>
       </c>
       <c r="L31" t="n">
-        <v>2.882223343745502</v>
+        <v>2.88222684521934</v>
       </c>
       <c r="M31" t="n">
-        <v>2.946792407384781</v>
+        <v>2.946782077009277</v>
       </c>
       <c r="N31" t="n">
-        <v>3.252184443170996</v>
+        <v>3.2521981270288</v>
       </c>
       <c r="O31" t="n">
-        <v>3.308960945688375</v>
+        <v>3.308946288262617</v>
       </c>
       <c r="P31" t="n">
-        <v>3.618289843726307</v>
+        <v>3.618299530771149</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.715099702114613</v>
+        <v>3.715140442162844</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2.370271553742342</v>
+        <v>2.370162882494701</v>
       </c>
       <c r="B32" t="n">
-        <v>2.321255883249544</v>
+        <v>2.321149218455897</v>
       </c>
       <c r="C32" t="n">
-        <v>2.338854313132533</v>
+        <v>2.338747732630272</v>
       </c>
       <c r="D32" t="n">
-        <v>2.256301687970447</v>
+        <v>2.256244091910481</v>
       </c>
       <c r="E32" t="n">
-        <v>2.319613332741992</v>
+        <v>2.319552429213583</v>
       </c>
       <c r="F32" t="n">
-        <v>2.379324864410699</v>
+        <v>2.37933026532663</v>
       </c>
       <c r="G32" t="n">
-        <v>2.513927934279748</v>
+        <v>2.513902312574694</v>
       </c>
       <c r="H32" t="n">
-        <v>2.578643197185121</v>
+        <v>2.578657734650581</v>
       </c>
       <c r="I32" t="n">
-        <v>2.804729844266228</v>
+        <v>2.804745842041625</v>
       </c>
       <c r="J32" t="n">
-        <v>2.765016934748322</v>
+        <v>2.764870987265041</v>
       </c>
       <c r="K32" t="n">
-        <v>2.896044608656644</v>
+        <v>2.895973712315866</v>
       </c>
       <c r="L32" t="n">
-        <v>2.904320644090157</v>
+        <v>2.904337003342494</v>
       </c>
       <c r="M32" t="n">
-        <v>2.970769087024149</v>
+        <v>2.970776162455644</v>
       </c>
       <c r="N32" t="n">
-        <v>3.302743445005148</v>
+        <v>3.302707783975048</v>
       </c>
       <c r="O32" t="n">
-        <v>3.318170447658997</v>
+        <v>3.318138914002758</v>
       </c>
       <c r="P32" t="n">
-        <v>3.696346227909931</v>
+        <v>3.696333073161924</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.715831049042842</v>
+        <v>3.715836725714328</v>
       </c>
     </row>
   </sheetData>
